--- a/app/webroot/excel/profit-and-loss.xlsx
+++ b/app/webroot/excel/profit-and-loss.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="460" windowWidth="21760" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="21760" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="全店" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>㈲ リバーサイド</t>
   </si>
@@ -325,16 +325,21 @@
     <t>減価償却費</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +451,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1357,17 +1369,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1392,7 +1393,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1403,8 +1404,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1436,51 +1438,12 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="7" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1509,9 +1472,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="6" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1553,22 +1513,10 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1577,12 +1525,6 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1757,22 +1699,19 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1784,9 +1723,6 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1808,15 +1744,9 @@
     <xf numFmtId="177" fontId="7" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="7" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1838,19 +1768,16 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="9" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="9" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1862,9 +1789,6 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="9" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="9" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1877,19 +1801,16 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="9" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="9" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="9" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1901,19 +1822,13 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="66" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="66" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1922,25 +1837,10 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1970,9 +1870,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="10" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2021,12 +1918,106 @@
     <xf numFmtId="177" fontId="7" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="2" fillId="8" borderId="58" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="8" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="7" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="9" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="9" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="10" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="8" borderId="58" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="9" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="3" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="6" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="8" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="6" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="5" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="5" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="3"/>
+    <cellStyle name="通貨 [0]" xfId="4" builtinId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2365,8 +2356,8 @@
   </sheetPr>
   <dimension ref="B1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2386,31 +2377,31 @@
     <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="48" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" style="34" customWidth="1"/>
     <col min="17" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:16" ht="25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="104"/>
+      <c r="O2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="84"/>
     </row>
     <row r="3" spans="2:16" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C3" s="6"/>
@@ -2426,2019 +2417,2615 @@
       <c r="M3" s="6"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="49"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="188"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107" t="s">
+      <c r="B4" s="154"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109" t="s">
+      <c r="F4" s="88"/>
+      <c r="G4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="109" t="s">
+      <c r="H4" s="90"/>
+      <c r="I4" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="110"/>
-      <c r="K4" s="109" t="s">
+      <c r="J4" s="90"/>
+      <c r="K4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="111"/>
-      <c r="M4" s="109" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="110"/>
-      <c r="O4" s="107" t="s">
+      <c r="N4" s="90"/>
+      <c r="O4" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="108"/>
+      <c r="P4" s="88"/>
     </row>
     <row r="5" spans="2:16" s="9" customFormat="1" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="197"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190" t="e">
+      <c r="C5" s="162"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="155" t="e">
         <f>E5/E5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="189"/>
-      <c r="H5" s="190" t="e">
+      <c r="G5" s="180"/>
+      <c r="H5" s="155" t="e">
         <f>G5/G5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="189"/>
-      <c r="J5" s="190" t="e">
+      <c r="I5" s="180"/>
+      <c r="J5" s="155" t="e">
         <f>I5/I5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="189"/>
-      <c r="L5" s="190" t="e">
+      <c r="K5" s="180"/>
+      <c r="L5" s="155" t="e">
         <f>K5/K5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="189">
+      <c r="M5" s="180">
         <f>I5+K5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="191" t="e">
+      <c r="N5" s="156" t="e">
         <f>M5/M5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="189">
+      <c r="O5" s="180">
         <f>E5+G5+M5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="191" t="e">
+      <c r="P5" s="156" t="e">
         <f>O5/O5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="37" t="e">
+      <c r="D6" s="77"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="23" t="e">
         <f>E6/E$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="37" t="e">
+      <c r="G6" s="181"/>
+      <c r="H6" s="23" t="e">
         <f>G6/G$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="37" t="e">
+      <c r="I6" s="181"/>
+      <c r="J6" s="23" t="e">
         <f>I6/I$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="27" t="e">
+      <c r="K6" s="181"/>
+      <c r="L6" s="14" t="e">
         <f>K6/K$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="181">
         <f>I6+K6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="37" t="e">
+      <c r="N6" s="23" t="e">
         <f>M6/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="181">
         <f>E6+G6+M6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="37" t="e">
+      <c r="P6" s="23" t="e">
         <f>O6/O$5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="122"/>
-      <c r="C7" s="143" t="s">
+      <c r="B7" s="101"/>
+      <c r="C7" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="150" t="e">
+      <c r="D7" s="120"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="125" t="e">
         <f t="shared" ref="F7:H10" si="0">E7/E$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="149"/>
-      <c r="H7" s="150" t="e">
+      <c r="G7" s="182"/>
+      <c r="H7" s="125" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150" t="e">
+      <c r="I7" s="182"/>
+      <c r="J7" s="125" t="e">
         <f t="shared" ref="J7" si="1">I7/I$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="149"/>
-      <c r="L7" s="151" t="e">
+      <c r="K7" s="182"/>
+      <c r="L7" s="126" t="e">
         <f t="shared" ref="L7" si="2">K7/K$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="149">
+      <c r="M7" s="182">
         <f>I7+K7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="150" t="e">
+      <c r="N7" s="125" t="e">
         <f>M7/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="149">
+      <c r="O7" s="182">
         <f t="shared" ref="O7:O11" si="3">E7+G7+M7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="150" t="e">
+      <c r="P7" s="125" t="e">
         <f>O7/O$5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="126" t="e">
+      <c r="D8" s="104"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="105" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="127"/>
-      <c r="H8" s="126" t="e">
+      <c r="G8" s="176"/>
+      <c r="H8" s="105" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="127"/>
-      <c r="J8" s="126" t="e">
+      <c r="I8" s="176"/>
+      <c r="J8" s="105" t="e">
         <f t="shared" ref="J8" si="4">I8/I$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="127"/>
-      <c r="L8" s="128" t="e">
+      <c r="K8" s="176"/>
+      <c r="L8" s="106" t="e">
         <f t="shared" ref="L8" si="5">K8/K$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="127">
+      <c r="M8" s="176">
         <f>I8+K8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="126" t="e">
+      <c r="N8" s="105" t="e">
         <f>M8/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="127">
+      <c r="O8" s="176">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P8" s="126" t="e">
+      <c r="P8" s="105" t="e">
         <f>O8/O$5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="123"/>
-      <c r="C9" s="152" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="154" t="e">
+      <c r="D9" s="127"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="128" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="153"/>
-      <c r="H9" s="154" t="e">
+      <c r="G9" s="177"/>
+      <c r="H9" s="128" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154" t="e">
+      <c r="I9" s="177"/>
+      <c r="J9" s="128" t="e">
         <f t="shared" ref="J9" si="6">I9/I$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="153"/>
-      <c r="L9" s="155" t="e">
+      <c r="K9" s="177"/>
+      <c r="L9" s="129" t="e">
         <f t="shared" ref="L9" si="7">K9/K$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="153">
+      <c r="M9" s="177">
         <f>I9+K9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="154" t="e">
+      <c r="N9" s="128" t="e">
         <f t="shared" ref="N9:P9" si="8">M9/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="153">
+      <c r="O9" s="177">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P9" s="154" t="e">
+      <c r="P9" s="128" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="123"/>
-      <c r="C10" s="116" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="119" t="e">
+      <c r="D10" s="97"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="119" t="e">
+      <c r="G10" s="178"/>
+      <c r="H10" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="118"/>
-      <c r="J10" s="119" t="e">
+      <c r="I10" s="178"/>
+      <c r="J10" s="98" t="e">
         <f t="shared" ref="J10" si="9">I10/I$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="118"/>
-      <c r="L10" s="120" t="e">
+      <c r="K10" s="178"/>
+      <c r="L10" s="99" t="e">
         <f t="shared" ref="L10" si="10">K10/K$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="118">
+      <c r="M10" s="178">
         <f>I10+K10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="119" t="e">
+      <c r="N10" s="98" t="e">
         <f t="shared" ref="N10:P10" si="11">M10/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="118">
+      <c r="O10" s="178">
         <f>E10+G10+M10</f>
         <v>0</v>
       </c>
-      <c r="P10" s="119" t="e">
+      <c r="P10" s="98" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="122"/>
-      <c r="C11" s="156" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159" t="e">
+      <c r="D11" s="131"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="132" t="e">
         <f>E11/E$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="158"/>
-      <c r="H11" s="159" t="e">
+      <c r="G11" s="179"/>
+      <c r="H11" s="132" t="e">
         <f>G11/G$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159" t="e">
+      <c r="I11" s="179"/>
+      <c r="J11" s="132" t="e">
         <f>I11/I$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="158"/>
-      <c r="L11" s="160" t="e">
+      <c r="K11" s="179"/>
+      <c r="L11" s="133" t="e">
         <f>K11/K$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="149">
+      <c r="M11" s="182">
         <f>I11+K11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="159" t="e">
+      <c r="N11" s="132" t="e">
         <f>M11/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="158">
+      <c r="O11" s="179">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P11" s="159" t="e">
+      <c r="P11" s="132" t="e">
         <f>O11/O$5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="40"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="40"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="29"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="10">
         <f>I12+K12</f>
         <v>0</v>
       </c>
-      <c r="N12" s="40"/>
+      <c r="N12" s="26"/>
       <c r="O12" s="10">
         <f>E12+G12+M12</f>
         <v>0</v>
       </c>
-      <c r="P12" s="40"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="64"/>
-      <c r="C13" s="129" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="132">
+      <c r="D13" s="108"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="110">
         <f>I13+K13</f>
         <v>0</v>
       </c>
-      <c r="N13" s="133"/>
-      <c r="O13" s="132">
+      <c r="N13" s="111"/>
+      <c r="O13" s="110">
         <f t="shared" ref="O13:O15" si="12">E13+G13+M13</f>
         <v>0</v>
       </c>
-      <c r="P13" s="133"/>
+      <c r="P13" s="111"/>
     </row>
     <row r="14" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="64"/>
-      <c r="C14" s="116" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="132">
+      <c r="D14" s="97"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="110">
         <f>I14+K14</f>
         <v>0</v>
       </c>
-      <c r="N14" s="133"/>
-      <c r="O14" s="132">
+      <c r="N14" s="111"/>
+      <c r="O14" s="110">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P14" s="133"/>
+      <c r="P14" s="111"/>
     </row>
     <row r="15" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="64"/>
-      <c r="C15" s="129" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="142"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="132">
+      <c r="D15" s="118"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="110">
         <f>I15+K15</f>
         <v>0</v>
       </c>
-      <c r="N15" s="133"/>
-      <c r="O15" s="132">
+      <c r="N15" s="111"/>
+      <c r="O15" s="110">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P15" s="133"/>
+      <c r="P15" s="111"/>
     </row>
     <row r="16" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="65"/>
-      <c r="C16" s="161" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="162"/>
-      <c r="E16" s="26">
+      <c r="D16" s="135"/>
+      <c r="E16" s="13">
         <f>SUM(E12:E15)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="26">
+      <c r="F16" s="25"/>
+      <c r="G16" s="13">
         <f>SUM(G12:G15)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="26">
+      <c r="H16" s="25"/>
+      <c r="I16" s="13">
         <f>SUM(I12:I15)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="26">
+      <c r="J16" s="25"/>
+      <c r="K16" s="13">
         <f>SUM(K12:K15)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="26">
+      <c r="L16" s="17"/>
+      <c r="M16" s="13">
         <f>SUM(M12:M15)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="26">
+      <c r="N16" s="25"/>
+      <c r="O16" s="13">
         <f>SUM(O12:O15)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="39"/>
+      <c r="P16" s="25"/>
     </row>
     <row r="17" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="164" t="s">
+      <c r="C17" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="139"/>
-      <c r="E17" s="169" t="e">
+      <c r="D17" s="115"/>
+      <c r="E17" s="171" t="e">
         <f>E8/E12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="140"/>
-      <c r="G17" s="169" t="e">
+      <c r="F17" s="116"/>
+      <c r="G17" s="171" t="e">
         <f>G8/G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="140"/>
-      <c r="I17" s="169" t="e">
+      <c r="H17" s="116"/>
+      <c r="I17" s="171" t="e">
         <f>I8/I12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="140"/>
-      <c r="K17" s="169" t="e">
+      <c r="J17" s="116"/>
+      <c r="K17" s="171" t="e">
         <f>K8/K12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="141"/>
-      <c r="M17" s="50" t="e">
+      <c r="L17" s="117"/>
+      <c r="M17" s="189" t="e">
         <f>AVERAGE(I17,K17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N17" s="140"/>
-      <c r="O17" s="50" t="e">
+      <c r="N17" s="116"/>
+      <c r="O17" s="189" t="e">
         <f>AVERAGE(E17,G17,M17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P17" s="140"/>
+      <c r="P17" s="116"/>
     </row>
     <row r="18" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="64"/>
-      <c r="C18" s="165" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="170" t="e">
+      <c r="D18" s="113"/>
+      <c r="E18" s="172" t="e">
         <f>E9/E13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="131"/>
-      <c r="G18" s="170" t="e">
+      <c r="F18" s="109"/>
+      <c r="G18" s="172" t="e">
         <f>G9/G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="131"/>
-      <c r="I18" s="170" t="e">
+      <c r="H18" s="109"/>
+      <c r="I18" s="172" t="e">
         <f>I9/I13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="138"/>
-      <c r="K18" s="170" t="e">
+      <c r="J18" s="114"/>
+      <c r="K18" s="172" t="e">
         <f>K9/K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="192"/>
-      <c r="M18" s="137" t="e">
+      <c r="L18" s="157"/>
+      <c r="M18" s="190" t="e">
         <f t="shared" ref="M18:M20" si="13">AVERAGE(I18,K18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="131"/>
-      <c r="O18" s="135" t="e">
+      <c r="N18" s="109"/>
+      <c r="O18" s="191" t="e">
         <f t="shared" ref="O18:O20" si="14">AVERAGE(E18,G18,M18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P18" s="131"/>
+      <c r="P18" s="109"/>
     </row>
     <row r="19" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="64"/>
-      <c r="C19" s="166" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="171" t="e">
+      <c r="D19" s="97"/>
+      <c r="E19" s="173" t="e">
         <f>E10/E14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="133"/>
-      <c r="G19" s="171" t="e">
+      <c r="F19" s="111"/>
+      <c r="G19" s="173" t="e">
         <f>G10/G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="133"/>
-      <c r="I19" s="171" t="e">
+      <c r="H19" s="111"/>
+      <c r="I19" s="173" t="e">
         <f>I10/I14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="133"/>
-      <c r="K19" s="171" t="e">
+      <c r="J19" s="111"/>
+      <c r="K19" s="173" t="e">
         <f>K10/K14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="134"/>
-      <c r="M19" s="132" t="e">
+      <c r="L19" s="112"/>
+      <c r="M19" s="174" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="133"/>
-      <c r="O19" s="132" t="e">
+      <c r="N19" s="111"/>
+      <c r="O19" s="174" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="133"/>
+      <c r="P19" s="111"/>
     </row>
     <row r="20" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="64"/>
-      <c r="C20" s="163" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="132" t="e">
+      <c r="D20" s="118"/>
+      <c r="E20" s="174" t="e">
         <f t="shared" ref="E20:G20" si="15">E11/E15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="133"/>
-      <c r="G20" s="132" t="e">
+      <c r="F20" s="111"/>
+      <c r="G20" s="174" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="133"/>
-      <c r="I20" s="132" t="e">
+      <c r="H20" s="111"/>
+      <c r="I20" s="174" t="e">
         <f t="shared" ref="I20" si="16">I11/I15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="133"/>
-      <c r="K20" s="132" t="e">
+      <c r="J20" s="111"/>
+      <c r="K20" s="174" t="e">
         <f t="shared" ref="K20" si="17">K11/K15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="134"/>
-      <c r="M20" s="132" t="e">
+      <c r="L20" s="112"/>
+      <c r="M20" s="174" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N20" s="133"/>
-      <c r="O20" s="132" t="e">
+      <c r="N20" s="111"/>
+      <c r="O20" s="174" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P20" s="133"/>
+      <c r="P20" s="111"/>
     </row>
     <row r="21" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="95"/>
-      <c r="C21" s="167" t="s">
+      <c r="B21" s="75"/>
+      <c r="C21" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="168"/>
-      <c r="E21" s="26" t="e">
+      <c r="D21" s="141"/>
+      <c r="E21" s="175" t="e">
         <f>AVERAGE(E17:E20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="26" t="e">
+      <c r="F21" s="17"/>
+      <c r="G21" s="175" t="e">
         <f>AVERAGE(G17:G20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="26" t="e">
+      <c r="H21" s="17"/>
+      <c r="I21" s="175" t="e">
         <f>AVERAGE(I17:I20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="26" t="e">
+      <c r="J21" s="17"/>
+      <c r="K21" s="175" t="e">
         <f>AVERAGE(K17:K20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="26" t="e">
+      <c r="L21" s="17"/>
+      <c r="M21" s="175" t="e">
         <f>AVERAGE(M17:M20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="26" t="e">
+      <c r="N21" s="25"/>
+      <c r="O21" s="175" t="e">
         <f>AVERAGE(O17:O20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P21" s="205"/>
+      <c r="P21" s="170"/>
     </row>
     <row r="22" spans="2:18" s="9" customFormat="1" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="193" t="s">
+      <c r="B22" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="194"/>
-      <c r="D22" s="195"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="28" t="e">
+      <c r="C22" s="159"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="15" t="e">
         <f>E22/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="28" t="e">
+      <c r="G22" s="183"/>
+      <c r="H22" s="15" t="e">
         <f>G22/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="28" t="e">
+      <c r="I22" s="183"/>
+      <c r="J22" s="15" t="e">
         <f>I22/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="28" t="e">
+      <c r="K22" s="183"/>
+      <c r="L22" s="15" t="e">
         <f>K22/K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="183">
         <f>I22+K22</f>
         <v>0</v>
       </c>
-      <c r="N22" s="38" t="e">
+      <c r="N22" s="24" t="e">
         <f>M22/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="183">
         <f>E22+G22+M22</f>
         <v>0</v>
       </c>
-      <c r="P22" s="38" t="e">
+      <c r="P22" s="24" t="e">
         <f>O22/O22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="31" t="e">
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="18" t="e">
         <f t="shared" ref="F23:H29" si="18">E23/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="31" t="e">
+      <c r="G23" s="185"/>
+      <c r="H23" s="18" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="31" t="e">
+      <c r="I23" s="185"/>
+      <c r="J23" s="18" t="e">
         <f t="shared" ref="J23" si="19">I23/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="31" t="e">
+      <c r="K23" s="185"/>
+      <c r="L23" s="18" t="e">
         <f t="shared" ref="L23" si="20">K23/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="185">
         <f>I23+K23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="41" t="e">
+      <c r="N23" s="27" t="e">
         <f t="shared" ref="N23" si="21">M23/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="185">
         <f>E23+G23+M23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="41" t="e">
+      <c r="P23" s="27" t="e">
         <f t="shared" ref="P23" si="22">O23/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="64"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="32" t="e">
+      <c r="B24" s="44"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="19" t="e">
         <f>E24/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="32" t="e">
+      <c r="G24" s="186"/>
+      <c r="H24" s="19" t="e">
         <f>G24/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="32" t="e">
+      <c r="I24" s="186"/>
+      <c r="J24" s="19" t="e">
         <f>I24/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="32" t="e">
+      <c r="K24" s="186"/>
+      <c r="L24" s="19" t="e">
         <f>K24/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="186">
         <f t="shared" ref="M24:M26" si="23">I24+K24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="42" t="e">
+      <c r="N24" s="28" t="e">
         <f>M24/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="186">
         <f t="shared" ref="O24:O29" si="24">E24+G24+M24</f>
         <v>0</v>
       </c>
-      <c r="P24" s="42" t="e">
+      <c r="P24" s="28" t="e">
         <f>O24/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="64"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="32" t="e">
+      <c r="B25" s="44"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="19" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="32" t="e">
+      <c r="G25" s="186"/>
+      <c r="H25" s="19" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="32" t="e">
+      <c r="I25" s="186"/>
+      <c r="J25" s="19" t="e">
         <f t="shared" ref="J25" si="25">I25/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="32" t="e">
+      <c r="K25" s="186"/>
+      <c r="L25" s="19" t="e">
         <f t="shared" ref="L25" si="26">K25/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="186">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="N25" s="42" t="e">
+      <c r="N25" s="28" t="e">
         <f t="shared" ref="N25" si="27">M25/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="186">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P25" s="42" t="e">
+      <c r="P25" s="28" t="e">
         <f t="shared" ref="P25" si="28">O25/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="64"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="32" t="e">
+      <c r="B26" s="44"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="19" t="e">
         <f>E26/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="32" t="e">
+      <c r="G26" s="186"/>
+      <c r="H26" s="19" t="e">
         <f>G26/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="32" t="e">
+      <c r="I26" s="186"/>
+      <c r="J26" s="19" t="e">
         <f>I26/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="32" t="e">
+      <c r="K26" s="186"/>
+      <c r="L26" s="19" t="e">
         <f>K26/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="186">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="N26" s="42" t="e">
+      <c r="N26" s="28" t="e">
         <f>M26/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="186">
         <f>E26+G26+M26</f>
         <v>0</v>
       </c>
-      <c r="P26" s="42" t="e">
+      <c r="P26" s="28" t="e">
         <f>O26/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="98"/>
-      <c r="C27" s="145" t="s">
+      <c r="B27" s="78"/>
+      <c r="C27" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="146"/>
-      <c r="E27" s="12">
+      <c r="D27" s="122"/>
+      <c r="E27" s="187">
         <f>SUM(E23:E26)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="33" t="e">
+      <c r="F27" s="20" t="e">
         <f>E27/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="187">
         <f>SUM(G23:G26)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="33" t="e">
+      <c r="H27" s="20" t="e">
         <f>G27/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="187">
         <f>SUM(I23:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="33" t="e">
+      <c r="J27" s="20" t="e">
         <f>I27/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="187">
         <f>SUM(K23:K26)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="33" t="e">
+      <c r="L27" s="20" t="e">
         <f>K27/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="187">
         <f>SUM(M23:M26)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="43" t="e">
+      <c r="N27" s="29" t="e">
         <f>M27/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="187">
         <f>SUM(O23:O26)</f>
         <v>0</v>
       </c>
-      <c r="P27" s="43" t="e">
+      <c r="P27" s="29" t="e">
         <f>O27/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="32" t="e">
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="19" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="32" t="e">
+      <c r="G28" s="186"/>
+      <c r="H28" s="19" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="32" t="e">
+      <c r="I28" s="186"/>
+      <c r="J28" s="19" t="e">
         <f t="shared" ref="J28" si="29">I28/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="32" t="e">
+      <c r="K28" s="186"/>
+      <c r="L28" s="19" t="e">
         <f t="shared" ref="L28" si="30">K28/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="186">
         <f>I28+K28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="42" t="e">
+      <c r="N28" s="28" t="e">
         <f t="shared" ref="N28" si="31">M28/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="186">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P28" s="42" t="e">
+      <c r="P28" s="28" t="e">
         <f t="shared" ref="P28" si="32">O28/O$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
     </row>
     <row r="29" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="64"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="32" t="e">
+      <c r="B29" s="44"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="19" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="32" t="e">
+      <c r="G29" s="186"/>
+      <c r="H29" s="19" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="32" t="e">
+      <c r="I29" s="186"/>
+      <c r="J29" s="19" t="e">
         <f t="shared" ref="J29" si="33">I29/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="32" t="e">
+      <c r="K29" s="186"/>
+      <c r="L29" s="19" t="e">
         <f t="shared" ref="L29" si="34">K29/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="186">
         <f>I29+K29</f>
         <v>0</v>
       </c>
-      <c r="N29" s="42" t="e">
+      <c r="N29" s="28" t="e">
         <f t="shared" ref="N29" si="35">M29/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="186">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P29" s="42" t="e">
+      <c r="P29" s="28" t="e">
         <f t="shared" ref="P29" si="36">O29/O$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
     </row>
     <row r="30" spans="2:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="95"/>
-      <c r="C30" s="147" t="s">
+      <c r="B30" s="75"/>
+      <c r="C30" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="148"/>
-      <c r="E30" s="14">
+      <c r="D30" s="124"/>
+      <c r="E30" s="188">
         <f>SUM(E28:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="34" t="e">
+      <c r="F30" s="21" t="e">
         <f>E30/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="188">
         <f>SUM(G28:G29)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="34" t="e">
+      <c r="H30" s="21" t="e">
         <f>G30/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="188">
         <f>SUM(I28:I29)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="34" t="e">
+      <c r="J30" s="21" t="e">
         <f>I30/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="188">
         <f>SUM(K28:K29)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="34" t="e">
+      <c r="L30" s="21" t="e">
         <f>K30/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="188">
         <f>SUM(M28:M29)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="44" t="e">
+      <c r="N30" s="30" t="e">
         <f>M30/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O30" s="188">
         <f>SUM(O28:O29)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="44" t="e">
+      <c r="P30" s="30" t="e">
         <f>O30/O$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
     </row>
     <row r="31" spans="2:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="199" t="s">
+      <c r="B31" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="200"/>
-      <c r="D31" s="201"/>
-      <c r="E31" s="22">
+      <c r="C31" s="165"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="184">
         <f>E27+E30</f>
         <v>0</v>
       </c>
-      <c r="F31" s="35" t="e">
+      <c r="F31" s="22" t="e">
         <f>E31/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="184">
         <f>G27+G30</f>
         <v>0</v>
       </c>
-      <c r="H31" s="35" t="e">
+      <c r="H31" s="22" t="e">
         <f>G31/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="184">
         <f>I27+I30</f>
         <v>0</v>
       </c>
-      <c r="J31" s="35" t="e">
+      <c r="J31" s="22" t="e">
         <f>I31/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="184">
         <f>K30+K27</f>
         <v>0</v>
       </c>
-      <c r="L31" s="35" t="e">
+      <c r="L31" s="22" t="e">
         <f>K31/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="184">
         <f>M30+M27</f>
         <v>0</v>
       </c>
-      <c r="N31" s="45" t="e">
+      <c r="N31" s="31" t="e">
         <f>M31/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="192">
         <f>O30+O27</f>
         <v>0</v>
       </c>
-      <c r="P31" s="45" t="e">
+      <c r="P31" s="31" t="e">
         <f>O31/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="13" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="114" t="s">
+      <c r="C32" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="39" t="e">
+        <f>E32/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="193"/>
+      <c r="H32" s="39" t="e">
+        <f>G32/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="193"/>
+      <c r="J32" s="39" t="e">
+        <f>I32/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="193"/>
+      <c r="L32" s="39" t="e">
+        <f>K32/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="193"/>
+      <c r="N32" s="39" t="e">
+        <f>M32/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="193"/>
+      <c r="P32" s="39" t="e">
+        <f>O32/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
     </row>
     <row r="33" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="173"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="189" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="143" t="e">
+        <f>SUM(E33:E35)/E22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="189"/>
+      <c r="H33" s="143" t="e">
+        <f>SUM(G33:G35)/G22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="189"/>
+      <c r="J33" s="143" t="e">
+        <f>SUM(I33:I35)/I22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="189"/>
+      <c r="L33" s="143" t="e">
+        <f>SUM(K33:K35)/K22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="189"/>
+      <c r="N33" s="143" t="e">
+        <f>SUM(M33:M35)/M22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="189"/>
+      <c r="P33" s="143" t="e">
+        <f>SUM(O33:O35)/O22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
     </row>
     <row r="34" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="64"/>
-      <c r="C34" s="90" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="91"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="175"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="174"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="174"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="144" t="e">
+        <f t="shared" ref="F34:H64" si="37">E34/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="186"/>
+      <c r="H34" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="186"/>
+      <c r="J34" s="144" t="e">
+        <f t="shared" ref="J34:L34" si="38">I34/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="186"/>
+      <c r="L34" s="144" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="186"/>
+      <c r="N34" s="144" t="e">
+        <f t="shared" ref="N34" si="39">M34/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="186"/>
+      <c r="P34" s="144" t="e">
+        <f t="shared" ref="P34" si="40">O34/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
     </row>
     <row r="35" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="65"/>
-      <c r="C35" s="80" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="81"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="176"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="176"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="177"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="176"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="176"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="145" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="194"/>
+      <c r="H35" s="145" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="194"/>
+      <c r="J35" s="145" t="e">
+        <f t="shared" ref="J35:L35" si="41">I35/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="194"/>
+      <c r="L35" s="145" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="194"/>
+      <c r="N35" s="145" t="e">
+        <f t="shared" ref="N35" si="42">M35/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="194"/>
+      <c r="P35" s="145" t="e">
+        <f t="shared" ref="P35" si="43">O35/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
     </row>
     <row r="36" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="172"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="172"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="143" t="e">
+        <f>SUM(E36:E39)/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="189"/>
+      <c r="H36" s="143" t="e">
+        <f>SUM(G36:G39)/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="189"/>
+      <c r="J36" s="143" t="e">
+        <f>SUM(I36:I39)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="189"/>
+      <c r="L36" s="143" t="e">
+        <f>SUM(K36:K39)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="189"/>
+      <c r="N36" s="143" t="e">
+        <f>SUM(M36:M39)/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="189"/>
+      <c r="P36" s="143" t="e">
+        <f>SUM(O36:O39)/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
     </row>
     <row r="37" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="64"/>
-      <c r="C37" s="88" t="s">
+      <c r="B37" s="44"/>
+      <c r="C37" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="174"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="175"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="174"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="174"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="195"/>
+      <c r="H37" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="195"/>
+      <c r="J37" s="144" t="e">
+        <f t="shared" ref="J37:L37" si="44">I37/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="195"/>
+      <c r="L37" s="144" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="195"/>
+      <c r="N37" s="144" t="e">
+        <f t="shared" ref="N37" si="45">M37/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="186"/>
+      <c r="P37" s="144" t="e">
+        <f t="shared" ref="P37" si="46">O37/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
     </row>
     <row r="38" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="64"/>
-      <c r="C38" s="88" t="s">
+      <c r="B38" s="44"/>
+      <c r="C38" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="89"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="174"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="174"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="175"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="174"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="174"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="186"/>
+      <c r="H38" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="186"/>
+      <c r="J38" s="144" t="e">
+        <f t="shared" ref="J38:L38" si="47">I38/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="186"/>
+      <c r="L38" s="144" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="186"/>
+      <c r="N38" s="144" t="e">
+        <f t="shared" ref="N38" si="48">M38/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="186"/>
+      <c r="P38" s="144" t="e">
+        <f t="shared" ref="P38" si="49">O38/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
     </row>
     <row r="39" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="65"/>
-      <c r="C39" s="80" t="s">
+      <c r="B39" s="45"/>
+      <c r="C39" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="176"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="177"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="176"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="176"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="145" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="194"/>
+      <c r="H39" s="145" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="194"/>
+      <c r="J39" s="145" t="e">
+        <f t="shared" ref="J39:L39" si="50">I39/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="194"/>
+      <c r="L39" s="145" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="194"/>
+      <c r="N39" s="145" t="e">
+        <f t="shared" ref="N39" si="51">M39/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="194"/>
+      <c r="P39" s="145" t="e">
+        <f t="shared" ref="P39" si="52">O39/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
     </row>
     <row r="40" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="172"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="173"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="172"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="172"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="189"/>
+      <c r="F40" s="143" t="e">
+        <f>SUM(E40:E42)/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="189"/>
+      <c r="H40" s="143" t="e">
+        <f>SUM(G40:G42)/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="189"/>
+      <c r="J40" s="143" t="e">
+        <f>SUM(I40:I42)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="189"/>
+      <c r="L40" s="143" t="e">
+        <f>SUM(K40:K42)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="189"/>
+      <c r="N40" s="143" t="e">
+        <f>SUM(M40:M42)/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="189"/>
+      <c r="P40" s="143" t="e">
+        <f>SUM(O40:O42)/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
     </row>
     <row r="41" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="64"/>
-      <c r="C41" s="90" t="s">
+      <c r="B41" s="44"/>
+      <c r="C41" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="91"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="174"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="175"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="174"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="186"/>
+      <c r="H41" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="186"/>
+      <c r="J41" s="144" t="e">
+        <f t="shared" ref="J41:L41" si="53">I41/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="186"/>
+      <c r="L41" s="144" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="186"/>
+      <c r="N41" s="144" t="e">
+        <f t="shared" ref="N41" si="54">M41/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="186"/>
+      <c r="P41" s="144" t="e">
+        <f t="shared" ref="P41" si="55">O41/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
     </row>
     <row r="42" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="65"/>
-      <c r="C42" s="92" t="s">
+      <c r="B42" s="45"/>
+      <c r="C42" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="93"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="176"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="176"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="176"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="177"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="176"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="176"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="194"/>
+      <c r="F42" s="145" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="194"/>
+      <c r="H42" s="145" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="194"/>
+      <c r="J42" s="145" t="e">
+        <f t="shared" ref="J42:L42" si="56">I42/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="194"/>
+      <c r="L42" s="145" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="194"/>
+      <c r="N42" s="145" t="e">
+        <f t="shared" ref="N42" si="57">M42/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="194"/>
+      <c r="P42" s="145" t="e">
+        <f t="shared" ref="P42" si="58">O42/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
     </row>
     <row r="43" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C43" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="79"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="172"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="172"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="172"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="172"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="143" t="e">
+        <f>SUM(E43:E44)/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="189"/>
+      <c r="H43" s="143" t="e">
+        <f>SUM(G43:G44)/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="189"/>
+      <c r="J43" s="143" t="e">
+        <f>SUM(I43:I44)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="189"/>
+      <c r="L43" s="143" t="e">
+        <f>SUM(K43:K44)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="189"/>
+      <c r="N43" s="143" t="e">
+        <f>SUM(M43:M44)/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" s="189"/>
+      <c r="P43" s="143" t="e">
+        <f>SUM(O43:O44)/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
     </row>
     <row r="44" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="65"/>
-      <c r="C44" s="80" t="s">
+      <c r="B44" s="45"/>
+      <c r="C44" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="81"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="176"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="177"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="176"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="176"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="194"/>
+      <c r="F44" s="145" t="e">
+        <f>E44/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="194"/>
+      <c r="H44" s="145" t="e">
+        <f>G44/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="194"/>
+      <c r="J44" s="145" t="e">
+        <f>I44/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="194"/>
+      <c r="L44" s="145" t="e">
+        <f>K44/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" s="194"/>
+      <c r="N44" s="145" t="e">
+        <f>M44/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O44" s="194"/>
+      <c r="P44" s="145" t="e">
+        <f>O44/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
     </row>
     <row r="45" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="79"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="172"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="173"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="172"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="172"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="189"/>
+      <c r="F45" s="143" t="e">
+        <f>SUM(E45:E46)/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" s="189"/>
+      <c r="H45" s="143" t="e">
+        <f>SUM(G45:G46)/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="189"/>
+      <c r="J45" s="143" t="e">
+        <f>SUM(I45:I46)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" s="189"/>
+      <c r="L45" s="143" t="e">
+        <f>SUM(K45:K46)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="189"/>
+      <c r="N45" s="143" t="e">
+        <f>SUM(M45:M46)/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O45" s="189"/>
+      <c r="P45" s="143" t="e">
+        <f>SUM(O45:O46)/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
     </row>
     <row r="46" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="65"/>
-      <c r="C46" s="80" t="s">
+      <c r="B46" s="45"/>
+      <c r="C46" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="81"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="176"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="176"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="176"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="177"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="176"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="176"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="145" t="e">
+        <f>E46/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="194"/>
+      <c r="H46" s="145" t="e">
+        <f>G46/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="194"/>
+      <c r="J46" s="145" t="e">
+        <f>I46/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="194"/>
+      <c r="L46" s="145" t="e">
+        <f>K46/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="194"/>
+      <c r="N46" s="145" t="e">
+        <f>M46/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O46" s="194"/>
+      <c r="P46" s="145" t="e">
+        <f>O46/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
     </row>
     <row r="47" spans="2:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="82" t="s">
+      <c r="C47" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="37" t="e">
+        <f>E47/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="196"/>
+      <c r="H47" s="37" t="e">
+        <f>G47/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" s="196"/>
+      <c r="J47" s="37" t="e">
+        <f>I47/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" s="196"/>
+      <c r="L47" s="37" t="e">
+        <f>K47/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="196"/>
+      <c r="N47" s="37" t="e">
+        <f>M47/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O47" s="196"/>
+      <c r="P47" s="37" t="e">
+        <f>O47/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
     </row>
     <row r="48" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="84" t="s">
+      <c r="C48" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="85"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="178"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="178"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="179"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="178"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="178"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="193"/>
+      <c r="F48" s="143" t="e">
+        <f>SUM(E48:E49)/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" s="193"/>
+      <c r="H48" s="143" t="e">
+        <f>SUM(G48:G49)/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" s="193"/>
+      <c r="J48" s="143" t="e">
+        <f>SUM(I48:I49)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K48" s="193"/>
+      <c r="L48" s="143" t="e">
+        <f>SUM(K48:K49)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" s="193"/>
+      <c r="N48" s="143" t="e">
+        <f>SUM(M48:M49)/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O48" s="200"/>
+      <c r="P48" s="143" t="e">
+        <f>SUM(O48:O49)/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
     </row>
     <row r="49" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="64"/>
-      <c r="C49" s="86" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="87"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="178"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="178"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="178"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="179"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="178"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="178"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="195"/>
+      <c r="F49" s="145" t="e">
+        <f>E49/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="195"/>
+      <c r="H49" s="145" t="e">
+        <f>G49/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" s="195"/>
+      <c r="J49" s="145" t="e">
+        <f>I49/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K49" s="195"/>
+      <c r="L49" s="145" t="e">
+        <f>K49/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" s="195"/>
+      <c r="N49" s="145" t="e">
+        <f>M49/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O49" s="195"/>
+      <c r="P49" s="145" t="e">
+        <f>O49/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
     </row>
     <row r="50" spans="2:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="62"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="37" t="e">
+        <f>E50/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" s="196"/>
+      <c r="H50" s="37" t="e">
+        <f>G50/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" s="196"/>
+      <c r="J50" s="37" t="e">
+        <f>I50/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K50" s="196"/>
+      <c r="L50" s="37" t="e">
+        <f>K50/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M50" s="196"/>
+      <c r="N50" s="37" t="e">
+        <f>M50/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O50" s="196"/>
+      <c r="P50" s="37" t="e">
+        <f>O50/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
     </row>
     <row r="51" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="172"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="172"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="172"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="173"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="172"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="172"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="189"/>
+      <c r="F51" s="143" t="e">
+        <f>SUM(E51:E56)/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="189"/>
+      <c r="H51" s="143" t="e">
+        <f>SUM(G51:G56)/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" s="189"/>
+      <c r="J51" s="143" t="e">
+        <f>SUM(I51:I56)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K51" s="189"/>
+      <c r="L51" s="143" t="e">
+        <f>SUM(K51:K56)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M51" s="189"/>
+      <c r="N51" s="143" t="e">
+        <f>SUM(M51:M56)/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O51" s="189"/>
+      <c r="P51" s="143" t="e">
+        <f>SUM(O51:O56)/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
     </row>
     <row r="52" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="64"/>
-      <c r="C52" s="68" t="s">
+      <c r="B52" s="44"/>
+      <c r="C52" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="69"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="174"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="174"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="175"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="174"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="174"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="186"/>
+      <c r="H52" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" s="186"/>
+      <c r="J52" s="144" t="e">
+        <f t="shared" ref="J52:L52" si="59">I52/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K52" s="186"/>
+      <c r="L52" s="144" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" s="186"/>
+      <c r="N52" s="144" t="e">
+        <f t="shared" ref="N52" si="60">M52/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" s="186"/>
+      <c r="P52" s="144" t="e">
+        <f t="shared" ref="P52" si="61">O52/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
     </row>
     <row r="53" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="64"/>
-      <c r="C53" s="70" t="s">
+      <c r="B53" s="44"/>
+      <c r="C53" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="71"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="174"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="174"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="174"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="175"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="174"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="174"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="186"/>
+      <c r="H53" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" s="186"/>
+      <c r="J53" s="144" t="e">
+        <f t="shared" ref="J53:L53" si="62">I53/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" s="186"/>
+      <c r="L53" s="144" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M53" s="186"/>
+      <c r="N53" s="144" t="e">
+        <f t="shared" ref="N53" si="63">M53/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" s="186"/>
+      <c r="P53" s="144" t="e">
+        <f t="shared" ref="P53" si="64">O53/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
     </row>
     <row r="54" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="64"/>
-      <c r="C54" s="70" t="s">
+      <c r="B54" s="44"/>
+      <c r="C54" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="174"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="175"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="174"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="174"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="186"/>
+      <c r="F54" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" s="186"/>
+      <c r="H54" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" s="186"/>
+      <c r="J54" s="144" t="e">
+        <f t="shared" ref="J54:L54" si="65">I54/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" s="186"/>
+      <c r="L54" s="144" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" s="186"/>
+      <c r="N54" s="144" t="e">
+        <f t="shared" ref="N54" si="66">M54/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O54" s="186"/>
+      <c r="P54" s="144" t="e">
+        <f t="shared" ref="P54" si="67">O54/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
     </row>
     <row r="55" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="64"/>
-      <c r="C55" s="70" t="s">
+      <c r="B55" s="44"/>
+      <c r="C55" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="71"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="174"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="174"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="174"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="175"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="174"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="174"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="186"/>
+      <c r="F55" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" s="186"/>
+      <c r="H55" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" s="186"/>
+      <c r="J55" s="144" t="e">
+        <f t="shared" ref="J55:L55" si="68">I55/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K55" s="186"/>
+      <c r="L55" s="144" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M55" s="186"/>
+      <c r="N55" s="144" t="e">
+        <f t="shared" ref="N55" si="69">M55/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O55" s="186"/>
+      <c r="P55" s="144" t="e">
+        <f t="shared" ref="P55" si="70">O55/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
     </row>
     <row r="56" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="65"/>
-      <c r="C56" s="72" t="s">
+      <c r="B56" s="45"/>
+      <c r="C56" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="176"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="176"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="176"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="177"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="176"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="176"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="194"/>
+      <c r="F56" s="145" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" s="194"/>
+      <c r="H56" s="145" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I56" s="194"/>
+      <c r="J56" s="145" t="e">
+        <f t="shared" ref="J56:L56" si="71">I56/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K56" s="194"/>
+      <c r="L56" s="145" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="194"/>
+      <c r="N56" s="145" t="e">
+        <f t="shared" ref="N56" si="72">M56/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" s="194"/>
+      <c r="P56" s="145" t="e">
+        <f t="shared" ref="P56" si="73">O56/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
     </row>
     <row r="57" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="172"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="172"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="172"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="173"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="172"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="172"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="189"/>
+      <c r="F57" s="143" t="e">
+        <f>SUM(E57:E63)/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G57" s="189"/>
+      <c r="H57" s="143" t="e">
+        <f>SUM(G57:G63)/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I57" s="189"/>
+      <c r="J57" s="143" t="e">
+        <f>SUM(I57:I63)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K57" s="189"/>
+      <c r="L57" s="143" t="e">
+        <f>SUM(K57:K63)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" s="189"/>
+      <c r="N57" s="143" t="e">
+        <f>SUM(M57:M63)/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O57" s="189"/>
+      <c r="P57" s="143" t="e">
+        <f>SUM(O57:O63)/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
     </row>
     <row r="58" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="64"/>
-      <c r="C58" s="68" t="s">
+      <c r="B58" s="44"/>
+      <c r="C58" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="69"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="174"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="174"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="174"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="175"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="174"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="174"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="186"/>
+      <c r="F58" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G58" s="186"/>
+      <c r="H58" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I58" s="186"/>
+      <c r="J58" s="144" t="e">
+        <f t="shared" ref="J58:L58" si="74">I58/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K58" s="186"/>
+      <c r="L58" s="144" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="186"/>
+      <c r="N58" s="144" t="e">
+        <f t="shared" ref="N58" si="75">M58/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O58" s="186"/>
+      <c r="P58" s="144" t="e">
+        <f t="shared" ref="P58" si="76">O58/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
     </row>
     <row r="59" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="64"/>
-      <c r="C59" s="70" t="s">
+      <c r="B59" s="44"/>
+      <c r="C59" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="174"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="174"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="174"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="175"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="174"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="174"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="186"/>
+      <c r="F59" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G59" s="186"/>
+      <c r="H59" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I59" s="186"/>
+      <c r="J59" s="144" t="e">
+        <f t="shared" ref="J59:L59" si="77">I59/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="186"/>
+      <c r="L59" s="144" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" s="186"/>
+      <c r="N59" s="144" t="e">
+        <f t="shared" ref="N59" si="78">M59/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O59" s="186"/>
+      <c r="P59" s="144" t="e">
+        <f t="shared" ref="P59" si="79">O59/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
     </row>
     <row r="60" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="64"/>
-      <c r="C60" s="68" t="s">
+      <c r="B60" s="44"/>
+      <c r="C60" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="69"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="174"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="174"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="174"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="175"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="174"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="174"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="186"/>
+      <c r="F60" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G60" s="186"/>
+      <c r="H60" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I60" s="186"/>
+      <c r="J60" s="144" t="e">
+        <f t="shared" ref="J60:L60" si="80">I60/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="186"/>
+      <c r="L60" s="144" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M60" s="186"/>
+      <c r="N60" s="144" t="e">
+        <f t="shared" ref="N60" si="81">M60/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O60" s="186"/>
+      <c r="P60" s="144" t="e">
+        <f t="shared" ref="P60" si="82">O60/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
     </row>
     <row r="61" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="64"/>
-      <c r="C61" s="68" t="s">
+      <c r="B61" s="44"/>
+      <c r="C61" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="69"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="174"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="174"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="174"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="175"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="174"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="174"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="186"/>
+      <c r="F61" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G61" s="186"/>
+      <c r="H61" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I61" s="186"/>
+      <c r="J61" s="144" t="e">
+        <f t="shared" ref="J61:L61" si="83">I61/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K61" s="186"/>
+      <c r="L61" s="144" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M61" s="186"/>
+      <c r="N61" s="144" t="e">
+        <f t="shared" ref="N61" si="84">M61/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O61" s="186"/>
+      <c r="P61" s="144" t="e">
+        <f t="shared" ref="P61" si="85">O61/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
     </row>
     <row r="62" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="64"/>
-      <c r="C62" s="70" t="s">
+      <c r="B62" s="44"/>
+      <c r="C62" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="71"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="174"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="174"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="174"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="175"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="174"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="174"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="186"/>
+      <c r="F62" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G62" s="186"/>
+      <c r="H62" s="144" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I62" s="186"/>
+      <c r="J62" s="144" t="e">
+        <f t="shared" ref="J62:L62" si="86">I62/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K62" s="186"/>
+      <c r="L62" s="144" t="e">
+        <f t="shared" si="86"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M62" s="186"/>
+      <c r="N62" s="144" t="e">
+        <f t="shared" ref="N62" si="87">M62/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O62" s="186"/>
+      <c r="P62" s="144" t="e">
+        <f t="shared" ref="P62" si="88">O62/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
     </row>
     <row r="63" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="65"/>
-      <c r="C63" s="76" t="s">
+      <c r="B63" s="45"/>
+      <c r="C63" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="77"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="176"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="176"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="176"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="177"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="176"/>
-      <c r="O63" s="51"/>
-      <c r="P63" s="176"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="194"/>
+      <c r="F63" s="145" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G63" s="194"/>
+      <c r="H63" s="145" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I63" s="194"/>
+      <c r="J63" s="145" t="e">
+        <f t="shared" ref="J63:L63" si="89">I63/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K63" s="194"/>
+      <c r="L63" s="145" t="e">
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M63" s="194"/>
+      <c r="N63" s="145" t="e">
+        <f t="shared" ref="N63" si="90">M63/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O63" s="194"/>
+      <c r="P63" s="145" t="e">
+        <f t="shared" ref="P63" si="91">O63/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
     </row>
     <row r="64" spans="2:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="180" t="s">
+      <c r="C64" s="146" t="s">
         <v>81</v>
       </c>
-      <c r="D64" s="181"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="197"/>
+      <c r="F64" s="32" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="197"/>
+      <c r="H64" s="32" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="197"/>
+      <c r="J64" s="32" t="e">
+        <f t="shared" ref="J64:L64" si="92">I64/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K64" s="197"/>
+      <c r="L64" s="32" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M64" s="197"/>
+      <c r="N64" s="32" t="e">
+        <f t="shared" ref="N64" si="93">M64/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O64" s="197"/>
+      <c r="P64" s="32" t="e">
+        <f t="shared" ref="P64" si="94">O64/O$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
     </row>
     <row r="65" spans="2:18" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="182" t="s">
+      <c r="B65" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="183"/>
-      <c r="D65" s="184"/>
-      <c r="E65" s="17">
+      <c r="C65" s="149"/>
+      <c r="D65" s="150"/>
+      <c r="E65" s="198">
         <f>SUM(E32:E63)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="45" t="e">
+      <c r="F65" s="31" t="e">
         <f>E65/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="198">
         <f>SUM(G32:G63)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="45" t="e">
+      <c r="H65" s="31" t="e">
         <f>G65/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="198">
         <f>SUM(I32:I63)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="45" t="e">
+      <c r="J65" s="31" t="e">
         <f>I65/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K65" s="17">
+      <c r="K65" s="198">
         <f>SUM(K32:K63)</f>
         <v>0</v>
       </c>
-      <c r="L65" s="45" t="e">
+      <c r="L65" s="31" t="e">
         <f>K65/K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="198">
         <f>SUM(M32:M63)</f>
         <v>0</v>
       </c>
-      <c r="N65" s="45" t="e">
+      <c r="N65" s="31" t="e">
         <f>M65/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O65" s="17">
+      <c r="O65" s="198">
         <f>SUM(O32:O63)</f>
         <v>0</v>
       </c>
-      <c r="P65" s="45" t="e">
+      <c r="P65" s="31" t="e">
         <f>O65/O22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
     </row>
     <row r="66" spans="2:18" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="185" t="s">
+      <c r="B66" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="186"/>
-      <c r="D66" s="187"/>
-      <c r="E66" s="24">
+      <c r="C66" s="152"/>
+      <c r="D66" s="153"/>
+      <c r="E66" s="199">
         <f>E65+E30+E27</f>
         <v>0</v>
       </c>
-      <c r="F66" s="47" t="e">
+      <c r="F66" s="33" t="e">
         <f>E66/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G66" s="24">
+      <c r="G66" s="199">
         <f>G65+G30+G27</f>
         <v>0</v>
       </c>
-      <c r="H66" s="47" t="e">
+      <c r="H66" s="33" t="e">
         <f>G66/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I66" s="24">
+      <c r="I66" s="199">
         <f>I65+I30+I27</f>
         <v>0</v>
       </c>
-      <c r="J66" s="47" t="e">
+      <c r="J66" s="33" t="e">
         <f>I66/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K66" s="24">
+      <c r="K66" s="199">
         <f>K65+K30+K27</f>
         <v>0</v>
       </c>
-      <c r="L66" s="47" t="e">
+      <c r="L66" s="33" t="e">
         <f>K66/K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M66" s="24">
+      <c r="M66" s="199">
         <f>M65+M30+M27</f>
         <v>0</v>
       </c>
-      <c r="N66" s="47" t="e">
+      <c r="N66" s="33" t="e">
         <f>M66/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O66" s="16">
+      <c r="O66" s="201">
         <f>O65+O30+O27</f>
         <v>0</v>
       </c>
-      <c r="P66" s="47" t="e">
+      <c r="P66" s="33" t="e">
         <f>O66/O22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
     </row>
     <row r="67" spans="2:18" ht="23" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="202" t="s">
+      <c r="B67" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="203"/>
-      <c r="D67" s="204"/>
-      <c r="E67" s="20">
+      <c r="C67" s="168"/>
+      <c r="D67" s="169"/>
+      <c r="E67" s="183">
         <f>E22-E66</f>
         <v>0</v>
       </c>
-      <c r="F67" s="38" t="e">
+      <c r="F67" s="24" t="e">
         <f>E67/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G67" s="20">
+      <c r="G67" s="183">
         <f>G22-G66</f>
         <v>0</v>
       </c>
-      <c r="H67" s="38" t="e">
+      <c r="H67" s="24" t="e">
         <f>G67/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I67" s="20">
+      <c r="I67" s="183">
         <f>I22-I66</f>
         <v>0</v>
       </c>
-      <c r="J67" s="38" t="e">
+      <c r="J67" s="24" t="e">
         <f>I67/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K67" s="20">
+      <c r="K67" s="183">
         <f>K22-K66</f>
         <v>0</v>
       </c>
-      <c r="L67" s="38" t="e">
+      <c r="L67" s="24" t="e">
         <f>K67/K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M67" s="20">
+      <c r="M67" s="183">
         <f>M22-M66</f>
         <v>0</v>
       </c>
-      <c r="N67" s="38" t="e">
+      <c r="N67" s="24" t="e">
         <f>M67/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O67" s="20">
+      <c r="O67" s="183">
         <f>O22-O66</f>
         <v>0</v>
       </c>
-      <c r="P67" s="38" t="e">
+      <c r="P67" s="24" t="e">
         <f>O67/O22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
     </row>
     <row r="68" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>

--- a/app/webroot/excel/profit-and-loss.xlsx
+++ b/app/webroot/excel/profit-and-loss.xlsx
@@ -1406,7 +1406,7 @@
     </xf>
     <xf numFmtId="6" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1975,12 +1975,6 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="8" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="8" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2006,9 +2000,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="5" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2356,8 +2347,8 @@
   </sheetPr>
   <dimension ref="B1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2901,32 +2892,32 @@
       </c>
       <c r="D17" s="115"/>
       <c r="E17" s="171" t="e">
-        <f>E8/E12</f>
+        <f>FLOOR(E8/E12,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="116"/>
       <c r="G17" s="171" t="e">
-        <f>G8/G12</f>
+        <f>FLOOR(G8/G12,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="116"/>
       <c r="I17" s="171" t="e">
-        <f>I8/I12</f>
+        <f>FLOOR(I8/I12,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="116"/>
       <c r="K17" s="171" t="e">
-        <f>K8/K12</f>
+        <f>FLOOR(K8/K12,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="117"/>
-      <c r="M17" s="189" t="e">
-        <f>AVERAGE(I17,K17)</f>
+      <c r="M17" s="171" t="e">
+        <f>FLOOR(M8/M12,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="116"/>
-      <c r="O17" s="189" t="e">
-        <f>AVERAGE(E17,G17,M17)</f>
+      <c r="O17" s="171" t="e">
+        <f>FLOOR(O8/O12,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P17" s="116"/>
@@ -2938,32 +2929,32 @@
       </c>
       <c r="D18" s="113"/>
       <c r="E18" s="172" t="e">
-        <f>E9/E13</f>
+        <f>FLOOR(E9/E13,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="109"/>
       <c r="G18" s="172" t="e">
-        <f>G9/G13</f>
+        <f>FLOOR(G9/G13,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="109"/>
       <c r="I18" s="172" t="e">
-        <f>I9/I13</f>
+        <f>FLOOR(I9/I13,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="114"/>
       <c r="K18" s="172" t="e">
-        <f>K9/K13</f>
+        <f>FLOOR(K9/K13,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L18" s="157"/>
-      <c r="M18" s="190" t="e">
-        <f t="shared" ref="M18:M20" si="13">AVERAGE(I18,K18)</f>
+      <c r="M18" s="172" t="e">
+        <f>FLOOR(M9/M13,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="109"/>
-      <c r="O18" s="191" t="e">
-        <f t="shared" ref="O18:O20" si="14">AVERAGE(E18,G18,M18)</f>
+      <c r="O18" s="172" t="e">
+        <f>FLOOR(O9/O13,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P18" s="109"/>
@@ -2975,32 +2966,32 @@
       </c>
       <c r="D19" s="97"/>
       <c r="E19" s="173" t="e">
-        <f>E10/E14</f>
+        <f>FLOOR(E10/E14,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="111"/>
       <c r="G19" s="173" t="e">
-        <f>G10/G14</f>
+        <f>FLOOR(G10/G14,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="111"/>
       <c r="I19" s="173" t="e">
-        <f>I10/I14</f>
+        <f>FLOOR(I10/I14,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J19" s="111"/>
       <c r="K19" s="173" t="e">
-        <f>K10/K14</f>
+        <f>FLOOR(K10/K14,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L19" s="112"/>
-      <c r="M19" s="174" t="e">
-        <f t="shared" si="13"/>
+      <c r="M19" s="173" t="e">
+        <f>FLOOR(M10/M14,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="111"/>
-      <c r="O19" s="174" t="e">
-        <f t="shared" si="14"/>
+      <c r="O19" s="173" t="e">
+        <f>FLOOR(O10/O14,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="111"/>
@@ -3012,32 +3003,32 @@
       </c>
       <c r="D20" s="118"/>
       <c r="E20" s="174" t="e">
-        <f t="shared" ref="E20:G20" si="15">E11/E15</f>
+        <f>FLOOR(E11/E15,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="111"/>
       <c r="G20" s="174" t="e">
-        <f t="shared" si="15"/>
+        <f>FLOOR(G11/G15,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="111"/>
       <c r="I20" s="174" t="e">
-        <f t="shared" ref="I20" si="16">I11/I15</f>
+        <f>FLOOR(I11/I15,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J20" s="111"/>
       <c r="K20" s="174" t="e">
-        <f t="shared" ref="K20" si="17">K11/K15</f>
+        <f>FLOOR(K11/K15,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L20" s="112"/>
       <c r="M20" s="174" t="e">
-        <f t="shared" si="13"/>
+        <f>FLOOR(M11/M15,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="111"/>
       <c r="O20" s="174" t="e">
-        <f t="shared" si="14"/>
+        <f>FLOOR(O11/O15,1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="111"/>
@@ -3130,22 +3121,22 @@
       <c r="D23" s="80"/>
       <c r="E23" s="185"/>
       <c r="F23" s="18" t="e">
-        <f t="shared" ref="F23:H29" si="18">E23/E$22</f>
+        <f t="shared" ref="F23:H29" si="13">E23/E$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G23" s="185"/>
       <c r="H23" s="18" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="185"/>
       <c r="J23" s="18" t="e">
-        <f t="shared" ref="J23" si="19">I23/I$22</f>
+        <f t="shared" ref="J23" si="14">I23/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K23" s="185"/>
       <c r="L23" s="18" t="e">
-        <f t="shared" ref="L23" si="20">K23/K$22</f>
+        <f t="shared" ref="L23" si="15">K23/K$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="185">
@@ -3153,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="27" t="e">
-        <f t="shared" ref="N23" si="21">M23/M$22</f>
+        <f t="shared" ref="N23" si="16">M23/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="185">
@@ -3161,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="27" t="e">
-        <f t="shared" ref="P23" si="22">O23/O$22</f>
+        <f t="shared" ref="P23" si="17">O23/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3190,7 +3181,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="186">
-        <f t="shared" ref="M24:M26" si="23">I24+K24</f>
+        <f t="shared" ref="M24:M26" si="18">I24+K24</f>
         <v>0</v>
       </c>
       <c r="N24" s="28" t="e">
@@ -3198,7 +3189,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="186">
-        <f t="shared" ref="O24:O29" si="24">E24+G24+M24</f>
+        <f t="shared" ref="O24:O29" si="19">E24+G24+M24</f>
         <v>0</v>
       </c>
       <c r="P24" s="28" t="e">
@@ -3212,38 +3203,38 @@
       <c r="D25" s="71"/>
       <c r="E25" s="186"/>
       <c r="F25" s="19" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G25" s="186"/>
       <c r="H25" s="19" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="186"/>
       <c r="J25" s="19" t="e">
-        <f t="shared" ref="J25" si="25">I25/I$22</f>
+        <f t="shared" ref="J25" si="20">I25/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="186"/>
       <c r="L25" s="19" t="e">
-        <f t="shared" ref="L25" si="26">K25/K$22</f>
+        <f t="shared" ref="L25" si="21">K25/K$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="186">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N25" s="28" t="e">
-        <f t="shared" ref="N25" si="27">M25/M$22</f>
+        <f t="shared" ref="N25" si="22">M25/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="186">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P25" s="28" t="e">
-        <f t="shared" ref="P25" si="28">O25/O$22</f>
+        <f t="shared" ref="P25" si="23">O25/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3272,7 +3263,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="186">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N26" s="28" t="e">
@@ -3351,22 +3342,22 @@
       <c r="D28" s="49"/>
       <c r="E28" s="186"/>
       <c r="F28" s="19" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="186"/>
       <c r="H28" s="19" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="186"/>
       <c r="J28" s="19" t="e">
-        <f t="shared" ref="J28" si="29">I28/I$22</f>
+        <f t="shared" ref="J28" si="24">I28/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="186"/>
       <c r="L28" s="19" t="e">
-        <f t="shared" ref="L28" si="30">K28/K$22</f>
+        <f t="shared" ref="L28" si="25">K28/K$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="186">
@@ -3374,15 +3365,15 @@
         <v>0</v>
       </c>
       <c r="N28" s="28" t="e">
-        <f t="shared" ref="N28" si="31">M28/M$22</f>
+        <f t="shared" ref="N28" si="26">M28/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="186">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P28" s="28" t="e">
-        <f t="shared" ref="P28" si="32">O28/O$22</f>
+        <f t="shared" ref="P28" si="27">O28/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="11"/>
@@ -3394,22 +3385,22 @@
       <c r="D29" s="49"/>
       <c r="E29" s="186"/>
       <c r="F29" s="19" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="186"/>
       <c r="H29" s="19" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="186"/>
       <c r="J29" s="19" t="e">
-        <f t="shared" ref="J29" si="33">I29/I$22</f>
+        <f t="shared" ref="J29" si="28">I29/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="186"/>
       <c r="L29" s="19" t="e">
-        <f t="shared" ref="L29" si="34">K29/K$22</f>
+        <f t="shared" ref="L29" si="29">K29/K$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="186">
@@ -3417,15 +3408,15 @@
         <v>0</v>
       </c>
       <c r="N29" s="28" t="e">
-        <f t="shared" ref="N29" si="35">M29/M$22</f>
+        <f t="shared" ref="N29" si="30">M29/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="186">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P29" s="28" t="e">
-        <f t="shared" ref="P29" si="36">O29/O$22</f>
+        <f t="shared" ref="P29" si="31">O29/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="11"/>
@@ -3534,7 +3525,7 @@
         <f>M31/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="192">
+      <c r="O31" s="190">
         <f>O30+O27</f>
         <v>0</v>
       </c>
@@ -3551,32 +3542,32 @@
         <v>49</v>
       </c>
       <c r="D32" s="95"/>
-      <c r="E32" s="193"/>
+      <c r="E32" s="191"/>
       <c r="F32" s="39" t="e">
         <f>E32/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="193"/>
+      <c r="G32" s="191"/>
       <c r="H32" s="39" t="e">
         <f>G32/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="193"/>
+      <c r="I32" s="191"/>
       <c r="J32" s="39" t="e">
         <f>I32/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="193"/>
+      <c r="K32" s="191"/>
       <c r="L32" s="39" t="e">
         <f>K32/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="193"/>
+      <c r="M32" s="191"/>
       <c r="N32" s="39" t="e">
         <f>M32/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="193"/>
+      <c r="O32" s="191"/>
       <c r="P32" s="39" t="e">
         <f>O32/O$22</f>
         <v>#DIV/0!</v>
@@ -3635,32 +3626,32 @@
       <c r="D34" s="71"/>
       <c r="E34" s="186"/>
       <c r="F34" s="144" t="e">
-        <f t="shared" ref="F34:H64" si="37">E34/E$22</f>
+        <f t="shared" ref="F34:H64" si="32">E34/E$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="186"/>
       <c r="H34" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="186"/>
       <c r="J34" s="144" t="e">
-        <f t="shared" ref="J34:L34" si="38">I34/I$22</f>
+        <f t="shared" ref="J34:L34" si="33">I34/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="186"/>
       <c r="L34" s="144" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="186"/>
       <c r="N34" s="144" t="e">
-        <f t="shared" ref="N34" si="39">M34/M$22</f>
+        <f t="shared" ref="N34" si="34">M34/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O34" s="186"/>
       <c r="P34" s="144" t="e">
-        <f t="shared" ref="P34" si="40">O34/O$22</f>
+        <f t="shared" ref="P34" si="35">O34/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="11"/>
@@ -3672,34 +3663,34 @@
         <v>52</v>
       </c>
       <c r="D35" s="61"/>
-      <c r="E35" s="194"/>
+      <c r="E35" s="192"/>
       <c r="F35" s="145" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="194"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="192"/>
       <c r="H35" s="145" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="194"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="192"/>
       <c r="J35" s="145" t="e">
-        <f t="shared" ref="J35:L35" si="41">I35/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="194"/>
+        <f t="shared" ref="J35:L35" si="36">I35/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="192"/>
       <c r="L35" s="145" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="194"/>
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="192"/>
       <c r="N35" s="145" t="e">
-        <f t="shared" ref="N35" si="42">M35/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="194"/>
+        <f t="shared" ref="N35" si="37">M35/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="192"/>
       <c r="P35" s="145" t="e">
-        <f t="shared" ref="P35" si="43">O35/O$22</f>
+        <f t="shared" ref="P35" si="38">O35/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="11"/>
@@ -3752,34 +3743,34 @@
         <v>54</v>
       </c>
       <c r="D37" s="69"/>
-      <c r="E37" s="195"/>
+      <c r="E37" s="193"/>
       <c r="F37" s="144" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="195"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="193"/>
       <c r="H37" s="144" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="195"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="193"/>
       <c r="J37" s="144" t="e">
-        <f t="shared" ref="J37:L37" si="44">I37/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="195"/>
+        <f t="shared" ref="J37:L37" si="39">I37/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="193"/>
       <c r="L37" s="144" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="195"/>
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="193"/>
       <c r="N37" s="144" t="e">
-        <f t="shared" ref="N37" si="45">M37/M$22</f>
+        <f t="shared" ref="N37" si="40">M37/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="186"/>
       <c r="P37" s="144" t="e">
-        <f t="shared" ref="P37" si="46">O37/O$22</f>
+        <f t="shared" ref="P37" si="41">O37/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="11"/>
@@ -3791,34 +3782,34 @@
         <v>55</v>
       </c>
       <c r="D38" s="69"/>
-      <c r="E38" s="195"/>
+      <c r="E38" s="193"/>
       <c r="F38" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G38" s="186"/>
       <c r="H38" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="186"/>
       <c r="J38" s="144" t="e">
-        <f t="shared" ref="J38:L38" si="47">I38/I$22</f>
+        <f t="shared" ref="J38:L38" si="42">I38/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="186"/>
       <c r="L38" s="144" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M38" s="186"/>
       <c r="N38" s="144" t="e">
-        <f t="shared" ref="N38" si="48">M38/M$22</f>
+        <f t="shared" ref="N38" si="43">M38/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="186"/>
       <c r="P38" s="144" t="e">
-        <f t="shared" ref="P38" si="49">O38/O$22</f>
+        <f t="shared" ref="P38" si="44">O38/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="11"/>
@@ -3830,34 +3821,34 @@
         <v>56</v>
       </c>
       <c r="D39" s="61"/>
-      <c r="E39" s="194"/>
+      <c r="E39" s="192"/>
       <c r="F39" s="145" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="194"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="192"/>
       <c r="H39" s="145" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="194"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="192"/>
       <c r="J39" s="145" t="e">
-        <f t="shared" ref="J39:L39" si="50">I39/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="194"/>
+        <f t="shared" ref="J39:L39" si="45">I39/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="192"/>
       <c r="L39" s="145" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="194"/>
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="192"/>
       <c r="N39" s="145" t="e">
-        <f t="shared" ref="N39" si="51">M39/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="194"/>
+        <f t="shared" ref="N39" si="46">M39/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="192"/>
       <c r="P39" s="145" t="e">
-        <f t="shared" ref="P39" si="52">O39/O$22</f>
+        <f t="shared" ref="P39" si="47">O39/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="11"/>
@@ -3912,32 +3903,32 @@
       <c r="D41" s="71"/>
       <c r="E41" s="186"/>
       <c r="F41" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="186"/>
       <c r="H41" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="186"/>
       <c r="J41" s="144" t="e">
-        <f t="shared" ref="J41:L41" si="53">I41/I$22</f>
+        <f t="shared" ref="J41:L41" si="48">I41/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K41" s="186"/>
       <c r="L41" s="144" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M41" s="186"/>
       <c r="N41" s="144" t="e">
-        <f t="shared" ref="N41" si="54">M41/M$22</f>
+        <f t="shared" ref="N41" si="49">M41/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="186"/>
       <c r="P41" s="144" t="e">
-        <f t="shared" ref="P41" si="55">O41/O$22</f>
+        <f t="shared" ref="P41" si="50">O41/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="11"/>
@@ -3949,34 +3940,34 @@
         <v>59</v>
       </c>
       <c r="D42" s="73"/>
-      <c r="E42" s="194"/>
+      <c r="E42" s="192"/>
       <c r="F42" s="145" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="194"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="192"/>
       <c r="H42" s="145" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="194"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="192"/>
       <c r="J42" s="145" t="e">
-        <f t="shared" ref="J42:L42" si="56">I42/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="194"/>
+        <f t="shared" ref="J42:L42" si="51">I42/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="192"/>
       <c r="L42" s="145" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="194"/>
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="192"/>
       <c r="N42" s="145" t="e">
-        <f t="shared" ref="N42" si="57">M42/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="194"/>
+        <f t="shared" ref="N42" si="52">M42/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="192"/>
       <c r="P42" s="145" t="e">
-        <f t="shared" ref="P42" si="58">O42/O$22</f>
+        <f t="shared" ref="P42" si="53">O42/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="11"/>
@@ -4029,32 +4020,32 @@
         <v>66</v>
       </c>
       <c r="D44" s="61"/>
-      <c r="E44" s="194"/>
+      <c r="E44" s="192"/>
       <c r="F44" s="145" t="e">
         <f>E44/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="194"/>
+      <c r="G44" s="192"/>
       <c r="H44" s="145" t="e">
         <f>G44/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="194"/>
+      <c r="I44" s="192"/>
       <c r="J44" s="145" t="e">
         <f>I44/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K44" s="194"/>
+      <c r="K44" s="192"/>
       <c r="L44" s="145" t="e">
         <f>K44/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M44" s="194"/>
+      <c r="M44" s="192"/>
       <c r="N44" s="145" t="e">
         <f>M44/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O44" s="194"/>
+      <c r="O44" s="192"/>
       <c r="P44" s="145" t="e">
         <f>O44/O$22</f>
         <v>#DIV/0!</v>
@@ -4109,32 +4100,32 @@
         <v>62</v>
       </c>
       <c r="D46" s="61"/>
-      <c r="E46" s="194"/>
+      <c r="E46" s="192"/>
       <c r="F46" s="145" t="e">
         <f>E46/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G46" s="194"/>
+      <c r="G46" s="192"/>
       <c r="H46" s="145" t="e">
         <f>G46/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I46" s="194"/>
+      <c r="I46" s="192"/>
       <c r="J46" s="145" t="e">
         <f>I46/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K46" s="194"/>
+      <c r="K46" s="192"/>
       <c r="L46" s="145" t="e">
         <f>K46/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M46" s="194"/>
+      <c r="M46" s="192"/>
       <c r="N46" s="145" t="e">
         <f>M46/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O46" s="194"/>
+      <c r="O46" s="192"/>
       <c r="P46" s="145" t="e">
         <f>O46/O$22</f>
         <v>#DIV/0!</v>
@@ -4150,32 +4141,32 @@
         <v>63</v>
       </c>
       <c r="D47" s="63"/>
-      <c r="E47" s="196"/>
+      <c r="E47" s="194"/>
       <c r="F47" s="37" t="e">
         <f>E47/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="196"/>
+      <c r="G47" s="194"/>
       <c r="H47" s="37" t="e">
         <f>G47/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I47" s="196"/>
+      <c r="I47" s="194"/>
       <c r="J47" s="37" t="e">
         <f>I47/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K47" s="196"/>
+      <c r="K47" s="194"/>
       <c r="L47" s="37" t="e">
         <f>K47/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M47" s="196"/>
+      <c r="M47" s="194"/>
       <c r="N47" s="37" t="e">
         <f>M47/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O47" s="196"/>
+      <c r="O47" s="194"/>
       <c r="P47" s="37" t="e">
         <f>O47/O$22</f>
         <v>#DIV/0!</v>
@@ -4191,32 +4182,32 @@
         <v>64</v>
       </c>
       <c r="D48" s="65"/>
-      <c r="E48" s="193"/>
+      <c r="E48" s="191"/>
       <c r="F48" s="143" t="e">
         <f>SUM(E48:E49)/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G48" s="193"/>
+      <c r="G48" s="191"/>
       <c r="H48" s="143" t="e">
         <f>SUM(G48:G49)/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="193"/>
+      <c r="I48" s="191"/>
       <c r="J48" s="143" t="e">
         <f>SUM(I48:I49)/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K48" s="193"/>
+      <c r="K48" s="191"/>
       <c r="L48" s="143" t="e">
         <f>SUM(K48:K49)/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M48" s="193"/>
+      <c r="M48" s="191"/>
       <c r="N48" s="143" t="e">
         <f>SUM(M48:M49)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O48" s="200"/>
+      <c r="O48" s="198"/>
       <c r="P48" s="143" t="e">
         <f>SUM(O48:O49)/O$22</f>
         <v>#DIV/0!</v>
@@ -4230,32 +4221,32 @@
         <v>65</v>
       </c>
       <c r="D49" s="67"/>
-      <c r="E49" s="195"/>
+      <c r="E49" s="193"/>
       <c r="F49" s="145" t="e">
         <f>E49/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G49" s="195"/>
+      <c r="G49" s="193"/>
       <c r="H49" s="145" t="e">
         <f>G49/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I49" s="195"/>
+      <c r="I49" s="193"/>
       <c r="J49" s="145" t="e">
         <f>I49/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="195"/>
+      <c r="K49" s="193"/>
       <c r="L49" s="145" t="e">
         <f>K49/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M49" s="195"/>
+      <c r="M49" s="193"/>
       <c r="N49" s="145" t="e">
         <f>M49/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O49" s="195"/>
+      <c r="O49" s="193"/>
       <c r="P49" s="145" t="e">
         <f>O49/O$22</f>
         <v>#DIV/0!</v>
@@ -4271,32 +4262,32 @@
         <v>67</v>
       </c>
       <c r="D50" s="42"/>
-      <c r="E50" s="196"/>
+      <c r="E50" s="194"/>
       <c r="F50" s="37" t="e">
         <f>E50/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="196"/>
+      <c r="G50" s="194"/>
       <c r="H50" s="37" t="e">
         <f>G50/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I50" s="196"/>
+      <c r="I50" s="194"/>
       <c r="J50" s="37" t="e">
         <f>I50/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K50" s="196"/>
+      <c r="K50" s="194"/>
       <c r="L50" s="37" t="e">
         <f>K50/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M50" s="196"/>
+      <c r="M50" s="194"/>
       <c r="N50" s="37" t="e">
         <f>M50/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O50" s="196"/>
+      <c r="O50" s="194"/>
       <c r="P50" s="37" t="e">
         <f>O50/O$22</f>
         <v>#DIV/0!</v>
@@ -4353,32 +4344,32 @@
       <c r="D52" s="49"/>
       <c r="E52" s="186"/>
       <c r="F52" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G52" s="186"/>
       <c r="H52" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I52" s="186"/>
       <c r="J52" s="144" t="e">
-        <f t="shared" ref="J52:L52" si="59">I52/I$22</f>
+        <f t="shared" ref="J52:L52" si="54">I52/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K52" s="186"/>
       <c r="L52" s="144" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M52" s="186"/>
       <c r="N52" s="144" t="e">
-        <f t="shared" ref="N52" si="60">M52/M$22</f>
+        <f t="shared" ref="N52" si="55">M52/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O52" s="186"/>
       <c r="P52" s="144" t="e">
-        <f t="shared" ref="P52" si="61">O52/O$22</f>
+        <f t="shared" ref="P52" si="56">O52/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q52" s="11"/>
@@ -4392,32 +4383,32 @@
       <c r="D53" s="51"/>
       <c r="E53" s="186"/>
       <c r="F53" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G53" s="186"/>
       <c r="H53" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I53" s="186"/>
       <c r="J53" s="144" t="e">
-        <f t="shared" ref="J53:L53" si="62">I53/I$22</f>
+        <f t="shared" ref="J53:L53" si="57">I53/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K53" s="186"/>
       <c r="L53" s="144" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M53" s="186"/>
       <c r="N53" s="144" t="e">
-        <f t="shared" ref="N53" si="63">M53/M$22</f>
+        <f t="shared" ref="N53" si="58">M53/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O53" s="186"/>
       <c r="P53" s="144" t="e">
-        <f t="shared" ref="P53" si="64">O53/O$22</f>
+        <f t="shared" ref="P53" si="59">O53/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" s="11"/>
@@ -4431,32 +4422,32 @@
       <c r="D54" s="51"/>
       <c r="E54" s="186"/>
       <c r="F54" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G54" s="186"/>
       <c r="H54" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I54" s="186"/>
       <c r="J54" s="144" t="e">
-        <f t="shared" ref="J54:L54" si="65">I54/I$22</f>
+        <f t="shared" ref="J54:L54" si="60">I54/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K54" s="186"/>
       <c r="L54" s="144" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M54" s="186"/>
       <c r="N54" s="144" t="e">
-        <f t="shared" ref="N54" si="66">M54/M$22</f>
+        <f t="shared" ref="N54" si="61">M54/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O54" s="186"/>
       <c r="P54" s="144" t="e">
-        <f t="shared" ref="P54" si="67">O54/O$22</f>
+        <f t="shared" ref="P54" si="62">O54/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="11"/>
@@ -4470,32 +4461,32 @@
       <c r="D55" s="51"/>
       <c r="E55" s="186"/>
       <c r="F55" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G55" s="186"/>
       <c r="H55" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I55" s="186"/>
       <c r="J55" s="144" t="e">
-        <f t="shared" ref="J55:L55" si="68">I55/I$22</f>
+        <f t="shared" ref="J55:L55" si="63">I55/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K55" s="186"/>
       <c r="L55" s="144" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M55" s="186"/>
       <c r="N55" s="144" t="e">
-        <f t="shared" ref="N55" si="69">M55/M$22</f>
+        <f t="shared" ref="N55" si="64">M55/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O55" s="186"/>
       <c r="P55" s="144" t="e">
-        <f t="shared" ref="P55" si="70">O55/O$22</f>
+        <f t="shared" ref="P55" si="65">O55/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q55" s="11"/>
@@ -4507,34 +4498,34 @@
         <v>73</v>
       </c>
       <c r="D56" s="53"/>
-      <c r="E56" s="194"/>
+      <c r="E56" s="192"/>
       <c r="F56" s="145" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G56" s="194"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" s="192"/>
       <c r="H56" s="145" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="194"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I56" s="192"/>
       <c r="J56" s="145" t="e">
-        <f t="shared" ref="J56:L56" si="71">I56/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K56" s="194"/>
+        <f t="shared" ref="J56:L56" si="66">I56/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K56" s="192"/>
       <c r="L56" s="145" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M56" s="194"/>
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="192"/>
       <c r="N56" s="145" t="e">
-        <f t="shared" ref="N56" si="72">M56/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O56" s="194"/>
+        <f t="shared" ref="N56" si="67">M56/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" s="192"/>
       <c r="P56" s="145" t="e">
-        <f t="shared" ref="P56" si="73">O56/O$22</f>
+        <f t="shared" ref="P56" si="68">O56/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q56" s="11"/>
@@ -4589,32 +4580,32 @@
       <c r="D58" s="49"/>
       <c r="E58" s="186"/>
       <c r="F58" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G58" s="186"/>
       <c r="H58" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I58" s="186"/>
       <c r="J58" s="144" t="e">
-        <f t="shared" ref="J58:L58" si="74">I58/I$22</f>
+        <f t="shared" ref="J58:L58" si="69">I58/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="186"/>
       <c r="L58" s="144" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M58" s="186"/>
       <c r="N58" s="144" t="e">
-        <f t="shared" ref="N58" si="75">M58/M$22</f>
+        <f t="shared" ref="N58" si="70">M58/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O58" s="186"/>
       <c r="P58" s="144" t="e">
-        <f t="shared" ref="P58" si="76">O58/O$22</f>
+        <f t="shared" ref="P58" si="71">O58/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q58" s="11"/>
@@ -4628,32 +4619,32 @@
       <c r="D59" s="51"/>
       <c r="E59" s="186"/>
       <c r="F59" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G59" s="186"/>
       <c r="H59" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I59" s="186"/>
       <c r="J59" s="144" t="e">
-        <f t="shared" ref="J59:L59" si="77">I59/I$22</f>
+        <f t="shared" ref="J59:L59" si="72">I59/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K59" s="186"/>
       <c r="L59" s="144" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M59" s="186"/>
       <c r="N59" s="144" t="e">
-        <f t="shared" ref="N59" si="78">M59/M$22</f>
+        <f t="shared" ref="N59" si="73">M59/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O59" s="186"/>
       <c r="P59" s="144" t="e">
-        <f t="shared" ref="P59" si="79">O59/O$22</f>
+        <f t="shared" ref="P59" si="74">O59/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="11"/>
@@ -4667,32 +4658,32 @@
       <c r="D60" s="49"/>
       <c r="E60" s="186"/>
       <c r="F60" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G60" s="186"/>
       <c r="H60" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I60" s="186"/>
       <c r="J60" s="144" t="e">
-        <f t="shared" ref="J60:L60" si="80">I60/I$22</f>
+        <f t="shared" ref="J60:L60" si="75">I60/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K60" s="186"/>
       <c r="L60" s="144" t="e">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M60" s="186"/>
       <c r="N60" s="144" t="e">
-        <f t="shared" ref="N60" si="81">M60/M$22</f>
+        <f t="shared" ref="N60" si="76">M60/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O60" s="186"/>
       <c r="P60" s="144" t="e">
-        <f t="shared" ref="P60" si="82">O60/O$22</f>
+        <f t="shared" ref="P60" si="77">O60/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q60" s="11"/>
@@ -4706,32 +4697,32 @@
       <c r="D61" s="49"/>
       <c r="E61" s="186"/>
       <c r="F61" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G61" s="186"/>
       <c r="H61" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="186"/>
       <c r="J61" s="144" t="e">
-        <f t="shared" ref="J61:L61" si="83">I61/I$22</f>
+        <f t="shared" ref="J61:L61" si="78">I61/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="186"/>
       <c r="L61" s="144" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="186"/>
       <c r="N61" s="144" t="e">
-        <f t="shared" ref="N61" si="84">M61/M$22</f>
+        <f t="shared" ref="N61" si="79">M61/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="186"/>
       <c r="P61" s="144" t="e">
-        <f t="shared" ref="P61" si="85">O61/O$22</f>
+        <f t="shared" ref="P61" si="80">O61/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="11"/>
@@ -4745,32 +4736,32 @@
       <c r="D62" s="51"/>
       <c r="E62" s="186"/>
       <c r="F62" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="186"/>
       <c r="H62" s="144" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="186"/>
       <c r="J62" s="144" t="e">
-        <f t="shared" ref="J62:L62" si="86">I62/I$22</f>
+        <f t="shared" ref="J62:L62" si="81">I62/I$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="186"/>
       <c r="L62" s="144" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="186"/>
       <c r="N62" s="144" t="e">
-        <f t="shared" ref="N62" si="87">M62/M$22</f>
+        <f t="shared" ref="N62" si="82">M62/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="186"/>
       <c r="P62" s="144" t="e">
-        <f t="shared" ref="P62" si="88">O62/O$22</f>
+        <f t="shared" ref="P62" si="83">O62/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="11"/>
@@ -4782,34 +4773,34 @@
         <v>79</v>
       </c>
       <c r="D63" s="57"/>
-      <c r="E63" s="194"/>
+      <c r="E63" s="192"/>
       <c r="F63" s="145" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G63" s="194"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G63" s="192"/>
       <c r="H63" s="145" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I63" s="194"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I63" s="192"/>
       <c r="J63" s="145" t="e">
-        <f t="shared" ref="J63:L63" si="89">I63/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K63" s="194"/>
+        <f t="shared" ref="J63:L63" si="84">I63/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K63" s="192"/>
       <c r="L63" s="145" t="e">
-        <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M63" s="194"/>
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M63" s="192"/>
       <c r="N63" s="145" t="e">
-        <f t="shared" ref="N63" si="90">M63/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O63" s="194"/>
+        <f t="shared" ref="N63" si="85">M63/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O63" s="192"/>
       <c r="P63" s="145" t="e">
-        <f t="shared" ref="P63" si="91">O63/O$22</f>
+        <f t="shared" ref="P63" si="86">O63/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q63" s="11"/>
@@ -4823,34 +4814,34 @@
         <v>81</v>
       </c>
       <c r="D64" s="147"/>
-      <c r="E64" s="197"/>
+      <c r="E64" s="195"/>
       <c r="F64" s="32" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G64" s="197"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="195"/>
       <c r="H64" s="32" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="197"/>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="195"/>
       <c r="J64" s="32" t="e">
-        <f t="shared" ref="J64:L64" si="92">I64/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K64" s="197"/>
+        <f t="shared" ref="J64:L64" si="87">I64/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K64" s="195"/>
       <c r="L64" s="32" t="e">
-        <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M64" s="197"/>
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M64" s="195"/>
       <c r="N64" s="32" t="e">
-        <f t="shared" ref="N64" si="93">M64/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O64" s="197"/>
+        <f t="shared" ref="N64" si="88">M64/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O64" s="195"/>
       <c r="P64" s="32" t="e">
-        <f t="shared" ref="P64" si="94">O64/O$22</f>
+        <f t="shared" ref="P64" si="89">O64/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q64" s="11"/>
@@ -4862,48 +4853,48 @@
       </c>
       <c r="C65" s="149"/>
       <c r="D65" s="150"/>
-      <c r="E65" s="198">
-        <f>SUM(E32:E63)</f>
+      <c r="E65" s="196">
+        <f>SUM(E32:E64)</f>
         <v>0</v>
       </c>
       <c r="F65" s="31" t="e">
         <f>E65/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G65" s="198">
-        <f>SUM(G32:G63)</f>
+      <c r="G65" s="196">
+        <f>SUM(G32:G64)</f>
         <v>0</v>
       </c>
       <c r="H65" s="31" t="e">
         <f>G65/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I65" s="198">
-        <f>SUM(I32:I63)</f>
+      <c r="I65" s="196">
+        <f>SUM(I32:I64)</f>
         <v>0</v>
       </c>
       <c r="J65" s="31" t="e">
         <f>I65/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K65" s="198">
-        <f>SUM(K32:K63)</f>
+      <c r="K65" s="196">
+        <f>SUM(K32:K64)</f>
         <v>0</v>
       </c>
       <c r="L65" s="31" t="e">
         <f>K65/K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M65" s="198">
-        <f>SUM(M32:M63)</f>
+      <c r="M65" s="196">
+        <f>SUM(M32:M64)</f>
         <v>0</v>
       </c>
       <c r="N65" s="31" t="e">
         <f>M65/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O65" s="198">
-        <f>SUM(O32:O63)</f>
+      <c r="O65" s="196">
+        <f>SUM(O32:O64)</f>
         <v>0</v>
       </c>
       <c r="P65" s="31" t="e">
@@ -4919,31 +4910,31 @@
       </c>
       <c r="C66" s="152"/>
       <c r="D66" s="153"/>
-      <c r="E66" s="199">
-        <f>E65+E30+E27</f>
+      <c r="E66" s="197">
+        <f>E65+E31</f>
         <v>0</v>
       </c>
       <c r="F66" s="33" t="e">
         <f>E66/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G66" s="199">
-        <f>G65+G30+G27</f>
+      <c r="G66" s="197">
+        <f>G65+G31</f>
         <v>0</v>
       </c>
       <c r="H66" s="33" t="e">
         <f>G66/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I66" s="199">
-        <f>I65+I30+I27</f>
+      <c r="I66" s="197">
+        <f>I65+I31</f>
         <v>0</v>
       </c>
       <c r="J66" s="33" t="e">
         <f>I66/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K66" s="199">
+      <c r="K66" s="197">
         <f>K65+K30+K27</f>
         <v>0</v>
       </c>
@@ -4951,16 +4942,16 @@
         <f>K66/K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M66" s="199">
-        <f>M65+M30+M27</f>
+      <c r="M66" s="197">
+        <f>M65+M31</f>
         <v>0</v>
       </c>
       <c r="N66" s="33" t="e">
         <f>M66/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O66" s="201">
-        <f>O65+O30+O27</f>
+      <c r="O66" s="197">
+        <f>O65+O31</f>
         <v>0</v>
       </c>
       <c r="P66" s="33" t="e">

--- a/app/webroot/excel/profit-and-loss.xlsx
+++ b/app/webroot/excel/profit-and-loss.xlsx
@@ -282,9 +282,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>消耗品</t>
-  </si>
-  <si>
     <t>おしぼり代(大滝)</t>
   </si>
   <si>
@@ -292,12 +289,6 @@
   </si>
   <si>
     <t>アミ洗浄費(ケン・クリーナー)</t>
-  </si>
-  <si>
-    <t>ゴキブリ防除(ダスキン)</t>
-  </si>
-  <si>
-    <t>清掃代(ワイテック)</t>
   </si>
   <si>
     <t>米(賄い)</t>
@@ -327,6 +318,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゴキブリ防除(ダスキン)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>清掃代(ワイテック)</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1093,17 +1096,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1213,17 +1205,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1334,18 +1315,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
@@ -1356,6 +1326,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1388,6 +1380,30 @@
         <color auto="1"/>
       </top>
       <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1406,7 +1422,7 @@
     </xf>
     <xf numFmtId="6" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1447,7 +1463,7 @@
     <xf numFmtId="177" fontId="3" fillId="7" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1474,10 +1490,10 @@
     <xf numFmtId="176" fontId="7" fillId="6" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="7" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1499,9 +1515,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="6" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="5" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1513,127 +1526,112 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1708,24 +1706,24 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1750,22 +1748,22 @@
     <xf numFmtId="177" fontId="7" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1780,10 +1778,10 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1798,34 +1796,34 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="9" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="62" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="66" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="64" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1834,19 +1832,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1873,7 +1865,7 @@
     <xf numFmtId="176" fontId="7" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1915,10 +1907,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="8" borderId="58" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="7" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="8" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="2" fillId="8" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1933,7 +1925,7 @@
     <xf numFmtId="6" fontId="3" fillId="7" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="8" fillId="9" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1945,16 +1937,16 @@
     <xf numFmtId="6" fontId="8" fillId="9" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="10" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="8" borderId="58" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="9" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="3" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="10" borderId="46" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="8" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="9" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="3" borderId="46" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="8" fillId="6" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1972,7 +1964,7 @@
     <xf numFmtId="6" fontId="3" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="8" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1981,25 +1973,46 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="3" fillId="6" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="4" fillId="5" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="66" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2347,8 +2360,8 @@
   </sheetPr>
   <dimension ref="B1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2368,31 +2381,31 @@
     <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="34" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" style="33" customWidth="1"/>
     <col min="17" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:16" ht="25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="84"/>
+      <c r="O2" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="78"/>
     </row>
     <row r="3" spans="2:16" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C3" s="6"/>
@@ -2408,109 +2421,109 @@
       <c r="M3" s="6"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="35"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="154"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87" t="s">
+      <c r="B4" s="146"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="89" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="89" t="s">
+      <c r="J4" s="84"/>
+      <c r="K4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="90"/>
-      <c r="O4" s="87" t="s">
+      <c r="N4" s="84"/>
+      <c r="O4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="88"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="2:16" s="9" customFormat="1" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="155" t="e">
+      <c r="C5" s="154"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="147" t="e">
         <f>E5/E5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="180"/>
-      <c r="H5" s="155" t="e">
+      <c r="G5" s="172"/>
+      <c r="H5" s="147" t="e">
         <f>G5/G5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="180"/>
-      <c r="J5" s="155" t="e">
+      <c r="I5" s="172"/>
+      <c r="J5" s="147" t="e">
         <f>I5/I5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="180"/>
-      <c r="L5" s="155" t="e">
+      <c r="K5" s="172"/>
+      <c r="L5" s="147" t="e">
         <f>K5/K5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="180">
+      <c r="M5" s="172">
         <f>I5+K5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="156" t="e">
+      <c r="N5" s="148" t="e">
         <f>M5/M5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="180">
+      <c r="O5" s="172">
         <f>E5+G5+M5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="156" t="e">
+      <c r="P5" s="148" t="e">
         <f>O5/O5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="181"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="173"/>
       <c r="F6" s="23" t="e">
         <f>E6/E$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="181"/>
+      <c r="G6" s="173"/>
       <c r="H6" s="23" t="e">
         <f>G6/G$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="181"/>
+      <c r="I6" s="173"/>
       <c r="J6" s="23" t="e">
         <f>I6/I$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="181"/>
+      <c r="K6" s="173"/>
       <c r="L6" s="14" t="e">
         <f>K6/K$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="181">
+      <c r="M6" s="173">
         <f>I6+K6</f>
         <v>0</v>
       </c>
@@ -2518,7 +2531,7 @@
         <f>M6/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="181">
+      <c r="O6" s="173">
         <f>E6+G6+M6</f>
         <v>0</v>
       </c>
@@ -2528,233 +2541,233 @@
       </c>
     </row>
     <row r="7" spans="2:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="101"/>
-      <c r="C7" s="119" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="120"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="125" t="e">
+      <c r="D7" s="114"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="119" t="e">
         <f t="shared" ref="F7:H10" si="0">E7/E$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="182"/>
-      <c r="H7" s="125" t="e">
+      <c r="G7" s="174"/>
+      <c r="H7" s="119" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="182"/>
-      <c r="J7" s="125" t="e">
+      <c r="I7" s="174"/>
+      <c r="J7" s="119" t="e">
         <f t="shared" ref="J7" si="1">I7/I$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="182"/>
-      <c r="L7" s="126" t="e">
+      <c r="K7" s="174"/>
+      <c r="L7" s="120" t="e">
         <f t="shared" ref="L7" si="2">K7/K$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="182">
+      <c r="M7" s="174">
         <f>I7+K7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="125" t="e">
+      <c r="N7" s="119" t="e">
         <f>M7/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="182">
+      <c r="O7" s="174">
         <f t="shared" ref="O7:O11" si="3">E7+G7+M7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="125" t="e">
+      <c r="P7" s="119" t="e">
         <f>O7/O$5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="105" t="e">
+      <c r="D8" s="98"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="99" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="176"/>
-      <c r="H8" s="105" t="e">
+      <c r="G8" s="168"/>
+      <c r="H8" s="99" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="176"/>
-      <c r="J8" s="105" t="e">
+      <c r="I8" s="168"/>
+      <c r="J8" s="99" t="e">
         <f t="shared" ref="J8" si="4">I8/I$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="176"/>
-      <c r="L8" s="106" t="e">
+      <c r="K8" s="168"/>
+      <c r="L8" s="100" t="e">
         <f t="shared" ref="L8" si="5">K8/K$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="176">
+      <c r="M8" s="168">
         <f>I8+K8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="105" t="e">
+      <c r="N8" s="99" t="e">
         <f>M8/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="176">
+      <c r="O8" s="168">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P8" s="105" t="e">
+      <c r="P8" s="99" t="e">
         <f>O8/O$5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="102"/>
-      <c r="C9" s="127" t="s">
+      <c r="B9" s="96"/>
+      <c r="C9" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="128" t="e">
+      <c r="D9" s="121"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="122" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="177"/>
-      <c r="H9" s="128" t="e">
+      <c r="G9" s="169"/>
+      <c r="H9" s="122" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="177"/>
-      <c r="J9" s="128" t="e">
+      <c r="I9" s="169"/>
+      <c r="J9" s="122" t="e">
         <f t="shared" ref="J9" si="6">I9/I$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="177"/>
-      <c r="L9" s="129" t="e">
+      <c r="K9" s="169"/>
+      <c r="L9" s="123" t="e">
         <f t="shared" ref="L9" si="7">K9/K$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="177">
+      <c r="M9" s="169">
         <f>I9+K9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="128" t="e">
+      <c r="N9" s="122" t="e">
         <f t="shared" ref="N9:P9" si="8">M9/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="177">
+      <c r="O9" s="169">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P9" s="128" t="e">
+      <c r="P9" s="122" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="102"/>
-      <c r="C10" s="96" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="98" t="e">
+      <c r="D10" s="91"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="178"/>
-      <c r="H10" s="98" t="e">
+      <c r="G10" s="170"/>
+      <c r="H10" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="178"/>
-      <c r="J10" s="98" t="e">
+      <c r="I10" s="170"/>
+      <c r="J10" s="92" t="e">
         <f t="shared" ref="J10" si="9">I10/I$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="178"/>
-      <c r="L10" s="99" t="e">
+      <c r="K10" s="170"/>
+      <c r="L10" s="93" t="e">
         <f t="shared" ref="L10" si="10">K10/K$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="178">
+      <c r="M10" s="170">
         <f>I10+K10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="98" t="e">
+      <c r="N10" s="92" t="e">
         <f t="shared" ref="N10:P10" si="11">M10/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="178">
+      <c r="O10" s="170">
         <f>E10+G10+M10</f>
         <v>0</v>
       </c>
-      <c r="P10" s="98" t="e">
+      <c r="P10" s="92" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="101"/>
-      <c r="C11" s="130" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="132" t="e">
+      <c r="D11" s="125"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="126" t="e">
         <f>E11/E$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="179"/>
-      <c r="H11" s="132" t="e">
+      <c r="G11" s="171"/>
+      <c r="H11" s="126" t="e">
         <f>G11/G$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="179"/>
-      <c r="J11" s="132" t="e">
+      <c r="I11" s="171"/>
+      <c r="J11" s="126" t="e">
         <f>I11/I$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="179"/>
-      <c r="L11" s="133" t="e">
+      <c r="K11" s="171"/>
+      <c r="L11" s="127" t="e">
         <f>K11/K$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="182">
+      <c r="M11" s="174">
         <f>I11+K11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="132" t="e">
+      <c r="N11" s="126" t="e">
         <f>M11/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="179">
+      <c r="O11" s="171">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P11" s="132" t="e">
+      <c r="P11" s="126" t="e">
         <f>O11/O$5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="142"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="142"/>
+      <c r="G12" s="136"/>
       <c r="H12" s="26"/>
       <c r="I12" s="10"/>
       <c r="J12" s="26"/>
@@ -2772,86 +2785,86 @@
       <c r="P12" s="26"/>
     </row>
     <row r="13" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="44"/>
-      <c r="C13" s="107" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="110">
+      <c r="D13" s="102"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="104">
         <f>I13+K13</f>
         <v>0</v>
       </c>
-      <c r="N13" s="111"/>
-      <c r="O13" s="110">
+      <c r="N13" s="105"/>
+      <c r="O13" s="104">
         <f t="shared" ref="O13:O15" si="12">E13+G13+M13</f>
         <v>0</v>
       </c>
-      <c r="P13" s="111"/>
+      <c r="P13" s="105"/>
     </row>
     <row r="14" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="44"/>
-      <c r="C14" s="96" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="110">
+      <c r="D14" s="91"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="104">
         <f>I14+K14</f>
         <v>0</v>
       </c>
-      <c r="N14" s="111"/>
-      <c r="O14" s="110">
+      <c r="N14" s="105"/>
+      <c r="O14" s="104">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P14" s="111"/>
+      <c r="P14" s="105"/>
     </row>
     <row r="15" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="44"/>
-      <c r="C15" s="107" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="112"/>
-      <c r="M15" s="110">
+      <c r="D15" s="112"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="104">
         <f>I15+K15</f>
         <v>0</v>
       </c>
-      <c r="N15" s="111"/>
-      <c r="O15" s="110">
+      <c r="N15" s="105"/>
+      <c r="O15" s="104">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P15" s="111"/>
+      <c r="P15" s="105"/>
     </row>
     <row r="16" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="45"/>
-      <c r="C16" s="134" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="135"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="13">
         <f>SUM(E12:E15)</f>
         <v>0</v>
@@ -2884,219 +2897,219 @@
       <c r="P16" s="25"/>
     </row>
     <row r="17" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="171" t="e">
-        <f>FLOOR(E8/E12,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="116"/>
-      <c r="G17" s="171" t="e">
-        <f>FLOOR(G8/G12,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="116"/>
-      <c r="I17" s="171" t="e">
-        <f>FLOOR(I8/I12,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="116"/>
-      <c r="K17" s="171" t="e">
-        <f>FLOOR(K8/K12,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="117"/>
-      <c r="M17" s="171" t="e">
-        <f>FLOOR(M8/M12,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="116"/>
-      <c r="O17" s="171" t="e">
-        <f>FLOOR(O8/O12,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="116"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="163" t="str">
+        <f>IF(ISERROR(E8/E12),"",FLOOR(E8/E12,1))</f>
+        <v/>
+      </c>
+      <c r="F17" s="110"/>
+      <c r="G17" s="163" t="str">
+        <f>IF(ISERROR(G8/G12),"",FLOOR(G8/G12,1))</f>
+        <v/>
+      </c>
+      <c r="H17" s="110"/>
+      <c r="I17" s="163" t="str">
+        <f>IF(ISERROR(I8/I12),"",FLOOR(I8/I12,1))</f>
+        <v/>
+      </c>
+      <c r="J17" s="110"/>
+      <c r="K17" s="163" t="str">
+        <f>IF(ISERROR(K8/K12),"",FLOOR(K8/K12,1))</f>
+        <v/>
+      </c>
+      <c r="L17" s="111"/>
+      <c r="M17" s="163" t="str">
+        <f>IF(ISERROR(M8/M12),"",FLOOR(M8/M12,1))</f>
+        <v/>
+      </c>
+      <c r="N17" s="110"/>
+      <c r="O17" s="163" t="str">
+        <f>IF(ISERROR(O8/O12),"",FLOOR(O8/O12,1))</f>
+        <v/>
+      </c>
+      <c r="P17" s="110"/>
     </row>
     <row r="18" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="44"/>
-      <c r="C18" s="138" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="172" t="e">
-        <f>FLOOR(E9/E13,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="109"/>
-      <c r="G18" s="172" t="e">
-        <f>FLOOR(G9/G13,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="109"/>
-      <c r="I18" s="172" t="e">
-        <f>FLOOR(I9/I13,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="114"/>
-      <c r="K18" s="172" t="e">
-        <f>FLOOR(K9/K13,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="157"/>
-      <c r="M18" s="172" t="e">
-        <f>FLOOR(M9/M13,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="109"/>
-      <c r="O18" s="172" t="e">
-        <f>FLOOR(O9/O13,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="109"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="164" t="str">
+        <f t="shared" ref="E18:G21" si="13">IF(ISERROR(E9/E13),"",FLOOR(E9/E13,1))</f>
+        <v/>
+      </c>
+      <c r="F18" s="103"/>
+      <c r="G18" s="164" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H18" s="103"/>
+      <c r="I18" s="164" t="str">
+        <f t="shared" ref="I18" si="14">IF(ISERROR(I9/I13),"",FLOOR(I9/I13,1))</f>
+        <v/>
+      </c>
+      <c r="J18" s="108"/>
+      <c r="K18" s="164" t="str">
+        <f t="shared" ref="K18" si="15">IF(ISERROR(K9/K13),"",FLOOR(K9/K13,1))</f>
+        <v/>
+      </c>
+      <c r="L18" s="149"/>
+      <c r="M18" s="164" t="str">
+        <f t="shared" ref="M18" si="16">IF(ISERROR(M9/M13),"",FLOOR(M9/M13,1))</f>
+        <v/>
+      </c>
+      <c r="N18" s="103"/>
+      <c r="O18" s="164" t="str">
+        <f t="shared" ref="O18" si="17">IF(ISERROR(O9/O13),"",FLOOR(O9/O13,1))</f>
+        <v/>
+      </c>
+      <c r="P18" s="103"/>
     </row>
     <row r="19" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="44"/>
-      <c r="C19" s="139" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="173" t="e">
-        <f>FLOOR(E10/E14,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="111"/>
-      <c r="G19" s="173" t="e">
-        <f>FLOOR(G10/G14,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="111"/>
-      <c r="I19" s="173" t="e">
-        <f>FLOOR(I10/I14,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="111"/>
-      <c r="K19" s="173" t="e">
-        <f>FLOOR(K10/K14,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="112"/>
-      <c r="M19" s="173" t="e">
-        <f>FLOOR(M10/M14,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="111"/>
-      <c r="O19" s="173" t="e">
-        <f>FLOOR(O10/O14,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="111"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="165" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F19" s="105"/>
+      <c r="G19" s="165" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H19" s="105"/>
+      <c r="I19" s="165" t="str">
+        <f t="shared" ref="I19" si="18">IF(ISERROR(I10/I14),"",FLOOR(I10/I14,1))</f>
+        <v/>
+      </c>
+      <c r="J19" s="105"/>
+      <c r="K19" s="165" t="str">
+        <f t="shared" ref="K19" si="19">IF(ISERROR(K10/K14),"",FLOOR(K10/K14,1))</f>
+        <v/>
+      </c>
+      <c r="L19" s="106"/>
+      <c r="M19" s="165" t="str">
+        <f t="shared" ref="M19" si="20">IF(ISERROR(M10/M14),"",FLOOR(M10/M14,1))</f>
+        <v/>
+      </c>
+      <c r="N19" s="105"/>
+      <c r="O19" s="165" t="str">
+        <f t="shared" ref="O19" si="21">IF(ISERROR(O10/O14),"",FLOOR(O10/O14,1))</f>
+        <v/>
+      </c>
+      <c r="P19" s="105"/>
     </row>
     <row r="20" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="44"/>
-      <c r="C20" s="136" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="174" t="e">
-        <f>FLOOR(E11/E15,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="111"/>
-      <c r="G20" s="174" t="e">
-        <f>FLOOR(G11/G15,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="111"/>
-      <c r="I20" s="174" t="e">
-        <f>FLOOR(I11/I15,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="111"/>
-      <c r="K20" s="174" t="e">
-        <f>FLOOR(K11/K15,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="112"/>
-      <c r="M20" s="174" t="e">
-        <f>FLOOR(M11/M15,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="111"/>
-      <c r="O20" s="174" t="e">
-        <f>FLOOR(O11/O15,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="166" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F20" s="105"/>
+      <c r="G20" s="166" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H20" s="105"/>
+      <c r="I20" s="166" t="str">
+        <f t="shared" ref="I20" si="22">IF(ISERROR(I11/I15),"",FLOOR(I11/I15,1))</f>
+        <v/>
+      </c>
+      <c r="J20" s="105"/>
+      <c r="K20" s="166" t="str">
+        <f t="shared" ref="K20" si="23">IF(ISERROR(K11/K15),"",FLOOR(K11/K15,1))</f>
+        <v/>
+      </c>
+      <c r="L20" s="106"/>
+      <c r="M20" s="166" t="str">
+        <f t="shared" ref="M20" si="24">IF(ISERROR(M11/M15),"",FLOOR(M11/M15,1))</f>
+        <v/>
+      </c>
+      <c r="N20" s="105"/>
+      <c r="O20" s="166" t="str">
+        <f t="shared" ref="O20" si="25">IF(ISERROR(O11/O15),"",FLOOR(O11/O15,1))</f>
+        <v/>
+      </c>
+      <c r="P20" s="105"/>
     </row>
     <row r="21" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="75"/>
-      <c r="C21" s="140" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="141"/>
-      <c r="E21" s="175" t="e">
-        <f>AVERAGE(E17:E20)</f>
+      <c r="D21" s="135"/>
+      <c r="E21" s="167" t="e">
+        <f>AVERAGEIF(E17:E20,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="G21" s="175" t="e">
-        <f>AVERAGE(G17:G20)</f>
+      <c r="G21" s="167" t="e">
+        <f>AVERAGEIF(G17:G20,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="17"/>
-      <c r="I21" s="175" t="e">
-        <f>AVERAGE(I17:I20)</f>
+      <c r="I21" s="167" t="e">
+        <f>AVERAGEIF(I17:I20,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J21" s="17"/>
-      <c r="K21" s="175" t="e">
-        <f>AVERAGE(K17:K20)</f>
+      <c r="K21" s="167" t="e">
+        <f>AVERAGEIF(K17:K20,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="17"/>
-      <c r="M21" s="175" t="e">
-        <f>AVERAGE(M17:M20)</f>
+      <c r="M21" s="167" t="e">
+        <f>AVERAGEIF(M17:M20,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="25"/>
-      <c r="O21" s="175" t="e">
-        <f>AVERAGE(O17:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="170"/>
+      <c r="O21" s="167" t="e">
+        <f>AVERAGEIF(O17:O20,"&lt;&gt;0")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="162"/>
     </row>
     <row r="22" spans="2:18" s="9" customFormat="1" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="159"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="183"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="175"/>
       <c r="F22" s="15" t="e">
         <f>E22/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="183"/>
+      <c r="G22" s="175"/>
       <c r="H22" s="15" t="e">
         <f>G22/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="183"/>
+      <c r="I22" s="175"/>
       <c r="J22" s="15" t="e">
         <f>I22/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="183"/>
+      <c r="K22" s="175"/>
       <c r="L22" s="15" t="e">
         <f>K22/K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="183">
+      <c r="M22" s="175">
         <f>I22+K22</f>
         <v>0</v>
       </c>
@@ -3104,7 +3117,7 @@
         <f>M22/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O22" s="183">
+      <c r="O22" s="175">
         <f>E22+G22+M22</f>
         <v>0</v>
       </c>
@@ -3114,82 +3127,82 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="185"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="177"/>
       <c r="F23" s="18" t="e">
-        <f t="shared" ref="F23:H29" si="13">E23/E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="185"/>
+        <f t="shared" ref="F23:H29" si="26">E23/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="177"/>
       <c r="H23" s="18" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="185"/>
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="177"/>
       <c r="J23" s="18" t="e">
-        <f t="shared" ref="J23" si="14">I23/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="185"/>
+        <f t="shared" ref="J23" si="27">I23/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="177"/>
       <c r="L23" s="18" t="e">
-        <f t="shared" ref="L23" si="15">K23/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="185">
+        <f t="shared" ref="L23" si="28">K23/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="177">
         <f>I23+K23</f>
         <v>0</v>
       </c>
       <c r="N23" s="27" t="e">
-        <f t="shared" ref="N23" si="16">M23/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="185">
+        <f t="shared" ref="N23" si="29">M23/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="177">
         <f>E23+G23+M23</f>
         <v>0</v>
       </c>
       <c r="P23" s="27" t="e">
-        <f t="shared" ref="P23" si="17">O23/O$22</f>
+        <f t="shared" ref="P23" si="30">O23/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="44"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="186"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="178"/>
       <c r="F24" s="19" t="e">
         <f>E24/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="186"/>
+      <c r="G24" s="178"/>
       <c r="H24" s="19" t="e">
         <f>G24/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="186"/>
+      <c r="I24" s="178"/>
       <c r="J24" s="19" t="e">
         <f>I24/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="186"/>
+      <c r="K24" s="178"/>
       <c r="L24" s="19" t="e">
         <f>K24/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="186">
-        <f t="shared" ref="M24:M26" si="18">I24+K24</f>
+      <c r="M24" s="178">
+        <f t="shared" ref="M24:M26" si="31">I24+K24</f>
         <v>0</v>
       </c>
       <c r="N24" s="28" t="e">
         <f>M24/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="186">
-        <f t="shared" ref="O24:O29" si="19">E24+G24+M24</f>
+      <c r="O24" s="178">
+        <f t="shared" ref="O24:O29" si="32">E24+G24+M24</f>
         <v>0</v>
       </c>
       <c r="P24" s="28" t="e">
@@ -3198,79 +3211,79 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="44"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="186"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="178"/>
       <c r="F25" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="186"/>
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="178"/>
       <c r="H25" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="186"/>
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="178"/>
       <c r="J25" s="19" t="e">
-        <f t="shared" ref="J25" si="20">I25/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="186"/>
+        <f t="shared" ref="J25" si="33">I25/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="178"/>
       <c r="L25" s="19" t="e">
-        <f t="shared" ref="L25" si="21">K25/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="186">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="L25" si="34">K25/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="178">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N25" s="28" t="e">
-        <f t="shared" ref="N25" si="22">M25/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="186">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="N25" si="35">M25/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="178">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P25" s="28" t="e">
-        <f t="shared" ref="P25" si="23">O25/O$22</f>
+        <f t="shared" ref="P25" si="36">O25/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="44"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="186"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="178"/>
       <c r="F26" s="19" t="e">
         <f>E26/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="186"/>
+      <c r="G26" s="178"/>
       <c r="H26" s="19" t="e">
         <f>G26/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="186"/>
+      <c r="I26" s="178"/>
       <c r="J26" s="19" t="e">
         <f>I26/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="186"/>
+      <c r="K26" s="178"/>
       <c r="L26" s="19" t="e">
         <f>K26/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="186">
-        <f t="shared" si="18"/>
+      <c r="M26" s="178">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N26" s="28" t="e">
         <f>M26/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="186">
+      <c r="O26" s="178">
         <f>E26+G26+M26</f>
         <v>0</v>
       </c>
@@ -3280,12 +3293,12 @@
       </c>
     </row>
     <row r="27" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="78"/>
-      <c r="C27" s="121" t="s">
+      <c r="B27" s="72"/>
+      <c r="C27" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="187">
+      <c r="D27" s="116"/>
+      <c r="E27" s="179">
         <f>SUM(E23:E26)</f>
         <v>0</v>
       </c>
@@ -3293,7 +3306,7 @@
         <f>E27/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="187">
+      <c r="G27" s="179">
         <f>SUM(G23:G26)</f>
         <v>0</v>
       </c>
@@ -3301,7 +3314,7 @@
         <f>G27/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="187">
+      <c r="I27" s="179">
         <f>SUM(I23:I26)</f>
         <v>0</v>
       </c>
@@ -3309,7 +3322,7 @@
         <f>I27/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="187">
+      <c r="K27" s="179">
         <f>SUM(K23:K26)</f>
         <v>0</v>
       </c>
@@ -3317,7 +3330,7 @@
         <f>K27/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="187">
+      <c r="M27" s="179">
         <f>SUM(M23:M26)</f>
         <v>0</v>
       </c>
@@ -3325,7 +3338,7 @@
         <f>M27/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="187">
+      <c r="O27" s="179">
         <f>SUM(O23:O26)</f>
         <v>0</v>
       </c>
@@ -3335,100 +3348,100 @@
       </c>
     </row>
     <row r="28" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="186"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="178"/>
       <c r="F28" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="186"/>
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="178"/>
       <c r="H28" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="186"/>
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="178"/>
       <c r="J28" s="19" t="e">
-        <f t="shared" ref="J28" si="24">I28/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="186"/>
+        <f t="shared" ref="J28" si="37">I28/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="178"/>
       <c r="L28" s="19" t="e">
-        <f t="shared" ref="L28" si="25">K28/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="186">
+        <f t="shared" ref="L28" si="38">K28/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="178">
         <f>I28+K28</f>
         <v>0</v>
       </c>
       <c r="N28" s="28" t="e">
-        <f t="shared" ref="N28" si="26">M28/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="186">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="N28" si="39">M28/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="178">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P28" s="28" t="e">
-        <f t="shared" ref="P28" si="27">O28/O$22</f>
+        <f t="shared" ref="P28" si="40">O28/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
     </row>
     <row r="29" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="44"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="186"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="178"/>
       <c r="F29" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="186"/>
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="178"/>
       <c r="H29" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="186"/>
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="178"/>
       <c r="J29" s="19" t="e">
-        <f t="shared" ref="J29" si="28">I29/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="186"/>
+        <f t="shared" ref="J29" si="41">I29/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="178"/>
       <c r="L29" s="19" t="e">
-        <f t="shared" ref="L29" si="29">K29/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="186">
+        <f t="shared" ref="L29" si="42">K29/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="178">
         <f>I29+K29</f>
         <v>0</v>
       </c>
       <c r="N29" s="28" t="e">
-        <f t="shared" ref="N29" si="30">M29/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="186">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="N29" si="43">M29/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="178">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P29" s="28" t="e">
-        <f t="shared" ref="P29" si="31">O29/O$22</f>
+        <f t="shared" ref="P29" si="44">O29/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="2:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="75"/>
-      <c r="C30" s="123" t="s">
+      <c r="B30" s="69"/>
+      <c r="C30" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="124"/>
-      <c r="E30" s="188">
+      <c r="D30" s="118"/>
+      <c r="E30" s="180">
         <f>SUM(E28:E29)</f>
         <v>0</v>
       </c>
@@ -3436,7 +3449,7 @@
         <f>E30/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="188">
+      <c r="G30" s="180">
         <f>SUM(G28:G29)</f>
         <v>0</v>
       </c>
@@ -3444,7 +3457,7 @@
         <f>G30/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="188">
+      <c r="I30" s="180">
         <f>SUM(I28:I29)</f>
         <v>0</v>
       </c>
@@ -3452,7 +3465,7 @@
         <f>I30/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="188">
+      <c r="K30" s="180">
         <f>SUM(K28:K29)</f>
         <v>0</v>
       </c>
@@ -3460,7 +3473,7 @@
         <f>K30/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="188">
+      <c r="M30" s="180">
         <f>SUM(M28:M29)</f>
         <v>0</v>
       </c>
@@ -3468,7 +3481,7 @@
         <f>M30/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="188">
+      <c r="O30" s="180">
         <f>SUM(O28:O29)</f>
         <v>0</v>
       </c>
@@ -3480,12 +3493,12 @@
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="2:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="164" t="s">
+      <c r="B31" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="165"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="184">
+      <c r="C31" s="157"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="176">
         <f>E27+E30</f>
         <v>0</v>
       </c>
@@ -3493,7 +3506,7 @@
         <f>E31/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="184">
+      <c r="G31" s="176">
         <f>G27+G30</f>
         <v>0</v>
       </c>
@@ -3501,7 +3514,7 @@
         <f>G31/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="184">
+      <c r="I31" s="176">
         <f>I27+I30</f>
         <v>0</v>
       </c>
@@ -3509,7 +3522,7 @@
         <f>I31/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="184">
+      <c r="K31" s="176">
         <f>K30+K27</f>
         <v>0</v>
       </c>
@@ -3517,7 +3530,7 @@
         <f>K31/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="184">
+      <c r="M31" s="176">
         <f>M30+M27</f>
         <v>0</v>
       </c>
@@ -3525,7 +3538,7 @@
         <f>M31/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="190">
+      <c r="O31" s="182">
         <f>O30+O27</f>
         <v>0</v>
       </c>
@@ -3538,37 +3551,37 @@
       <c r="B32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="95"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="39" t="e">
+      <c r="D32" s="89"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="38" t="e">
         <f>E32/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="191"/>
-      <c r="H32" s="39" t="e">
+      <c r="G32" s="183"/>
+      <c r="H32" s="38" t="e">
         <f>G32/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="191"/>
-      <c r="J32" s="39" t="e">
+      <c r="I32" s="183"/>
+      <c r="J32" s="38" t="e">
         <f>I32/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="191"/>
-      <c r="L32" s="39" t="e">
+      <c r="K32" s="183"/>
+      <c r="L32" s="38" t="e">
         <f>K32/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="191"/>
-      <c r="N32" s="39" t="e">
+      <c r="M32" s="183"/>
+      <c r="N32" s="38" t="e">
         <f>M32/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="191"/>
-      <c r="P32" s="39" t="e">
+      <c r="O32" s="183"/>
+      <c r="P32" s="38" t="e">
         <f>O32/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -3576,42 +3589,42 @@
       <c r="R32" s="11"/>
     </row>
     <row r="33" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="189" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="143" t="e">
+      <c r="D33" s="57"/>
+      <c r="E33" s="181" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="137" t="e">
         <f>SUM(E33:E35)/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="189"/>
-      <c r="H33" s="143" t="e">
+      <c r="G33" s="181"/>
+      <c r="H33" s="137" t="e">
         <f>SUM(G33:G35)/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="189"/>
-      <c r="J33" s="143" t="e">
+      <c r="I33" s="181"/>
+      <c r="J33" s="137" t="e">
         <f>SUM(I33:I35)/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="189"/>
-      <c r="L33" s="143" t="e">
+      <c r="K33" s="181"/>
+      <c r="L33" s="137" t="e">
         <f>SUM(K33:K35)/K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M33" s="189"/>
-      <c r="N33" s="143" t="e">
+      <c r="M33" s="181"/>
+      <c r="N33" s="137" t="e">
         <f>SUM(M33:M35)/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O33" s="189"/>
-      <c r="P33" s="143" t="e">
+      <c r="O33" s="181"/>
+      <c r="P33" s="137" t="e">
         <f>SUM(O33:O35)/O22</f>
         <v>#DIV/0!</v>
       </c>
@@ -3619,118 +3632,118 @@
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="44"/>
-      <c r="C34" s="70" t="s">
+      <c r="B34" s="42"/>
+      <c r="C34" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="144" t="e">
-        <f t="shared" ref="F34:H64" si="32">E34/E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="186"/>
-      <c r="H34" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="186"/>
-      <c r="J34" s="144" t="e">
-        <f t="shared" ref="J34:L34" si="33">I34/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="186"/>
-      <c r="L34" s="144" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="186"/>
-      <c r="N34" s="144" t="e">
-        <f t="shared" ref="N34" si="34">M34/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" s="186"/>
-      <c r="P34" s="144" t="e">
-        <f t="shared" ref="P34" si="35">O34/O$22</f>
+      <c r="D34" s="65"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="138" t="e">
+        <f t="shared" ref="F34:H64" si="45">E34/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="178"/>
+      <c r="H34" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="178"/>
+      <c r="J34" s="138" t="e">
+        <f t="shared" ref="J34:L34" si="46">I34/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="178"/>
+      <c r="L34" s="138" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="178"/>
+      <c r="N34" s="138" t="e">
+        <f t="shared" ref="N34" si="47">M34/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="178"/>
+      <c r="P34" s="138" t="e">
+        <f t="shared" ref="P34" si="48">O34/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="45"/>
-      <c r="C35" s="60" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="145" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="192"/>
-      <c r="H35" s="145" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="192"/>
-      <c r="J35" s="145" t="e">
-        <f t="shared" ref="J35:L35" si="36">I35/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="192"/>
-      <c r="L35" s="145" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="192"/>
-      <c r="N35" s="145" t="e">
-        <f t="shared" ref="N35" si="37">M35/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="192"/>
-      <c r="P35" s="145" t="e">
-        <f t="shared" ref="P35" si="38">O35/O$22</f>
+      <c r="D35" s="59"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="139" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="184"/>
+      <c r="H35" s="139" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="184"/>
+      <c r="J35" s="139" t="e">
+        <f t="shared" ref="J35:L35" si="49">I35/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="184"/>
+      <c r="L35" s="139" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="184"/>
+      <c r="N35" s="139" t="e">
+        <f t="shared" ref="N35" si="50">M35/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="184"/>
+      <c r="P35" s="139" t="e">
+        <f t="shared" ref="P35" si="51">O35/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
     </row>
     <row r="36" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="143" t="e">
+      <c r="D36" s="57"/>
+      <c r="E36" s="181"/>
+      <c r="F36" s="137" t="e">
         <f>SUM(E36:E39)/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="189"/>
-      <c r="H36" s="143" t="e">
+      <c r="G36" s="181"/>
+      <c r="H36" s="137" t="e">
         <f>SUM(G36:G39)/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="189"/>
-      <c r="J36" s="143" t="e">
+      <c r="I36" s="181"/>
+      <c r="J36" s="137" t="e">
         <f>SUM(I36:I39)/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K36" s="189"/>
-      <c r="L36" s="143" t="e">
+      <c r="K36" s="181"/>
+      <c r="L36" s="137" t="e">
         <f>SUM(K36:K39)/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="189"/>
-      <c r="N36" s="143" t="e">
+      <c r="M36" s="181"/>
+      <c r="N36" s="137" t="e">
         <f>SUM(M36:M39)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O36" s="189"/>
-      <c r="P36" s="143" t="e">
+      <c r="O36" s="181"/>
+      <c r="P36" s="137" t="e">
         <f>SUM(O36:O39)/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -3738,157 +3751,157 @@
       <c r="R36" s="11"/>
     </row>
     <row r="37" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="44"/>
-      <c r="C37" s="68" t="s">
+      <c r="B37" s="42"/>
+      <c r="C37" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="193"/>
-      <c r="H37" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="193"/>
-      <c r="J37" s="144" t="e">
-        <f t="shared" ref="J37:L37" si="39">I37/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="193"/>
-      <c r="L37" s="144" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="193"/>
-      <c r="N37" s="144" t="e">
-        <f t="shared" ref="N37" si="40">M37/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="186"/>
-      <c r="P37" s="144" t="e">
-        <f t="shared" ref="P37" si="41">O37/O$22</f>
+      <c r="D37" s="63"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="185"/>
+      <c r="H37" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="185"/>
+      <c r="J37" s="138" t="e">
+        <f t="shared" ref="J37:L37" si="52">I37/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="185"/>
+      <c r="L37" s="138" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="185"/>
+      <c r="N37" s="138" t="e">
+        <f t="shared" ref="N37" si="53">M37/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="178"/>
+      <c r="P37" s="138" t="e">
+        <f t="shared" ref="P37" si="54">O37/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
     </row>
     <row r="38" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="44"/>
-      <c r="C38" s="68" t="s">
+      <c r="B38" s="42"/>
+      <c r="C38" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="186"/>
-      <c r="H38" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="186"/>
-      <c r="J38" s="144" t="e">
-        <f t="shared" ref="J38:L38" si="42">I38/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="186"/>
-      <c r="L38" s="144" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="186"/>
-      <c r="N38" s="144" t="e">
-        <f t="shared" ref="N38" si="43">M38/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O38" s="186"/>
-      <c r="P38" s="144" t="e">
-        <f t="shared" ref="P38" si="44">O38/O$22</f>
+      <c r="D38" s="63"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="178"/>
+      <c r="H38" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="178"/>
+      <c r="J38" s="138" t="e">
+        <f t="shared" ref="J38:L38" si="55">I38/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="178"/>
+      <c r="L38" s="138" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="178"/>
+      <c r="N38" s="138" t="e">
+        <f t="shared" ref="N38" si="56">M38/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="178"/>
+      <c r="P38" s="138" t="e">
+        <f t="shared" ref="P38" si="57">O38/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
     </row>
     <row r="39" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="45"/>
-      <c r="C39" s="60" t="s">
+      <c r="B39" s="43"/>
+      <c r="C39" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="145" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="192"/>
-      <c r="H39" s="145" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="192"/>
-      <c r="J39" s="145" t="e">
-        <f t="shared" ref="J39:L39" si="45">I39/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="192"/>
-      <c r="L39" s="145" t="e">
+      <c r="D39" s="59"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="139" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="192"/>
-      <c r="N39" s="145" t="e">
-        <f t="shared" ref="N39" si="46">M39/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="192"/>
-      <c r="P39" s="145" t="e">
-        <f t="shared" ref="P39" si="47">O39/O$22</f>
+      <c r="G39" s="184"/>
+      <c r="H39" s="139" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="184"/>
+      <c r="J39" s="139" t="e">
+        <f t="shared" ref="J39:L39" si="58">I39/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="184"/>
+      <c r="L39" s="139" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="184"/>
+      <c r="N39" s="139" t="e">
+        <f t="shared" ref="N39" si="59">M39/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="184"/>
+      <c r="P39" s="139" t="e">
+        <f t="shared" ref="P39" si="60">O39/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
     </row>
     <row r="40" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="143" t="e">
+      <c r="D40" s="57"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="137" t="e">
         <f>SUM(E40:E42)/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="189"/>
-      <c r="H40" s="143" t="e">
+      <c r="G40" s="181"/>
+      <c r="H40" s="137" t="e">
         <f>SUM(G40:G42)/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="189"/>
-      <c r="J40" s="143" t="e">
+      <c r="I40" s="181"/>
+      <c r="J40" s="137" t="e">
         <f>SUM(I40:I42)/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="189"/>
-      <c r="L40" s="143" t="e">
+      <c r="K40" s="181"/>
+      <c r="L40" s="137" t="e">
         <f>SUM(K40:K42)/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="189"/>
-      <c r="N40" s="143" t="e">
+      <c r="M40" s="181"/>
+      <c r="N40" s="137" t="e">
         <f>SUM(M40:M42)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O40" s="189"/>
-      <c r="P40" s="143" t="e">
+      <c r="O40" s="181"/>
+      <c r="P40" s="137" t="e">
         <f>SUM(O40:O42)/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -3896,118 +3909,118 @@
       <c r="R40" s="11"/>
     </row>
     <row r="41" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="44"/>
-      <c r="C41" s="70" t="s">
+      <c r="B41" s="42"/>
+      <c r="C41" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="186"/>
-      <c r="H41" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="186"/>
-      <c r="J41" s="144" t="e">
-        <f t="shared" ref="J41:L41" si="48">I41/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="186"/>
-      <c r="L41" s="144" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="186"/>
-      <c r="N41" s="144" t="e">
-        <f t="shared" ref="N41" si="49">M41/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O41" s="186"/>
-      <c r="P41" s="144" t="e">
-        <f t="shared" ref="P41" si="50">O41/O$22</f>
+      <c r="D41" s="65"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="178"/>
+      <c r="H41" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="178"/>
+      <c r="J41" s="138" t="e">
+        <f t="shared" ref="J41:L41" si="61">I41/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="178"/>
+      <c r="L41" s="138" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="178"/>
+      <c r="N41" s="138" t="e">
+        <f t="shared" ref="N41" si="62">M41/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="178"/>
+      <c r="P41" s="138" t="e">
+        <f t="shared" ref="P41" si="63">O41/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
     </row>
     <row r="42" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="45"/>
-      <c r="C42" s="72" t="s">
+      <c r="B42" s="43"/>
+      <c r="C42" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="145" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="192"/>
-      <c r="H42" s="145" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="192"/>
-      <c r="J42" s="145" t="e">
-        <f t="shared" ref="J42:L42" si="51">I42/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="192"/>
-      <c r="L42" s="145" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="192"/>
-      <c r="N42" s="145" t="e">
-        <f t="shared" ref="N42" si="52">M42/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="192"/>
-      <c r="P42" s="145" t="e">
-        <f t="shared" ref="P42" si="53">O42/O$22</f>
+      <c r="D42" s="67"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="139" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="184"/>
+      <c r="H42" s="139" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="184"/>
+      <c r="J42" s="139" t="e">
+        <f t="shared" ref="J42:L42" si="64">I42/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="184"/>
+      <c r="L42" s="139" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="184"/>
+      <c r="N42" s="139" t="e">
+        <f t="shared" ref="N42" si="65">M42/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="184"/>
+      <c r="P42" s="139" t="e">
+        <f t="shared" ref="P42" si="66">O42/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="143" t="e">
+      <c r="D43" s="57"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="137" t="e">
         <f>SUM(E43:E44)/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="189"/>
-      <c r="H43" s="143" t="e">
+      <c r="G43" s="181"/>
+      <c r="H43" s="137" t="e">
         <f>SUM(G43:G44)/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="189"/>
-      <c r="J43" s="143" t="e">
+      <c r="I43" s="181"/>
+      <c r="J43" s="137" t="e">
         <f>SUM(I43:I44)/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K43" s="189"/>
-      <c r="L43" s="143" t="e">
+      <c r="K43" s="181"/>
+      <c r="L43" s="137" t="e">
         <f>SUM(K43:K44)/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M43" s="189"/>
-      <c r="N43" s="143" t="e">
+      <c r="M43" s="181"/>
+      <c r="N43" s="137" t="e">
         <f>SUM(M43:M44)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O43" s="189"/>
-      <c r="P43" s="143" t="e">
+      <c r="O43" s="181"/>
+      <c r="P43" s="137" t="e">
         <f>SUM(O43:O44)/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4015,38 +4028,38 @@
       <c r="R43" s="11"/>
     </row>
     <row r="44" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="45"/>
-      <c r="C44" s="60" t="s">
+      <c r="B44" s="43"/>
+      <c r="C44" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="145" t="e">
+      <c r="D44" s="59"/>
+      <c r="E44" s="184"/>
+      <c r="F44" s="139" t="e">
         <f>E44/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="192"/>
-      <c r="H44" s="145" t="e">
+      <c r="G44" s="184"/>
+      <c r="H44" s="139" t="e">
         <f>G44/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="192"/>
-      <c r="J44" s="145" t="e">
+      <c r="I44" s="184"/>
+      <c r="J44" s="139" t="e">
         <f>I44/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K44" s="192"/>
-      <c r="L44" s="145" t="e">
+      <c r="K44" s="184"/>
+      <c r="L44" s="139" t="e">
         <f>K44/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M44" s="192"/>
-      <c r="N44" s="145" t="e">
+      <c r="M44" s="184"/>
+      <c r="N44" s="139" t="e">
         <f>M44/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O44" s="192"/>
-      <c r="P44" s="145" t="e">
+      <c r="O44" s="184"/>
+      <c r="P44" s="139" t="e">
         <f>O44/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4054,40 +4067,40 @@
       <c r="R44" s="11"/>
     </row>
     <row r="45" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="189"/>
-      <c r="F45" s="143" t="e">
+      <c r="D45" s="57"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="137" t="e">
         <f>SUM(E45:E46)/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="189"/>
-      <c r="H45" s="143" t="e">
+      <c r="G45" s="181"/>
+      <c r="H45" s="137" t="e">
         <f>SUM(G45:G46)/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I45" s="189"/>
-      <c r="J45" s="143" t="e">
+      <c r="I45" s="181"/>
+      <c r="J45" s="137" t="e">
         <f>SUM(I45:I46)/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K45" s="189"/>
-      <c r="L45" s="143" t="e">
+      <c r="K45" s="181"/>
+      <c r="L45" s="137" t="e">
         <f>SUM(K45:K46)/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M45" s="189"/>
-      <c r="N45" s="143" t="e">
+      <c r="M45" s="181"/>
+      <c r="N45" s="137" t="e">
         <f>SUM(M45:M46)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O45" s="189"/>
-      <c r="P45" s="143" t="e">
+      <c r="O45" s="181"/>
+      <c r="P45" s="137" t="e">
         <f>SUM(O45:O46)/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4095,38 +4108,38 @@
       <c r="R45" s="11"/>
     </row>
     <row r="46" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="45"/>
-      <c r="C46" s="60" t="s">
+      <c r="B46" s="43"/>
+      <c r="C46" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="192"/>
-      <c r="F46" s="145" t="e">
+      <c r="D46" s="59"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="139" t="e">
         <f>E46/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G46" s="192"/>
-      <c r="H46" s="145" t="e">
+      <c r="G46" s="184"/>
+      <c r="H46" s="139" t="e">
         <f>G46/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I46" s="192"/>
-      <c r="J46" s="145" t="e">
+      <c r="I46" s="184"/>
+      <c r="J46" s="139" t="e">
         <f>I46/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K46" s="192"/>
-      <c r="L46" s="145" t="e">
+      <c r="K46" s="184"/>
+      <c r="L46" s="139" t="e">
         <f>K46/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M46" s="192"/>
-      <c r="N46" s="145" t="e">
+      <c r="M46" s="184"/>
+      <c r="N46" s="139" t="e">
         <f>M46/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O46" s="192"/>
-      <c r="P46" s="145" t="e">
+      <c r="O46" s="184"/>
+      <c r="P46" s="139" t="e">
         <f>O46/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4134,40 +4147,40 @@
       <c r="R46" s="11"/>
     </row>
     <row r="47" spans="2:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="194"/>
-      <c r="F47" s="37" t="e">
+      <c r="D47" s="61"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="36" t="e">
         <f>E47/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="194"/>
-      <c r="H47" s="37" t="e">
+      <c r="G47" s="186"/>
+      <c r="H47" s="36" t="e">
         <f>G47/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I47" s="194"/>
-      <c r="J47" s="37" t="e">
+      <c r="I47" s="186"/>
+      <c r="J47" s="36" t="e">
         <f>I47/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K47" s="194"/>
-      <c r="L47" s="37" t="e">
+      <c r="K47" s="186"/>
+      <c r="L47" s="36" t="e">
         <f>K47/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M47" s="194"/>
-      <c r="N47" s="37" t="e">
+      <c r="M47" s="186"/>
+      <c r="N47" s="36" t="e">
         <f>M47/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O47" s="194"/>
-      <c r="P47" s="37" t="e">
+      <c r="O47" s="186"/>
+      <c r="P47" s="36" t="e">
         <f>O47/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4175,40 +4188,40 @@
       <c r="R47" s="11"/>
     </row>
     <row r="48" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="65"/>
-      <c r="E48" s="191"/>
-      <c r="F48" s="143" t="e">
+      <c r="D48" s="45"/>
+      <c r="E48" s="193"/>
+      <c r="F48" s="137" t="e">
         <f>SUM(E48:E49)/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G48" s="191"/>
-      <c r="H48" s="143" t="e">
+      <c r="G48" s="193"/>
+      <c r="H48" s="137" t="e">
         <f>SUM(G48:G49)/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="191"/>
-      <c r="J48" s="143" t="e">
+      <c r="I48" s="193"/>
+      <c r="J48" s="137" t="e">
         <f>SUM(I48:I49)/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K48" s="191"/>
-      <c r="L48" s="143" t="e">
+      <c r="K48" s="193"/>
+      <c r="L48" s="137" t="e">
         <f>SUM(K48:K49)/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M48" s="191"/>
-      <c r="N48" s="143" t="e">
+      <c r="M48" s="193"/>
+      <c r="N48" s="137" t="e">
         <f>SUM(M48:M49)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O48" s="198"/>
-      <c r="P48" s="143" t="e">
+      <c r="O48" s="194"/>
+      <c r="P48" s="137" t="e">
         <f>SUM(O48:O49)/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4216,644 +4229,626 @@
       <c r="R48" s="11"/>
     </row>
     <row r="49" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="44"/>
-      <c r="C49" s="66" t="s">
+      <c r="B49" s="43"/>
+      <c r="C49" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="193"/>
-      <c r="F49" s="145" t="e">
+      <c r="D49" s="59"/>
+      <c r="E49" s="184"/>
+      <c r="F49" s="139" t="e">
         <f>E49/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G49" s="193"/>
-      <c r="H49" s="145" t="e">
+      <c r="G49" s="184"/>
+      <c r="H49" s="139" t="e">
         <f>G49/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I49" s="193"/>
-      <c r="J49" s="145" t="e">
+      <c r="I49" s="184"/>
+      <c r="J49" s="139" t="e">
         <f>I49/I$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="193"/>
-      <c r="L49" s="145" t="e">
+      <c r="K49" s="184"/>
+      <c r="L49" s="139" t="e">
         <f>K49/K$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M49" s="193"/>
-      <c r="N49" s="145" t="e">
+      <c r="M49" s="184"/>
+      <c r="N49" s="139" t="e">
         <f>M49/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O49" s="193"/>
-      <c r="P49" s="145" t="e">
+      <c r="O49" s="184"/>
+      <c r="P49" s="139" t="e">
         <f>O49/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
     </row>
-    <row r="50" spans="2:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="37" t="e">
+    <row r="50" spans="2:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="195" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="40"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="197" t="e">
         <f>E50/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="194"/>
-      <c r="H50" s="37" t="e">
-        <f>G50/G$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="194"/>
-      <c r="J50" s="37" t="e">
-        <f>I50/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K50" s="194"/>
-      <c r="L50" s="37" t="e">
-        <f>K50/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M50" s="194"/>
-      <c r="N50" s="37" t="e">
-        <f>M50/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O50" s="194"/>
-      <c r="P50" s="37" t="e">
-        <f>O50/O$22</f>
+      <c r="G50" s="196"/>
+      <c r="H50" s="197" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" s="196"/>
+      <c r="J50" s="197" t="e">
+        <f t="shared" ref="J50:L50" si="67">I50/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K50" s="196"/>
+      <c r="L50" s="197" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M50" s="196"/>
+      <c r="N50" s="197" t="e">
+        <f t="shared" ref="N50" si="68">M50/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O50" s="196"/>
+      <c r="P50" s="197" t="e">
+        <f t="shared" ref="P50" si="69">O50/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
     </row>
-    <row r="51" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="189"/>
-      <c r="F51" s="143" t="e">
-        <f>SUM(E51:E56)/E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="189"/>
-      <c r="H51" s="143" t="e">
-        <f>SUM(G51:G56)/G$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="189"/>
-      <c r="J51" s="143" t="e">
-        <f>SUM(I51:I56)/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K51" s="189"/>
-      <c r="L51" s="143" t="e">
-        <f>SUM(K51:K56)/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M51" s="189"/>
-      <c r="N51" s="143" t="e">
-        <f>SUM(M51:M56)/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O51" s="189"/>
-      <c r="P51" s="143" t="e">
-        <f>SUM(O51:O56)/O$22</f>
+    <row r="51" spans="2:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="189" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="190"/>
+      <c r="E51" s="191"/>
+      <c r="F51" s="192" t="e">
+        <f>E51/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="191"/>
+      <c r="H51" s="192" t="e">
+        <f>G51/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" s="191"/>
+      <c r="J51" s="192" t="e">
+        <f>I51/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K51" s="191"/>
+      <c r="L51" s="192" t="e">
+        <f>K51/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M51" s="191"/>
+      <c r="N51" s="192" t="e">
+        <f>M51/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O51" s="191"/>
+      <c r="P51" s="192" t="e">
+        <f>O51/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
     </row>
     <row r="52" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="44"/>
-      <c r="C52" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="186"/>
-      <c r="H52" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="186"/>
-      <c r="J52" s="144" t="e">
-        <f t="shared" ref="J52:L52" si="54">I52/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K52" s="186"/>
-      <c r="L52" s="144" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M52" s="186"/>
-      <c r="N52" s="144" t="e">
-        <f t="shared" ref="N52" si="55">M52/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O52" s="186"/>
-      <c r="P52" s="144" t="e">
-        <f t="shared" ref="P52" si="56">O52/O$22</f>
+      <c r="B52" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="45"/>
+      <c r="E52" s="181"/>
+      <c r="F52" s="137" t="e">
+        <f>SUM(E52:E56)/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="181"/>
+      <c r="H52" s="137" t="e">
+        <f>SUM(G52:G56)/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" s="181"/>
+      <c r="J52" s="137" t="e">
+        <f>SUM(I52:I56)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K52" s="181"/>
+      <c r="L52" s="137" t="e">
+        <f>SUM(K52:K56)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" s="181"/>
+      <c r="N52" s="137" t="e">
+        <f>SUM(M52:M56)/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" s="181"/>
+      <c r="P52" s="137" t="e">
+        <f>SUM(O52:O56)/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="44"/>
-      <c r="C53" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="186"/>
-      <c r="F53" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="186"/>
-      <c r="H53" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="186"/>
-      <c r="J53" s="144" t="e">
-        <f t="shared" ref="J53:L53" si="57">I53/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K53" s="186"/>
-      <c r="L53" s="144" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" s="186"/>
-      <c r="N53" s="144" t="e">
-        <f t="shared" ref="N53" si="58">M53/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" s="186"/>
-      <c r="P53" s="144" t="e">
-        <f t="shared" ref="P53" si="59">O53/O$22</f>
+      <c r="B53" s="42"/>
+      <c r="C53" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="49"/>
+      <c r="E53" s="178"/>
+      <c r="F53" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="178"/>
+      <c r="H53" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" s="178"/>
+      <c r="J53" s="138" t="e">
+        <f t="shared" ref="J53:L53" si="70">I53/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" s="178"/>
+      <c r="L53" s="138" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M53" s="178"/>
+      <c r="N53" s="138" t="e">
+        <f t="shared" ref="N53" si="71">M53/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" s="178"/>
+      <c r="P53" s="138" t="e">
+        <f t="shared" ref="P53" si="72">O53/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
     </row>
     <row r="54" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="44"/>
-      <c r="C54" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="186"/>
-      <c r="F54" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G54" s="186"/>
-      <c r="H54" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" s="186"/>
-      <c r="J54" s="144" t="e">
-        <f t="shared" ref="J54:L54" si="60">I54/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K54" s="186"/>
-      <c r="L54" s="144" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M54" s="186"/>
-      <c r="N54" s="144" t="e">
-        <f t="shared" ref="N54" si="61">M54/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O54" s="186"/>
-      <c r="P54" s="144" t="e">
-        <f t="shared" ref="P54" si="62">O54/O$22</f>
+      <c r="B54" s="42"/>
+      <c r="C54" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="49"/>
+      <c r="E54" s="178"/>
+      <c r="F54" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" s="178"/>
+      <c r="H54" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" s="178"/>
+      <c r="J54" s="138" t="e">
+        <f t="shared" ref="J54:L54" si="73">I54/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" s="178"/>
+      <c r="L54" s="138" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" s="178"/>
+      <c r="N54" s="138" t="e">
+        <f t="shared" ref="N54" si="74">M54/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O54" s="178"/>
+      <c r="P54" s="138" t="e">
+        <f t="shared" ref="P54" si="75">O54/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
     </row>
     <row r="55" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="44"/>
-      <c r="C55" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="186"/>
-      <c r="F55" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G55" s="186"/>
-      <c r="H55" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I55" s="186"/>
-      <c r="J55" s="144" t="e">
-        <f t="shared" ref="J55:L55" si="63">I55/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K55" s="186"/>
-      <c r="L55" s="144" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M55" s="186"/>
-      <c r="N55" s="144" t="e">
-        <f t="shared" ref="N55" si="64">M55/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O55" s="186"/>
-      <c r="P55" s="144" t="e">
-        <f t="shared" ref="P55" si="65">O55/O$22</f>
+      <c r="B55" s="42"/>
+      <c r="C55" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="49"/>
+      <c r="E55" s="178"/>
+      <c r="F55" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" s="178"/>
+      <c r="H55" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" s="178"/>
+      <c r="J55" s="138" t="e">
+        <f t="shared" ref="J55:L55" si="76">I55/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K55" s="178"/>
+      <c r="L55" s="138" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M55" s="178"/>
+      <c r="N55" s="138" t="e">
+        <f t="shared" ref="N55" si="77">M55/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O55" s="178"/>
+      <c r="P55" s="138" t="e">
+        <f t="shared" ref="P55" si="78">O55/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
     </row>
     <row r="56" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="45"/>
-      <c r="C56" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="53"/>
-      <c r="E56" s="192"/>
-      <c r="F56" s="145" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G56" s="192"/>
-      <c r="H56" s="145" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="192"/>
-      <c r="J56" s="145" t="e">
-        <f t="shared" ref="J56:L56" si="66">I56/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K56" s="192"/>
-      <c r="L56" s="145" t="e">
-        <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M56" s="192"/>
-      <c r="N56" s="145" t="e">
-        <f t="shared" ref="N56" si="67">M56/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O56" s="192"/>
-      <c r="P56" s="145" t="e">
-        <f t="shared" ref="P56" si="68">O56/O$22</f>
+      <c r="B56" s="43"/>
+      <c r="C56" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="51"/>
+      <c r="E56" s="184"/>
+      <c r="F56" s="139" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" s="184"/>
+      <c r="H56" s="139" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I56" s="184"/>
+      <c r="J56" s="139" t="e">
+        <f t="shared" ref="J56:L56" si="79">I56/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K56" s="184"/>
+      <c r="L56" s="139" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="184"/>
+      <c r="N56" s="139" t="e">
+        <f t="shared" ref="N56" si="80">M56/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" s="184"/>
+      <c r="P56" s="139" t="e">
+        <f t="shared" ref="P56" si="81">O56/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
     </row>
     <row r="57" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="189"/>
-      <c r="F57" s="143" t="e">
-        <f>SUM(E57:E63)/E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G57" s="189"/>
-      <c r="H57" s="143" t="e">
-        <f>SUM(G57:G63)/G$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" s="189"/>
-      <c r="J57" s="143" t="e">
-        <f>SUM(I57:I63)/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K57" s="189"/>
-      <c r="L57" s="143" t="e">
-        <f>SUM(K57:K63)/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M57" s="189"/>
-      <c r="N57" s="143" t="e">
-        <f>SUM(M57:M63)/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O57" s="189"/>
-      <c r="P57" s="143" t="e">
-        <f>SUM(O57:O63)/O$22</f>
+      <c r="C57" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="53"/>
+      <c r="E57" s="181"/>
+      <c r="F57" s="137" t="e">
+        <f>SUM(E57:E64)/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G57" s="181"/>
+      <c r="H57" s="137" t="e">
+        <f>SUM(G57:G64)/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I57" s="181"/>
+      <c r="J57" s="137" t="e">
+        <f>SUM(I57:I64)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K57" s="181"/>
+      <c r="L57" s="137" t="e">
+        <f>SUM(K57:K64)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" s="181"/>
+      <c r="N57" s="137" t="e">
+        <f>SUM(M57:M64)/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O57" s="181"/>
+      <c r="P57" s="137" t="e">
+        <f>SUM(O57:O64)/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
     </row>
     <row r="58" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="44"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="48" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D58" s="49"/>
-      <c r="E58" s="186"/>
-      <c r="F58" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G58" s="186"/>
-      <c r="H58" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58" s="186"/>
-      <c r="J58" s="144" t="e">
-        <f t="shared" ref="J58:L58" si="69">I58/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K58" s="186"/>
-      <c r="L58" s="144" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M58" s="186"/>
-      <c r="N58" s="144" t="e">
-        <f t="shared" ref="N58" si="70">M58/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O58" s="186"/>
-      <c r="P58" s="144" t="e">
-        <f t="shared" ref="P58" si="71">O58/O$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E58" s="177"/>
+      <c r="F58" s="138"/>
+      <c r="G58" s="177"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="177"/>
+      <c r="J58" s="138"/>
+      <c r="K58" s="177"/>
+      <c r="L58" s="138"/>
+      <c r="M58" s="177"/>
+      <c r="N58" s="138"/>
+      <c r="O58" s="177"/>
+      <c r="P58" s="138"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
     </row>
     <row r="59" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="44"/>
-      <c r="C59" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="186"/>
-      <c r="F59" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G59" s="186"/>
-      <c r="H59" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59" s="186"/>
-      <c r="J59" s="144" t="e">
-        <f t="shared" ref="J59:L59" si="72">I59/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K59" s="186"/>
-      <c r="L59" s="144" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M59" s="186"/>
-      <c r="N59" s="144" t="e">
-        <f t="shared" ref="N59" si="73">M59/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O59" s="186"/>
-      <c r="P59" s="144" t="e">
-        <f t="shared" ref="P59" si="74">O59/O$22</f>
+      <c r="B59" s="42"/>
+      <c r="C59" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="47"/>
+      <c r="E59" s="178"/>
+      <c r="F59" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G59" s="178"/>
+      <c r="H59" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I59" s="178"/>
+      <c r="J59" s="138" t="e">
+        <f t="shared" ref="J59:L59" si="82">I59/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="178"/>
+      <c r="L59" s="138" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" s="178"/>
+      <c r="N59" s="138" t="e">
+        <f t="shared" ref="N59" si="83">M59/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O59" s="178"/>
+      <c r="P59" s="138" t="e">
+        <f t="shared" ref="P59" si="84">O59/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
     </row>
     <row r="60" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="44"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="48" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D60" s="49"/>
-      <c r="E60" s="186"/>
-      <c r="F60" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G60" s="186"/>
-      <c r="H60" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" s="186"/>
-      <c r="J60" s="144" t="e">
-        <f t="shared" ref="J60:L60" si="75">I60/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K60" s="186"/>
-      <c r="L60" s="144" t="e">
-        <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M60" s="186"/>
-      <c r="N60" s="144" t="e">
-        <f t="shared" ref="N60" si="76">M60/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O60" s="186"/>
-      <c r="P60" s="144" t="e">
-        <f t="shared" ref="P60" si="77">O60/O$22</f>
+      <c r="E60" s="178"/>
+      <c r="F60" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G60" s="178"/>
+      <c r="H60" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I60" s="178"/>
+      <c r="J60" s="138" t="e">
+        <f t="shared" ref="J60:L60" si="85">I60/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="178"/>
+      <c r="L60" s="138" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M60" s="178"/>
+      <c r="N60" s="138" t="e">
+        <f t="shared" ref="N60" si="86">M60/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O60" s="178"/>
+      <c r="P60" s="138" t="e">
+        <f t="shared" ref="P60" si="87">O60/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
     </row>
     <row r="61" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="44"/>
-      <c r="C61" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="186"/>
-      <c r="F61" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G61" s="186"/>
-      <c r="H61" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I61" s="186"/>
-      <c r="J61" s="144" t="e">
-        <f t="shared" ref="J61:L61" si="78">I61/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K61" s="186"/>
-      <c r="L61" s="144" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M61" s="186"/>
-      <c r="N61" s="144" t="e">
-        <f t="shared" ref="N61" si="79">M61/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O61" s="186"/>
-      <c r="P61" s="144" t="e">
-        <f t="shared" ref="P61" si="80">O61/O$22</f>
+      <c r="B61" s="42"/>
+      <c r="C61" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="47"/>
+      <c r="E61" s="178"/>
+      <c r="F61" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G61" s="178"/>
+      <c r="H61" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I61" s="178"/>
+      <c r="J61" s="138" t="e">
+        <f t="shared" ref="J61:L61" si="88">I61/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K61" s="178"/>
+      <c r="L61" s="138" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M61" s="178"/>
+      <c r="N61" s="138" t="e">
+        <f t="shared" ref="N61" si="89">M61/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O61" s="178"/>
+      <c r="P61" s="138" t="e">
+        <f t="shared" ref="P61" si="90">O61/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
     </row>
     <row r="62" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="44"/>
-      <c r="C62" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="186"/>
-      <c r="F62" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G62" s="186"/>
-      <c r="H62" s="144" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I62" s="186"/>
-      <c r="J62" s="144" t="e">
-        <f t="shared" ref="J62:L62" si="81">I62/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K62" s="186"/>
-      <c r="L62" s="144" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M62" s="186"/>
-      <c r="N62" s="144" t="e">
-        <f t="shared" ref="N62" si="82">M62/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O62" s="186"/>
-      <c r="P62" s="144" t="e">
-        <f t="shared" ref="P62" si="83">O62/O$22</f>
+      <c r="B62" s="42"/>
+      <c r="C62" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="47"/>
+      <c r="E62" s="178"/>
+      <c r="F62" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G62" s="178"/>
+      <c r="H62" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I62" s="178"/>
+      <c r="J62" s="138" t="e">
+        <f t="shared" ref="J62:L62" si="91">I62/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K62" s="178"/>
+      <c r="L62" s="138" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M62" s="178"/>
+      <c r="N62" s="138" t="e">
+        <f t="shared" ref="N62" si="92">M62/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O62" s="178"/>
+      <c r="P62" s="138" t="e">
+        <f t="shared" ref="P62" si="93">O62/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
     </row>
-    <row r="63" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="45"/>
-      <c r="C63" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="192"/>
-      <c r="F63" s="145" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G63" s="192"/>
-      <c r="H63" s="145" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I63" s="192"/>
-      <c r="J63" s="145" t="e">
-        <f t="shared" ref="J63:L63" si="84">I63/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K63" s="192"/>
-      <c r="L63" s="145" t="e">
-        <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M63" s="192"/>
-      <c r="N63" s="145" t="e">
-        <f t="shared" ref="N63" si="85">M63/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O63" s="192"/>
-      <c r="P63" s="145" t="e">
-        <f t="shared" ref="P63" si="86">O63/O$22</f>
+    <row r="63" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="42"/>
+      <c r="C63" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="49"/>
+      <c r="E63" s="178"/>
+      <c r="F63" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G63" s="178"/>
+      <c r="H63" s="138" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I63" s="178"/>
+      <c r="J63" s="138" t="e">
+        <f t="shared" ref="J63:L63" si="94">I63/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K63" s="178"/>
+      <c r="L63" s="138" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M63" s="178"/>
+      <c r="N63" s="138" t="e">
+        <f t="shared" ref="N63" si="95">M63/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O63" s="178"/>
+      <c r="P63" s="138" t="e">
+        <f t="shared" ref="P63" si="96">O63/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
     </row>
-    <row r="64" spans="2:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="146" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="147"/>
-      <c r="E64" s="195"/>
-      <c r="F64" s="32" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G64" s="195"/>
-      <c r="H64" s="32" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="195"/>
-      <c r="J64" s="32" t="e">
-        <f t="shared" ref="J64:L64" si="87">I64/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K64" s="195"/>
-      <c r="L64" s="32" t="e">
-        <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M64" s="195"/>
-      <c r="N64" s="32" t="e">
-        <f t="shared" ref="N64" si="88">M64/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O64" s="195"/>
-      <c r="P64" s="32" t="e">
-        <f t="shared" ref="P64" si="89">O64/O$22</f>
+    <row r="64" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="43"/>
+      <c r="C64" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="55"/>
+      <c r="E64" s="184"/>
+      <c r="F64" s="139" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="184"/>
+      <c r="H64" s="139" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="184"/>
+      <c r="J64" s="139" t="e">
+        <f t="shared" ref="J64:L64" si="97">I64/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K64" s="184"/>
+      <c r="L64" s="139" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M64" s="184"/>
+      <c r="N64" s="139" t="e">
+        <f t="shared" ref="N64" si="98">M64/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O64" s="184"/>
+      <c r="P64" s="139" t="e">
+        <f t="shared" ref="P64" si="99">O64/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
     </row>
-    <row r="65" spans="2:18" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="148" t="s">
+    <row r="65" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="149"/>
-      <c r="D65" s="150"/>
-      <c r="E65" s="196">
+      <c r="C65" s="141"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="187">
         <f>SUM(E32:E64)</f>
         <v>0</v>
       </c>
@@ -4861,7 +4856,7 @@
         <f>E65/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G65" s="196">
+      <c r="G65" s="187">
         <f>SUM(G32:G64)</f>
         <v>0</v>
       </c>
@@ -4869,7 +4864,7 @@
         <f>G65/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I65" s="196">
+      <c r="I65" s="187">
         <f>SUM(I32:I64)</f>
         <v>0</v>
       </c>
@@ -4877,7 +4872,7 @@
         <f>I65/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K65" s="196">
+      <c r="K65" s="187">
         <f>SUM(K32:K64)</f>
         <v>0</v>
       </c>
@@ -4885,7 +4880,7 @@
         <f>K65/K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M65" s="196">
+      <c r="M65" s="187">
         <f>SUM(M32:M64)</f>
         <v>0</v>
       </c>
@@ -4893,7 +4888,7 @@
         <f>M65/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O65" s="196">
+      <c r="O65" s="187">
         <f>SUM(O32:O64)</f>
         <v>0</v>
       </c>
@@ -4905,56 +4900,56 @@
       <c r="R65" s="11"/>
     </row>
     <row r="66" spans="2:18" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="151" t="s">
+      <c r="B66" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="152"/>
-      <c r="D66" s="153"/>
-      <c r="E66" s="197">
+      <c r="C66" s="144"/>
+      <c r="D66" s="145"/>
+      <c r="E66" s="188">
         <f>E65+E31</f>
         <v>0</v>
       </c>
-      <c r="F66" s="33" t="e">
+      <c r="F66" s="32" t="e">
         <f>E66/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G66" s="197">
+      <c r="G66" s="188">
         <f>G65+G31</f>
         <v>0</v>
       </c>
-      <c r="H66" s="33" t="e">
+      <c r="H66" s="32" t="e">
         <f>G66/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I66" s="197">
+      <c r="I66" s="188">
         <f>I65+I31</f>
         <v>0</v>
       </c>
-      <c r="J66" s="33" t="e">
+      <c r="J66" s="32" t="e">
         <f>I66/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K66" s="197">
+      <c r="K66" s="188">
         <f>K65+K30+K27</f>
         <v>0</v>
       </c>
-      <c r="L66" s="33" t="e">
+      <c r="L66" s="32" t="e">
         <f>K66/K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M66" s="197">
+      <c r="M66" s="188">
         <f>M65+M31</f>
         <v>0</v>
       </c>
-      <c r="N66" s="33" t="e">
+      <c r="N66" s="32" t="e">
         <f>M66/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O66" s="197">
+      <c r="O66" s="188">
         <f>O65+O31</f>
         <v>0</v>
       </c>
-      <c r="P66" s="33" t="e">
+      <c r="P66" s="32" t="e">
         <f>O66/O22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4962,12 +4957,12 @@
       <c r="R66" s="11"/>
     </row>
     <row r="67" spans="2:18" ht="23" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="167" t="s">
+      <c r="B67" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="168"/>
-      <c r="D67" s="169"/>
-      <c r="E67" s="183">
+      <c r="C67" s="160"/>
+      <c r="D67" s="161"/>
+      <c r="E67" s="175">
         <f>E22-E66</f>
         <v>0</v>
       </c>
@@ -4975,7 +4970,7 @@
         <f>E67/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G67" s="183">
+      <c r="G67" s="175">
         <f>G22-G66</f>
         <v>0</v>
       </c>
@@ -4983,7 +4978,7 @@
         <f>G67/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I67" s="183">
+      <c r="I67" s="175">
         <f>I22-I66</f>
         <v>0</v>
       </c>
@@ -4991,7 +4986,7 @@
         <f>I67/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K67" s="183">
+      <c r="K67" s="175">
         <f>K22-K66</f>
         <v>0</v>
       </c>
@@ -4999,7 +4994,7 @@
         <f>K67/K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M67" s="183">
+      <c r="M67" s="175">
         <f>M22-M66</f>
         <v>0</v>
       </c>
@@ -5007,7 +5002,7 @@
         <f>M67/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O67" s="183">
+      <c r="O67" s="175">
         <f>O22-O66</f>
         <v>0</v>
       </c>
@@ -5024,17 +5019,19 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C58:D58"/>
     <mergeCell ref="N48:N49"/>
-    <mergeCell ref="N51:N56"/>
-    <mergeCell ref="N57:N63"/>
+    <mergeCell ref="N52:N56"/>
+    <mergeCell ref="N57:N64"/>
     <mergeCell ref="P33:P35"/>
     <mergeCell ref="P36:P39"/>
     <mergeCell ref="P40:P42"/>
     <mergeCell ref="P43:P44"/>
     <mergeCell ref="P45:P46"/>
     <mergeCell ref="P48:P49"/>
-    <mergeCell ref="P51:P56"/>
-    <mergeCell ref="P57:P63"/>
+    <mergeCell ref="P52:P56"/>
+    <mergeCell ref="P57:P64"/>
     <mergeCell ref="N33:N35"/>
     <mergeCell ref="N36:N39"/>
     <mergeCell ref="N40:N42"/>
@@ -5046,8 +5043,8 @@
     <mergeCell ref="L43:L44"/>
     <mergeCell ref="L45:L46"/>
     <mergeCell ref="L48:L49"/>
-    <mergeCell ref="L51:L56"/>
-    <mergeCell ref="L57:L63"/>
+    <mergeCell ref="L52:L56"/>
+    <mergeCell ref="L57:L64"/>
     <mergeCell ref="J33:J35"/>
     <mergeCell ref="J36:J39"/>
     <mergeCell ref="J40:J42"/>
@@ -5058,13 +5055,12 @@
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="H45:H46"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H51:H56"/>
-    <mergeCell ref="H57:H63"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="H57:H64"/>
     <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J51:J56"/>
-    <mergeCell ref="J57:J63"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="J57:J64"/>
     <mergeCell ref="F33:F35"/>
-    <mergeCell ref="C64:D64"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="F36:F39"/>
     <mergeCell ref="F40:F42"/>
@@ -5078,8 +5074,8 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F51:F56"/>
-    <mergeCell ref="F57:F63"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="F57:F64"/>
     <mergeCell ref="H33:H35"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:J2"/>
@@ -5137,22 +5133,21 @@
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B51:B56"/>
     <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B52:B56"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B57:B64"/>
     <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>

--- a/app/webroot/excel/profit-and-loss.xlsx
+++ b/app/webroot/excel/profit-and-loss.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="21760" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21980" windowHeight="15440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="全店" sheetId="7" r:id="rId1"/>
@@ -2360,8 +2360,8 @@
   </sheetPr>
   <dimension ref="B1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2381,7 +2381,7 @@
     <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" style="33" customWidth="1"/>
     <col min="17" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -3100,15 +3100,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I22" s="175"/>
-      <c r="J22" s="15" t="e">
-        <f>I22/I22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J22" s="15"/>
       <c r="K22" s="175"/>
-      <c r="L22" s="15" t="e">
-        <f>K22/K22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L22" s="15"/>
       <c r="M22" s="175">
         <f>I22+K22</f>
         <v>0</v>
@@ -3143,21 +3137,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="177"/>
-      <c r="J23" s="18" t="e">
-        <f t="shared" ref="J23" si="27">I23/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J23" s="18"/>
       <c r="K23" s="177"/>
-      <c r="L23" s="18" t="e">
-        <f t="shared" ref="L23" si="28">K23/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L23" s="18"/>
       <c r="M23" s="177">
         <f>I23+K23</f>
         <v>0</v>
       </c>
       <c r="N23" s="27" t="e">
-        <f t="shared" ref="N23" si="29">M23/M$22</f>
+        <f t="shared" ref="N23" si="27">M23/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="177">
@@ -3165,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="27" t="e">
-        <f t="shared" ref="P23" si="30">O23/O$22</f>
+        <f t="shared" ref="P23" si="28">O23/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3184,17 +3172,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="178"/>
-      <c r="J24" s="19" t="e">
-        <f>I24/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J24" s="19"/>
       <c r="K24" s="178"/>
-      <c r="L24" s="19" t="e">
-        <f>K24/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L24" s="19"/>
       <c r="M24" s="178">
-        <f t="shared" ref="M24:M26" si="31">I24+K24</f>
+        <f t="shared" ref="M24:M26" si="29">I24+K24</f>
         <v>0</v>
       </c>
       <c r="N24" s="28" t="e">
@@ -3202,7 +3184,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="178">
-        <f t="shared" ref="O24:O29" si="32">E24+G24+M24</f>
+        <f>E24+G24+M24</f>
         <v>0</v>
       </c>
       <c r="P24" s="28" t="e">
@@ -3225,29 +3207,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="178"/>
-      <c r="J25" s="19" t="e">
-        <f t="shared" ref="J25" si="33">I25/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J25" s="19"/>
       <c r="K25" s="178"/>
-      <c r="L25" s="19" t="e">
-        <f t="shared" ref="L25" si="34">K25/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L25" s="19"/>
       <c r="M25" s="178">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N25" s="28" t="e">
-        <f t="shared" ref="N25" si="35">M25/M$22</f>
+        <f t="shared" ref="N25" si="30">M25/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="178">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="O24:O29" si="31">E25+G25+M25</f>
         <v>0</v>
       </c>
       <c r="P25" s="28" t="e">
-        <f t="shared" ref="P25" si="36">O25/O$22</f>
+        <f t="shared" ref="P25" si="32">O25/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3266,17 +3242,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="178"/>
-      <c r="J26" s="19" t="e">
-        <f>I26/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J26" s="19"/>
       <c r="K26" s="178"/>
-      <c r="L26" s="19" t="e">
-        <f>K26/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L26" s="19"/>
       <c r="M26" s="178">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N26" s="28" t="e">
@@ -3318,18 +3288,12 @@
         <f>SUM(I23:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="20" t="e">
-        <f>I27/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J27" s="20"/>
       <c r="K27" s="179">
         <f>SUM(K23:K26)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="20" t="e">
-        <f>K27/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L27" s="20"/>
       <c r="M27" s="179">
         <f>SUM(M23:M26)</f>
         <v>0</v>
@@ -3364,29 +3328,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="178"/>
-      <c r="J28" s="19" t="e">
-        <f t="shared" ref="J28" si="37">I28/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J28" s="19"/>
       <c r="K28" s="178"/>
-      <c r="L28" s="19" t="e">
-        <f t="shared" ref="L28" si="38">K28/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L28" s="19"/>
       <c r="M28" s="178">
         <f>I28+K28</f>
         <v>0</v>
       </c>
       <c r="N28" s="28" t="e">
-        <f t="shared" ref="N28" si="39">M28/M$22</f>
+        <f t="shared" ref="N28" si="33">M28/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="178">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P28" s="28" t="e">
-        <f t="shared" ref="P28" si="40">O28/O$22</f>
+        <f t="shared" ref="P28" si="34">O28/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="11"/>
@@ -3407,29 +3365,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="178"/>
-      <c r="J29" s="19" t="e">
-        <f t="shared" ref="J29" si="41">I29/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J29" s="19"/>
       <c r="K29" s="178"/>
-      <c r="L29" s="19" t="e">
-        <f t="shared" ref="L29" si="42">K29/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L29" s="19"/>
       <c r="M29" s="178">
         <f>I29+K29</f>
         <v>0</v>
       </c>
       <c r="N29" s="28" t="e">
-        <f t="shared" ref="N29" si="43">M29/M$22</f>
+        <f t="shared" ref="N29" si="35">M29/M$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="178">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P29" s="28" t="e">
-        <f t="shared" ref="P29" si="44">O29/O$22</f>
+        <f t="shared" ref="P29" si="36">O29/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="11"/>
@@ -3461,18 +3413,12 @@
         <f>SUM(I28:I29)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="21" t="e">
-        <f>I30/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J30" s="21"/>
       <c r="K30" s="180">
         <f>SUM(K28:K29)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="21" t="e">
-        <f>K30/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L30" s="21"/>
       <c r="M30" s="180">
         <f>SUM(M28:M29)</f>
         <v>0</v>
@@ -3518,18 +3464,12 @@
         <f>I27+I30</f>
         <v>0</v>
       </c>
-      <c r="J31" s="22" t="e">
-        <f>I31/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J31" s="22"/>
       <c r="K31" s="176">
         <f>K30+K27</f>
         <v>0</v>
       </c>
-      <c r="L31" s="22" t="e">
-        <f>K31/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L31" s="22"/>
       <c r="M31" s="176">
         <f>M30+M27</f>
         <v>0</v>
@@ -3566,21 +3506,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="183"/>
-      <c r="J32" s="38" t="e">
-        <f>I32/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J32" s="38"/>
       <c r="K32" s="183"/>
-      <c r="L32" s="38" t="e">
-        <f>K32/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="183"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="183">
+        <f>I32+K32</f>
+        <v>0</v>
+      </c>
       <c r="N32" s="38" t="e">
         <f>M32/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="183"/>
+      <c r="O32" s="183">
+        <f>E32+G32+M32</f>
+        <v>0</v>
+      </c>
       <c r="P32" s="38" t="e">
         <f>O32/O$22</f>
         <v>#DIV/0!</v>
@@ -3609,21 +3549,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="181"/>
-      <c r="J33" s="137" t="e">
-        <f>SUM(I33:I35)/I22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J33" s="137"/>
       <c r="K33" s="181"/>
-      <c r="L33" s="137" t="e">
-        <f>SUM(K33:K35)/K22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="181"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="181">
+        <f t="shared" ref="M33:M64" si="37">I33+K33</f>
+        <v>0</v>
+      </c>
       <c r="N33" s="137" t="e">
         <f>SUM(M33:M35)/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O33" s="181"/>
+      <c r="O33" s="181">
+        <f>SUM(E33,G33,M33)</f>
+        <v>0</v>
+      </c>
       <c r="P33" s="137" t="e">
         <f>SUM(O33:O35)/O22</f>
         <v>#DIV/0!</v>
@@ -3639,32 +3579,32 @@
       <c r="D34" s="65"/>
       <c r="E34" s="178"/>
       <c r="F34" s="138" t="e">
-        <f t="shared" ref="F34:H64" si="45">E34/E$22</f>
+        <f t="shared" ref="F34:H64" si="38">E34/E$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="178"/>
       <c r="H34" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="178"/>
-      <c r="J34" s="138" t="e">
-        <f t="shared" ref="J34:L34" si="46">I34/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J34" s="138"/>
       <c r="K34" s="178"/>
-      <c r="L34" s="138" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="178"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="178">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N34" s="138" t="e">
-        <f t="shared" ref="N34" si="47">M34/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" s="178"/>
+        <f t="shared" ref="N34" si="39">M34/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="178">
+        <f>E34+G34+M34</f>
+        <v>0</v>
+      </c>
       <c r="P34" s="138" t="e">
-        <f t="shared" ref="P34" si="48">O34/O$22</f>
+        <f t="shared" ref="P34" si="40">O34/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="11"/>
@@ -3678,32 +3618,32 @@
       <c r="D35" s="59"/>
       <c r="E35" s="184"/>
       <c r="F35" s="139" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="184"/>
       <c r="H35" s="139" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="184"/>
-      <c r="J35" s="139" t="e">
-        <f t="shared" ref="J35:L35" si="49">I35/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J35" s="139"/>
       <c r="K35" s="184"/>
-      <c r="L35" s="139" t="e">
-        <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="184"/>
+      <c r="L35" s="139"/>
+      <c r="M35" s="184">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N35" s="139" t="e">
-        <f t="shared" ref="N35" si="50">M35/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="184"/>
+        <f t="shared" ref="N35" si="41">M35/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="184">
+        <f t="shared" ref="O33:O64" si="42">E35+G35+M35</f>
+        <v>0</v>
+      </c>
       <c r="P35" s="139" t="e">
-        <f t="shared" ref="P35" si="51">O35/O$22</f>
+        <f t="shared" ref="P35" si="43">O35/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="11"/>
@@ -3728,21 +3668,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="181"/>
-      <c r="J36" s="137" t="e">
-        <f>SUM(I36:I39)/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J36" s="137"/>
       <c r="K36" s="181"/>
-      <c r="L36" s="137" t="e">
-        <f>SUM(K36:K39)/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="181"/>
+      <c r="L36" s="137"/>
+      <c r="M36" s="181">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N36" s="137" t="e">
         <f>SUM(M36:M39)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O36" s="181"/>
+      <c r="O36" s="181">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P36" s="137" t="e">
         <f>SUM(O36:O39)/O$22</f>
         <v>#DIV/0!</v>
@@ -3758,32 +3698,32 @@
       <c r="D37" s="63"/>
       <c r="E37" s="185"/>
       <c r="F37" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G37" s="185"/>
       <c r="H37" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="185"/>
-      <c r="J37" s="138" t="e">
-        <f t="shared" ref="J37:L37" si="52">I37/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J37" s="138"/>
       <c r="K37" s="185"/>
-      <c r="L37" s="138" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="185"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="185">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N37" s="138" t="e">
-        <f t="shared" ref="N37" si="53">M37/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="178"/>
+        <f t="shared" ref="N37" si="44">M37/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="178">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P37" s="138" t="e">
-        <f t="shared" ref="P37" si="54">O37/O$22</f>
+        <f t="shared" ref="P37" si="45">O37/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="11"/>
@@ -3797,32 +3737,32 @@
       <c r="D38" s="63"/>
       <c r="E38" s="185"/>
       <c r="F38" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G38" s="178"/>
       <c r="H38" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="178"/>
-      <c r="J38" s="138" t="e">
-        <f t="shared" ref="J38:L38" si="55">I38/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J38" s="138"/>
       <c r="K38" s="178"/>
-      <c r="L38" s="138" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="178"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="178">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N38" s="138" t="e">
-        <f t="shared" ref="N38" si="56">M38/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O38" s="178"/>
+        <f t="shared" ref="N38" si="46">M38/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="178">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P38" s="138" t="e">
-        <f t="shared" ref="P38" si="57">O38/O$22</f>
+        <f t="shared" ref="P38" si="47">O38/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="11"/>
@@ -3836,32 +3776,32 @@
       <c r="D39" s="59"/>
       <c r="E39" s="184"/>
       <c r="F39" s="139" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="184"/>
       <c r="H39" s="139" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="184"/>
-      <c r="J39" s="139" t="e">
-        <f t="shared" ref="J39:L39" si="58">I39/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J39" s="139"/>
       <c r="K39" s="184"/>
-      <c r="L39" s="139" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="184"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="184">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N39" s="139" t="e">
-        <f t="shared" ref="N39" si="59">M39/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="184"/>
+        <f t="shared" ref="N39" si="48">M39/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="184">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P39" s="139" t="e">
-        <f t="shared" ref="P39" si="60">O39/O$22</f>
+        <f t="shared" ref="P39" si="49">O39/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="11"/>
@@ -3886,21 +3826,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I40" s="181"/>
-      <c r="J40" s="137" t="e">
-        <f>SUM(I40:I42)/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J40" s="137"/>
       <c r="K40" s="181"/>
-      <c r="L40" s="137" t="e">
-        <f>SUM(K40:K42)/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="181"/>
+      <c r="L40" s="137"/>
+      <c r="M40" s="181">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N40" s="137" t="e">
         <f>SUM(M40:M42)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O40" s="181"/>
+      <c r="O40" s="181">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P40" s="137" t="e">
         <f>SUM(O40:O42)/O$22</f>
         <v>#DIV/0!</v>
@@ -3916,32 +3856,32 @@
       <c r="D41" s="65"/>
       <c r="E41" s="178"/>
       <c r="F41" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="178"/>
       <c r="H41" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="178"/>
-      <c r="J41" s="138" t="e">
-        <f t="shared" ref="J41:L41" si="61">I41/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J41" s="138"/>
       <c r="K41" s="178"/>
-      <c r="L41" s="138" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="178"/>
+      <c r="L41" s="138"/>
+      <c r="M41" s="178">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N41" s="138" t="e">
-        <f t="shared" ref="N41" si="62">M41/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O41" s="178"/>
+        <f t="shared" ref="N41" si="50">M41/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="178">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P41" s="138" t="e">
-        <f t="shared" ref="P41" si="63">O41/O$22</f>
+        <f t="shared" ref="P41" si="51">O41/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="11"/>
@@ -3955,32 +3895,32 @@
       <c r="D42" s="67"/>
       <c r="E42" s="184"/>
       <c r="F42" s="139" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G42" s="184"/>
       <c r="H42" s="139" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I42" s="184"/>
-      <c r="J42" s="139" t="e">
-        <f t="shared" ref="J42:L42" si="64">I42/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J42" s="139"/>
       <c r="K42" s="184"/>
-      <c r="L42" s="139" t="e">
-        <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="184"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="184">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N42" s="139" t="e">
-        <f t="shared" ref="N42" si="65">M42/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="184"/>
+        <f t="shared" ref="N42" si="52">M42/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="184">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P42" s="139" t="e">
-        <f t="shared" ref="P42" si="66">O42/O$22</f>
+        <f t="shared" ref="P42" si="53">O42/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="11"/>
@@ -4005,21 +3945,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="181"/>
-      <c r="J43" s="137" t="e">
-        <f>SUM(I43:I44)/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J43" s="137"/>
       <c r="K43" s="181"/>
-      <c r="L43" s="137" t="e">
-        <f>SUM(K43:K44)/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="181"/>
+      <c r="L43" s="137"/>
+      <c r="M43" s="181">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N43" s="137" t="e">
         <f>SUM(M43:M44)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O43" s="181"/>
+      <c r="O43" s="181">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P43" s="137" t="e">
         <f>SUM(O43:O44)/O$22</f>
         <v>#DIV/0!</v>
@@ -4044,21 +3984,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I44" s="184"/>
-      <c r="J44" s="139" t="e">
-        <f>I44/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J44" s="139"/>
       <c r="K44" s="184"/>
-      <c r="L44" s="139" t="e">
-        <f>K44/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" s="184"/>
+      <c r="L44" s="139"/>
+      <c r="M44" s="184">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N44" s="139" t="e">
         <f>M44/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O44" s="184"/>
+      <c r="O44" s="184">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P44" s="139" t="e">
         <f>O44/O$22</f>
         <v>#DIV/0!</v>
@@ -4085,21 +4025,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I45" s="181"/>
-      <c r="J45" s="137" t="e">
-        <f>SUM(I45:I46)/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J45" s="137"/>
       <c r="K45" s="181"/>
-      <c r="L45" s="137" t="e">
-        <f>SUM(K45:K46)/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="181"/>
+      <c r="L45" s="137"/>
+      <c r="M45" s="181">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N45" s="137" t="e">
         <f>SUM(M45:M46)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O45" s="181"/>
+      <c r="O45" s="181">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P45" s="137" t="e">
         <f>SUM(O45:O46)/O$22</f>
         <v>#DIV/0!</v>
@@ -4124,21 +4064,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I46" s="184"/>
-      <c r="J46" s="139" t="e">
-        <f>I46/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J46" s="139"/>
       <c r="K46" s="184"/>
-      <c r="L46" s="139" t="e">
-        <f>K46/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" s="184"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="184">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N46" s="139" t="e">
         <f>M46/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O46" s="184"/>
+      <c r="O46" s="184">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P46" s="139" t="e">
         <f>O46/O$22</f>
         <v>#DIV/0!</v>
@@ -4165,21 +4105,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I47" s="186"/>
-      <c r="J47" s="36" t="e">
-        <f>I47/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J47" s="36"/>
       <c r="K47" s="186"/>
-      <c r="L47" s="36" t="e">
-        <f>K47/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="186"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="186">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N47" s="36" t="e">
         <f>M47/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O47" s="186"/>
+      <c r="O47" s="186">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P47" s="36" t="e">
         <f>O47/O$22</f>
         <v>#DIV/0!</v>
@@ -4206,21 +4146,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I48" s="193"/>
-      <c r="J48" s="137" t="e">
-        <f>SUM(I48:I49)/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J48" s="137"/>
       <c r="K48" s="193"/>
-      <c r="L48" s="137" t="e">
-        <f>SUM(K48:K49)/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48" s="193"/>
+      <c r="L48" s="137"/>
+      <c r="M48" s="193">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N48" s="137" t="e">
         <f>SUM(M48:M49)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O48" s="194"/>
+      <c r="O48" s="194">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P48" s="137" t="e">
         <f>SUM(O48:O49)/O$22</f>
         <v>#DIV/0!</v>
@@ -4245,21 +4185,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I49" s="184"/>
-      <c r="J49" s="139" t="e">
-        <f>I49/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J49" s="139"/>
       <c r="K49" s="184"/>
-      <c r="L49" s="139" t="e">
-        <f>K49/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M49" s="184"/>
+      <c r="L49" s="139"/>
+      <c r="M49" s="184">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N49" s="139" t="e">
         <f>M49/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O49" s="184"/>
+      <c r="O49" s="184">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P49" s="139" t="e">
         <f>O49/O$22</f>
         <v>#DIV/0!</v>
@@ -4282,33 +4222,33 @@
       </c>
       <c r="G50" s="196"/>
       <c r="H50" s="197" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I50" s="196"/>
-      <c r="J50" s="197" t="e">
-        <f t="shared" ref="J50:L50" si="67">I50/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J50" s="197"/>
       <c r="K50" s="196"/>
-      <c r="L50" s="197" t="e">
-        <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M50" s="196"/>
+      <c r="L50" s="197"/>
+      <c r="M50" s="196">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N50" s="197" t="e">
-        <f t="shared" ref="N50" si="68">M50/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O50" s="196"/>
+        <f t="shared" ref="N50" si="54">M50/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O50" s="196">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P50" s="197" t="e">
-        <f t="shared" ref="P50" si="69">O50/O$22</f>
+        <f t="shared" ref="P50" si="55">O50/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
     </row>
-    <row r="51" spans="2:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B51" s="39" t="s">
         <v>18</v>
       </c>
@@ -4327,21 +4267,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I51" s="191"/>
-      <c r="J51" s="192" t="e">
-        <f>I51/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J51" s="192"/>
       <c r="K51" s="191"/>
-      <c r="L51" s="192" t="e">
-        <f>K51/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M51" s="191"/>
+      <c r="L51" s="192"/>
+      <c r="M51" s="191">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N51" s="192" t="e">
         <f>M51/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O51" s="191"/>
+      <c r="O51" s="191">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P51" s="192" t="e">
         <f>O51/O$22</f>
         <v>#DIV/0!</v>
@@ -4368,21 +4308,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I52" s="181"/>
-      <c r="J52" s="137" t="e">
-        <f>SUM(I52:I56)/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J52" s="137"/>
       <c r="K52" s="181"/>
-      <c r="L52" s="137" t="e">
-        <f>SUM(K52:K56)/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M52" s="181"/>
+      <c r="L52" s="137"/>
+      <c r="M52" s="181">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N52" s="137" t="e">
         <f>SUM(M52:M56)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O52" s="181"/>
+      <c r="O52" s="181">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P52" s="137" t="e">
         <f>SUM(O52:O56)/O$22</f>
         <v>#DIV/0!</v>
@@ -4398,32 +4338,32 @@
       <c r="D53" s="49"/>
       <c r="E53" s="178"/>
       <c r="F53" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G53" s="178"/>
       <c r="H53" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I53" s="178"/>
-      <c r="J53" s="138" t="e">
-        <f t="shared" ref="J53:L53" si="70">I53/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J53" s="138"/>
       <c r="K53" s="178"/>
-      <c r="L53" s="138" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" s="178"/>
+      <c r="L53" s="138"/>
+      <c r="M53" s="178">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N53" s="138" t="e">
-        <f t="shared" ref="N53" si="71">M53/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" s="178"/>
+        <f t="shared" ref="N53" si="56">M53/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" s="178">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P53" s="138" t="e">
-        <f t="shared" ref="P53" si="72">O53/O$22</f>
+        <f t="shared" ref="P53" si="57">O53/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" s="11"/>
@@ -4437,32 +4377,32 @@
       <c r="D54" s="49"/>
       <c r="E54" s="178"/>
       <c r="F54" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G54" s="178"/>
       <c r="H54" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I54" s="178"/>
-      <c r="J54" s="138" t="e">
-        <f t="shared" ref="J54:L54" si="73">I54/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J54" s="138"/>
       <c r="K54" s="178"/>
-      <c r="L54" s="138" t="e">
-        <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M54" s="178"/>
+      <c r="L54" s="138"/>
+      <c r="M54" s="178">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N54" s="138" t="e">
-        <f t="shared" ref="N54" si="74">M54/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O54" s="178"/>
+        <f t="shared" ref="N54" si="58">M54/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O54" s="178">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P54" s="138" t="e">
-        <f t="shared" ref="P54" si="75">O54/O$22</f>
+        <f t="shared" ref="P54" si="59">O54/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="11"/>
@@ -4476,32 +4416,32 @@
       <c r="D55" s="49"/>
       <c r="E55" s="178"/>
       <c r="F55" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G55" s="178"/>
       <c r="H55" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I55" s="178"/>
-      <c r="J55" s="138" t="e">
-        <f t="shared" ref="J55:L55" si="76">I55/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J55" s="138"/>
       <c r="K55" s="178"/>
-      <c r="L55" s="138" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M55" s="178"/>
+      <c r="L55" s="138"/>
+      <c r="M55" s="178">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N55" s="138" t="e">
-        <f t="shared" ref="N55" si="77">M55/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O55" s="178"/>
+        <f t="shared" ref="N55" si="60">M55/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O55" s="178">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P55" s="138" t="e">
-        <f t="shared" ref="P55" si="78">O55/O$22</f>
+        <f t="shared" ref="P55" si="61">O55/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q55" s="11"/>
@@ -4515,32 +4455,32 @@
       <c r="D56" s="51"/>
       <c r="E56" s="184"/>
       <c r="F56" s="139" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G56" s="184"/>
       <c r="H56" s="139" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I56" s="184"/>
-      <c r="J56" s="139" t="e">
-        <f t="shared" ref="J56:L56" si="79">I56/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J56" s="139"/>
       <c r="K56" s="184"/>
-      <c r="L56" s="139" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M56" s="184"/>
+      <c r="L56" s="139"/>
+      <c r="M56" s="184">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N56" s="139" t="e">
-        <f t="shared" ref="N56" si="80">M56/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O56" s="184"/>
+        <f t="shared" ref="N56" si="62">M56/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" s="184">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P56" s="139" t="e">
-        <f t="shared" ref="P56" si="81">O56/O$22</f>
+        <f t="shared" ref="P56" si="63">O56/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q56" s="11"/>
@@ -4565,21 +4505,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I57" s="181"/>
-      <c r="J57" s="137" t="e">
-        <f>SUM(I57:I64)/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J57" s="137"/>
       <c r="K57" s="181"/>
-      <c r="L57" s="137" t="e">
-        <f>SUM(K57:K64)/K$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M57" s="181"/>
+      <c r="L57" s="137"/>
+      <c r="M57" s="181">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N57" s="137" t="e">
         <f>SUM(M57:M64)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O57" s="181"/>
+      <c r="O57" s="181">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P57" s="137" t="e">
         <f>SUM(O57:O64)/O$22</f>
         <v>#DIV/0!</v>
@@ -4601,9 +4541,15 @@
       <c r="J58" s="138"/>
       <c r="K58" s="177"/>
       <c r="L58" s="138"/>
-      <c r="M58" s="177"/>
+      <c r="M58" s="177">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N58" s="138"/>
-      <c r="O58" s="177"/>
+      <c r="O58" s="177">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P58" s="138"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
@@ -4616,32 +4562,32 @@
       <c r="D59" s="47"/>
       <c r="E59" s="178"/>
       <c r="F59" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G59" s="178"/>
       <c r="H59" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I59" s="178"/>
-      <c r="J59" s="138" t="e">
-        <f t="shared" ref="J59:L59" si="82">I59/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J59" s="138"/>
       <c r="K59" s="178"/>
-      <c r="L59" s="138" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M59" s="178"/>
+      <c r="L59" s="138"/>
+      <c r="M59" s="178">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N59" s="138" t="e">
-        <f t="shared" ref="N59" si="83">M59/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O59" s="178"/>
+        <f t="shared" ref="N59" si="64">M59/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O59" s="178">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P59" s="138" t="e">
-        <f t="shared" ref="P59" si="84">O59/O$22</f>
+        <f t="shared" ref="P59" si="65">O59/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="11"/>
@@ -4655,32 +4601,32 @@
       <c r="D60" s="49"/>
       <c r="E60" s="178"/>
       <c r="F60" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G60" s="178"/>
       <c r="H60" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I60" s="178"/>
-      <c r="J60" s="138" t="e">
-        <f t="shared" ref="J60:L60" si="85">I60/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J60" s="138"/>
       <c r="K60" s="178"/>
-      <c r="L60" s="138" t="e">
-        <f t="shared" si="85"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M60" s="178"/>
+      <c r="L60" s="138"/>
+      <c r="M60" s="178">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N60" s="138" t="e">
-        <f t="shared" ref="N60" si="86">M60/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O60" s="178"/>
+        <f t="shared" ref="N60" si="66">M60/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O60" s="178">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P60" s="138" t="e">
-        <f t="shared" ref="P60" si="87">O60/O$22</f>
+        <f t="shared" ref="P60" si="67">O60/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q60" s="11"/>
@@ -4694,32 +4640,32 @@
       <c r="D61" s="47"/>
       <c r="E61" s="178"/>
       <c r="F61" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G61" s="178"/>
       <c r="H61" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="178"/>
-      <c r="J61" s="138" t="e">
-        <f t="shared" ref="J61:L61" si="88">I61/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J61" s="138"/>
       <c r="K61" s="178"/>
-      <c r="L61" s="138" t="e">
-        <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M61" s="178"/>
+      <c r="L61" s="138"/>
+      <c r="M61" s="178">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N61" s="138" t="e">
-        <f t="shared" ref="N61" si="89">M61/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O61" s="178"/>
+        <f t="shared" ref="N61" si="68">M61/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O61" s="178">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P61" s="138" t="e">
-        <f t="shared" ref="P61" si="90">O61/O$22</f>
+        <f t="shared" ref="P61" si="69">O61/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="11"/>
@@ -4733,32 +4679,32 @@
       <c r="D62" s="47"/>
       <c r="E62" s="178"/>
       <c r="F62" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="178"/>
       <c r="H62" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="178"/>
-      <c r="J62" s="138" t="e">
-        <f t="shared" ref="J62:L62" si="91">I62/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J62" s="138"/>
       <c r="K62" s="178"/>
-      <c r="L62" s="138" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M62" s="178"/>
+      <c r="L62" s="138"/>
+      <c r="M62" s="178">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N62" s="138" t="e">
-        <f t="shared" ref="N62" si="92">M62/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O62" s="178"/>
+        <f t="shared" ref="N62" si="70">M62/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O62" s="178">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P62" s="138" t="e">
-        <f t="shared" ref="P62" si="93">O62/O$22</f>
+        <f t="shared" ref="P62" si="71">O62/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="11"/>
@@ -4772,32 +4718,32 @@
       <c r="D63" s="49"/>
       <c r="E63" s="178"/>
       <c r="F63" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G63" s="178"/>
       <c r="H63" s="138" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I63" s="178"/>
-      <c r="J63" s="138" t="e">
-        <f t="shared" ref="J63:L63" si="94">I63/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J63" s="138"/>
       <c r="K63" s="178"/>
-      <c r="L63" s="138" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M63" s="178"/>
+      <c r="L63" s="138"/>
+      <c r="M63" s="178">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N63" s="138" t="e">
-        <f t="shared" ref="N63" si="95">M63/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O63" s="178"/>
+        <f t="shared" ref="N63" si="72">M63/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O63" s="178">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P63" s="138" t="e">
-        <f t="shared" ref="P63" si="96">O63/O$22</f>
+        <f t="shared" ref="P63" si="73">O63/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q63" s="11"/>
@@ -4811,32 +4757,32 @@
       <c r="D64" s="55"/>
       <c r="E64" s="184"/>
       <c r="F64" s="139" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G64" s="184"/>
       <c r="H64" s="139" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I64" s="184"/>
-      <c r="J64" s="139" t="e">
-        <f t="shared" ref="J64:L64" si="97">I64/I$22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J64" s="139"/>
       <c r="K64" s="184"/>
-      <c r="L64" s="139" t="e">
-        <f t="shared" si="97"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M64" s="184"/>
+      <c r="L64" s="139"/>
+      <c r="M64" s="184">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
       <c r="N64" s="139" t="e">
-        <f t="shared" ref="N64" si="98">M64/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O64" s="184"/>
+        <f t="shared" ref="N64" si="74">M64/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O64" s="184">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="P64" s="139" t="e">
-        <f t="shared" ref="P64" si="99">O64/O$22</f>
+        <f t="shared" ref="P64" si="75">O64/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q64" s="11"/>
@@ -4868,18 +4814,12 @@
         <f>SUM(I32:I64)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="31" t="e">
-        <f>I65/I22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J65" s="31"/>
       <c r="K65" s="187">
         <f>SUM(K32:K64)</f>
         <v>0</v>
       </c>
-      <c r="L65" s="31" t="e">
-        <f>K65/K22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L65" s="31"/>
       <c r="M65" s="187">
         <f>SUM(M32:M64)</f>
         <v>0</v>
@@ -4925,18 +4865,12 @@
         <f>I65+I31</f>
         <v>0</v>
       </c>
-      <c r="J66" s="32" t="e">
-        <f>I66/I22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J66" s="32"/>
       <c r="K66" s="188">
         <f>K65+K30+K27</f>
         <v>0</v>
       </c>
-      <c r="L66" s="32" t="e">
-        <f>K66/K22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L66" s="32"/>
       <c r="M66" s="188">
         <f>M65+M31</f>
         <v>0</v>
@@ -4982,18 +4916,12 @@
         <f>I22-I66</f>
         <v>0</v>
       </c>
-      <c r="J67" s="24" t="e">
-        <f>I67/I22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J67" s="24"/>
       <c r="K67" s="175">
         <f>K22-K66</f>
         <v>0</v>
       </c>
-      <c r="L67" s="24" t="e">
-        <f>K67/K22</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L67" s="24"/>
       <c r="M67" s="175">
         <f>M22-M66</f>
         <v>0</v>

--- a/app/webroot/excel/profit-and-loss.xlsx
+++ b/app/webroot/excel/profit-and-loss.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>㈲ リバーサイド</t>
   </si>
@@ -330,6 +330,10 @@
   </si>
   <si>
     <t>清掃代(ワイテック)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>割引/割増</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1422,7 +1426,7 @@
     </xf>
     <xf numFmtId="6" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1541,7 +1545,175 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="62" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="7" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="8" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="8" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="7" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="9" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="9" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="10" borderId="46" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="8" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="9" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="3" borderId="46" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="6" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="6" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="5" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="66" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1550,470 +1722,320 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="64" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="62" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="64" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="7" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="8" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="8" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="7" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="9" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="9" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="10" borderId="46" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="8" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="9" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="3" borderId="46" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="6" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="6" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="5" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="66" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2358,10 +2380,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:R68"/>
+  <dimension ref="B1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2387,25 +2409,25 @@
   <sheetData>
     <row r="1" spans="2:16" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:16" ht="25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="126"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="78"/>
+      <c r="O2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="2:16" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C3" s="6"/>
@@ -2424,114 +2446,114 @@
       <c r="P3" s="34"/>
     </row>
     <row r="4" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="146"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83" t="s">
+      <c r="F4" s="132"/>
+      <c r="G4" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="83" t="s">
+      <c r="H4" s="111"/>
+      <c r="I4" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="83" t="s">
+      <c r="J4" s="111"/>
+      <c r="K4" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="133"/>
+      <c r="M4" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="81" t="s">
+      <c r="N4" s="111"/>
+      <c r="O4" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="82"/>
+      <c r="P4" s="132"/>
     </row>
     <row r="5" spans="2:16" s="9" customFormat="1" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="154"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="147" t="e">
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="59" t="e">
         <f>E5/E5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="172"/>
-      <c r="H5" s="147" t="e">
+      <c r="G5" s="72"/>
+      <c r="H5" s="59" t="e">
         <f>G5/G5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="172"/>
-      <c r="J5" s="147" t="e">
+      <c r="I5" s="72"/>
+      <c r="J5" s="59" t="e">
         <f>I5/I5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="172"/>
-      <c r="L5" s="147" t="e">
+      <c r="K5" s="72"/>
+      <c r="L5" s="59" t="e">
         <f>K5/K5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="172">
-        <f>I5+K5</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="148" t="e">
+      <c r="M5" s="72">
+        <f t="shared" ref="M5:M15" si="0">I5+K5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="60" t="e">
         <f>M5/M5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="172">
+      <c r="O5" s="72">
         <f>E5+G5+M5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="148" t="e">
+      <c r="P5" s="60" t="e">
         <f>O5/O5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="173"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="23" t="e">
         <f>E6/E$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="173"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="23" t="e">
         <f>G6/G$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="173"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="23" t="e">
         <f>I6/I$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="173"/>
+      <c r="K6" s="73"/>
       <c r="L6" s="14" t="e">
         <f>K6/K$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="173">
-        <f>I6+K6</f>
+      <c r="M6" s="73">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6" s="23" t="e">
         <f>M6/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="173">
+      <c r="O6" s="73">
         <f>E6+G6+M6</f>
         <v>0</v>
       </c>
@@ -2541,240 +2563,240 @@
       </c>
     </row>
     <row r="7" spans="2:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="95"/>
-      <c r="C7" s="113" t="s">
+      <c r="B7" s="122"/>
+      <c r="C7" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="119" t="e">
-        <f t="shared" ref="F7:H10" si="0">E7/E$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="174"/>
-      <c r="H7" s="119" t="e">
+      <c r="D7" s="144"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="51" t="e">
+        <f t="shared" ref="F7:H10" si="1">E7/E$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="51" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="74"/>
+      <c r="J7" s="51" t="e">
+        <f t="shared" ref="J7" si="2">I7/I$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="74"/>
+      <c r="L7" s="52" t="e">
+        <f t="shared" ref="L7" si="3">K7/K$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="74">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="174"/>
-      <c r="J7" s="119" t="e">
-        <f t="shared" ref="J7" si="1">I7/I$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="120" t="e">
-        <f t="shared" ref="L7" si="2">K7/K$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="174">
-        <f>I7+K7</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="119" t="e">
+        <v>0</v>
+      </c>
+      <c r="N7" s="51" t="e">
         <f>M7/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="174">
-        <f t="shared" ref="O7:O11" si="3">E7+G7+M7</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="119" t="e">
+      <c r="O7" s="74">
+        <f t="shared" ref="O7:O11" si="4">E7+G7+M7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="51" t="e">
         <f>O7/O$5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="99" t="e">
+      <c r="D8" s="116"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="J8" s="42" t="e">
+        <f t="shared" ref="J8" si="5">I8/I$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="68"/>
+      <c r="L8" s="43" t="e">
+        <f t="shared" ref="L8" si="6">K8/K$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="68">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="168"/>
-      <c r="H8" s="99" t="e">
+        <v>0</v>
+      </c>
+      <c r="N8" s="42" t="e">
+        <f>M8/M$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="42" t="e">
+        <f>O8/O$5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="121"/>
+      <c r="C9" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="69"/>
+      <c r="H9" s="53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="53" t="e">
+        <f t="shared" ref="J9" si="7">I9/I$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="69"/>
+      <c r="L9" s="54" t="e">
+        <f t="shared" ref="L9" si="8">K9/K$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="69">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="99" t="e">
-        <f t="shared" ref="J8" si="4">I8/I$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="100" t="e">
-        <f t="shared" ref="L8" si="5">K8/K$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="168">
-        <f>I8+K8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="99" t="e">
-        <f>M8/M$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="168">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="99" t="e">
-        <f>O8/O$5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="96"/>
-      <c r="C9" s="121" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="122" t="e">
+        <v>0</v>
+      </c>
+      <c r="N9" s="53" t="e">
+        <f t="shared" ref="N9:P9" si="9">M9/M$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="53" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="121"/>
+      <c r="C10" s="147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="148"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="70"/>
+      <c r="H10" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="70"/>
+      <c r="J10" s="40" t="e">
+        <f t="shared" ref="J10" si="10">I10/I$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="70"/>
+      <c r="L10" s="41" t="e">
+        <f t="shared" ref="L10" si="11">K10/K$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="70">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="169"/>
-      <c r="H9" s="122" t="e">
+        <v>0</v>
+      </c>
+      <c r="N10" s="40" t="e">
+        <f t="shared" ref="N10:P10" si="12">M10/M$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="70">
+        <f>E10+G10+M10</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="40" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="122"/>
+      <c r="C11" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="118"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="55" t="e">
+        <f>E11/E$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="71"/>
+      <c r="H11" s="55" t="e">
+        <f>G11/G$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="71"/>
+      <c r="J11" s="55" t="e">
+        <f>I11/I$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="71"/>
+      <c r="L11" s="56" t="e">
+        <f>K11/K$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="74">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="169"/>
-      <c r="J9" s="122" t="e">
-        <f t="shared" ref="J9" si="6">I9/I$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="169"/>
-      <c r="L9" s="123" t="e">
-        <f t="shared" ref="L9" si="7">K9/K$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="169">
-        <f>I9+K9</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="122" t="e">
-        <f t="shared" ref="N9:P9" si="8">M9/M$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" s="169">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="122" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="96"/>
-      <c r="C10" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="92" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="170"/>
-      <c r="H10" s="92" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="170"/>
-      <c r="J10" s="92" t="e">
-        <f t="shared" ref="J10" si="9">I10/I$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="170"/>
-      <c r="L10" s="93" t="e">
-        <f t="shared" ref="L10" si="10">K10/K$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="170">
-        <f>I10+K10</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="92" t="e">
-        <f t="shared" ref="N10:P10" si="11">M10/M$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="170">
-        <f>E10+G10+M10</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="92" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="95"/>
-      <c r="C11" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="126" t="e">
-        <f>E11/E$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="171"/>
-      <c r="H11" s="126" t="e">
-        <f>G11/G$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="171"/>
-      <c r="J11" s="126" t="e">
-        <f>I11/I$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="171"/>
-      <c r="L11" s="127" t="e">
-        <f>K11/K$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="174">
-        <f>I11+K11</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="126" t="e">
+        <v>0</v>
+      </c>
+      <c r="N11" s="55" t="e">
         <f>M11/M$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="171">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="126" t="e">
+      <c r="O11" s="71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="55" t="e">
         <f>O11/O$5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="136"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="136"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="26"/>
       <c r="I12" s="10"/>
       <c r="J12" s="26"/>
       <c r="K12" s="10"/>
       <c r="L12" s="16"/>
       <c r="M12" s="10">
-        <f>I12+K12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12" s="26"/>
@@ -2785,86 +2807,86 @@
       <c r="P12" s="26"/>
     </row>
     <row r="13" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="42"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="98"/>
+      <c r="C13" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="104">
-        <f>I13+K13</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="105"/>
-      <c r="O13" s="104">
-        <f t="shared" ref="O13:O15" si="12">E13+G13+M13</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="105"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="46"/>
+      <c r="O13" s="45">
+        <f t="shared" ref="O13:O15" si="13">E13+G13+M13</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="46"/>
     </row>
     <row r="14" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="42"/>
-      <c r="C14" s="90" t="s">
+      <c r="B14" s="98"/>
+      <c r="C14" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="104">
-        <f>I14+K14</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="105"/>
-      <c r="O14" s="104">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="105"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="46"/>
+      <c r="O14" s="45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="46"/>
     </row>
     <row r="15" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="42"/>
-      <c r="C15" s="101" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="104">
-        <f>I15+K15</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="105"/>
-      <c r="O15" s="104">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="105"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="46"/>
+      <c r="O15" s="45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="46"/>
     </row>
     <row r="16" spans="2:16" s="9" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="43"/>
-      <c r="C16" s="128" t="s">
+      <c r="B16" s="160"/>
+      <c r="C16" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="129"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="13">
         <f>SUM(E12:E15)</f>
         <v>0</v>
@@ -2897,213 +2919,219 @@
       <c r="P16" s="25"/>
     </row>
     <row r="17" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="163" t="str">
+      <c r="D17" s="155"/>
+      <c r="E17" s="63" t="str">
         <f>IF(ISERROR(E8/E12),"",FLOOR(E8/E12,1))</f>
         <v/>
       </c>
-      <c r="F17" s="110"/>
-      <c r="G17" s="163" t="str">
+      <c r="F17" s="49"/>
+      <c r="G17" s="63" t="str">
         <f>IF(ISERROR(G8/G12),"",FLOOR(G8/G12,1))</f>
         <v/>
       </c>
-      <c r="H17" s="110"/>
-      <c r="I17" s="163" t="str">
+      <c r="H17" s="49"/>
+      <c r="I17" s="63" t="str">
         <f>IF(ISERROR(I8/I12),"",FLOOR(I8/I12,1))</f>
         <v/>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="163" t="str">
+      <c r="J17" s="49"/>
+      <c r="K17" s="63" t="str">
         <f>IF(ISERROR(K8/K12),"",FLOOR(K8/K12,1))</f>
         <v/>
       </c>
-      <c r="L17" s="111"/>
-      <c r="M17" s="163" t="str">
+      <c r="L17" s="50"/>
+      <c r="M17" s="63" t="str">
         <f>IF(ISERROR(M8/M12),"",FLOOR(M8/M12,1))</f>
         <v/>
       </c>
-      <c r="N17" s="110"/>
-      <c r="O17" s="163" t="str">
+      <c r="N17" s="49"/>
+      <c r="O17" s="63" t="str">
         <f>IF(ISERROR(O8/O12),"",FLOOR(O8/O12,1))</f>
         <v/>
       </c>
-      <c r="P17" s="110"/>
+      <c r="P17" s="49"/>
     </row>
     <row r="18" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="42"/>
-      <c r="C18" s="132" t="s">
+      <c r="B18" s="98"/>
+      <c r="C18" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="164" t="str">
-        <f t="shared" ref="E18:G21" si="13">IF(ISERROR(E9/E13),"",FLOOR(E9/E13,1))</f>
+      <c r="D18" s="157"/>
+      <c r="E18" s="64" t="str">
+        <f t="shared" ref="E18:G20" si="14">IF(ISERROR(E9/E13),"",FLOOR(E9/E13,1))</f>
         <v/>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="164" t="str">
-        <f t="shared" si="13"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="64" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="H18" s="103"/>
-      <c r="I18" s="164" t="str">
-        <f t="shared" ref="I18" si="14">IF(ISERROR(I9/I13),"",FLOOR(I9/I13,1))</f>
+      <c r="H18" s="44"/>
+      <c r="I18" s="64" t="str">
+        <f t="shared" ref="I18" si="15">IF(ISERROR(I9/I13),"",FLOOR(I9/I13,1))</f>
         <v/>
       </c>
-      <c r="J18" s="108"/>
-      <c r="K18" s="164" t="str">
-        <f t="shared" ref="K18" si="15">IF(ISERROR(K9/K13),"",FLOOR(K9/K13,1))</f>
+      <c r="J18" s="48"/>
+      <c r="K18" s="64" t="str">
+        <f t="shared" ref="K18" si="16">IF(ISERROR(K9/K13),"",FLOOR(K9/K13,1))</f>
         <v/>
       </c>
-      <c r="L18" s="149"/>
-      <c r="M18" s="164" t="str">
-        <f t="shared" ref="M18" si="16">IF(ISERROR(M9/M13),"",FLOOR(M9/M13,1))</f>
+      <c r="L18" s="61"/>
+      <c r="M18" s="64" t="str">
+        <f t="shared" ref="M18" si="17">IF(ISERROR(M9/M13),"",FLOOR(M9/M13,1))</f>
         <v/>
       </c>
-      <c r="N18" s="103"/>
-      <c r="O18" s="164" t="str">
-        <f t="shared" ref="O18" si="17">IF(ISERROR(O9/O13),"",FLOOR(O9/O13,1))</f>
+      <c r="N18" s="44"/>
+      <c r="O18" s="64" t="str">
+        <f t="shared" ref="O18" si="18">IF(ISERROR(O9/O13),"",FLOOR(O9/O13,1))</f>
         <v/>
       </c>
-      <c r="P18" s="103"/>
+      <c r="P18" s="44"/>
     </row>
     <row r="19" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="42"/>
-      <c r="C19" s="133" t="s">
+      <c r="B19" s="98"/>
+      <c r="C19" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="165" t="str">
-        <f t="shared" si="13"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="65" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="F19" s="105"/>
-      <c r="G19" s="165" t="str">
-        <f t="shared" si="13"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="65" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="H19" s="105"/>
-      <c r="I19" s="165" t="str">
-        <f t="shared" ref="I19" si="18">IF(ISERROR(I10/I14),"",FLOOR(I10/I14,1))</f>
+      <c r="H19" s="46"/>
+      <c r="I19" s="65" t="str">
+        <f t="shared" ref="I19" si="19">IF(ISERROR(I10/I14),"",FLOOR(I10/I14,1))</f>
         <v/>
       </c>
-      <c r="J19" s="105"/>
-      <c r="K19" s="165" t="str">
-        <f t="shared" ref="K19" si="19">IF(ISERROR(K10/K14),"",FLOOR(K10/K14,1))</f>
+      <c r="J19" s="46"/>
+      <c r="K19" s="65" t="str">
+        <f t="shared" ref="K19" si="20">IF(ISERROR(K10/K14),"",FLOOR(K10/K14,1))</f>
         <v/>
       </c>
-      <c r="L19" s="106"/>
-      <c r="M19" s="165" t="str">
-        <f t="shared" ref="M19" si="20">IF(ISERROR(M10/M14),"",FLOOR(M10/M14,1))</f>
+      <c r="L19" s="47"/>
+      <c r="M19" s="65" t="str">
+        <f t="shared" ref="M19" si="21">IF(ISERROR(M10/M14),"",FLOOR(M10/M14,1))</f>
         <v/>
       </c>
-      <c r="N19" s="105"/>
-      <c r="O19" s="165" t="str">
-        <f t="shared" ref="O19" si="21">IF(ISERROR(O10/O14),"",FLOOR(O10/O14,1))</f>
+      <c r="N19" s="46"/>
+      <c r="O19" s="65" t="str">
+        <f t="shared" ref="O19" si="22">IF(ISERROR(O10/O14),"",FLOOR(O10/O14,1))</f>
         <v/>
       </c>
-      <c r="P19" s="105"/>
+      <c r="P19" s="46"/>
     </row>
     <row r="20" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="42"/>
-      <c r="C20" s="130" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="166" t="str">
-        <f t="shared" si="13"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="66" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="166" t="str">
-        <f t="shared" si="13"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="66" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="H20" s="105"/>
-      <c r="I20" s="166" t="str">
-        <f t="shared" ref="I20" si="22">IF(ISERROR(I11/I15),"",FLOOR(I11/I15,1))</f>
+      <c r="H20" s="46"/>
+      <c r="I20" s="66" t="str">
+        <f t="shared" ref="I20" si="23">IF(ISERROR(I11/I15),"",FLOOR(I11/I15,1))</f>
         <v/>
       </c>
-      <c r="J20" s="105"/>
-      <c r="K20" s="166" t="str">
-        <f t="shared" ref="K20" si="23">IF(ISERROR(K11/K15),"",FLOOR(K11/K15,1))</f>
+      <c r="J20" s="46"/>
+      <c r="K20" s="66" t="str">
+        <f t="shared" ref="K20" si="24">IF(ISERROR(K11/K15),"",FLOOR(K11/K15,1))</f>
         <v/>
       </c>
-      <c r="L20" s="106"/>
-      <c r="M20" s="166" t="str">
-        <f t="shared" ref="M20" si="24">IF(ISERROR(M11/M15),"",FLOOR(M11/M15,1))</f>
+      <c r="L20" s="47"/>
+      <c r="M20" s="66" t="str">
+        <f t="shared" ref="M20" si="25">IF(ISERROR(M11/M15),"",FLOOR(M11/M15,1))</f>
         <v/>
       </c>
-      <c r="N20" s="105"/>
-      <c r="O20" s="166" t="str">
-        <f t="shared" ref="O20" si="25">IF(ISERROR(O11/O15),"",FLOOR(O11/O15,1))</f>
+      <c r="N20" s="46"/>
+      <c r="O20" s="66" t="str">
+        <f t="shared" ref="O20" si="26">IF(ISERROR(O11/O15),"",FLOOR(O11/O15,1))</f>
         <v/>
       </c>
-      <c r="P20" s="105"/>
+      <c r="P20" s="46"/>
     </row>
     <row r="21" spans="2:18" s="9" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="69"/>
-      <c r="C21" s="134" t="s">
+      <c r="B21" s="99"/>
+      <c r="C21" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="167" t="e">
+      <c r="D21" s="146"/>
+      <c r="E21" s="67" t="e">
         <f>AVERAGEIF(E17:E20,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="G21" s="167" t="e">
+      <c r="G21" s="67" t="e">
         <f>AVERAGEIF(G17:G20,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="17"/>
-      <c r="I21" s="167" t="e">
+      <c r="I21" s="67" t="e">
         <f>AVERAGEIF(I17:I20,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J21" s="17"/>
-      <c r="K21" s="167" t="e">
+      <c r="K21" s="67" t="e">
         <f>AVERAGEIF(K17:K20,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="17"/>
-      <c r="M21" s="167" t="e">
+      <c r="M21" s="67" t="e">
         <f>AVERAGEIF(M17:M20,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="25"/>
-      <c r="O21" s="167" t="e">
+      <c r="O21" s="67" t="e">
         <f>AVERAGEIF(O17:O20,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P21" s="162"/>
+      <c r="P21" s="62"/>
     </row>
     <row r="22" spans="2:18" s="9" customFormat="1" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="150" t="s">
+      <c r="B22" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="151"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="175"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="15" t="e">
         <f>E22/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="175"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="15" t="e">
         <f>G22/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="175"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="175">
+      <c r="I22" s="75"/>
+      <c r="J22" s="15" t="e">
+        <f>I22/I22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="75"/>
+      <c r="L22" s="15" t="e">
+        <f>K22/K22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="75">
         <f>I22+K22</f>
         <v>0</v>
       </c>
@@ -3111,7 +3139,7 @@
         <f>M22/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O22" s="175">
+      <c r="O22" s="75">
         <f>E22+G22+M22</f>
         <v>0</v>
       </c>
@@ -3121,69 +3149,81 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="177"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="18" t="e">
-        <f t="shared" ref="F23:H29" si="26">E23/E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="177"/>
+        <f t="shared" ref="F23:L29" si="27">E23/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="77"/>
       <c r="H23" s="18" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="177"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="177">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="77"/>
+      <c r="J23" s="18" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="77"/>
+      <c r="L23" s="18" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="77">
         <f>I23+K23</f>
         <v>0</v>
       </c>
       <c r="N23" s="27" t="e">
-        <f t="shared" ref="N23" si="27">M23/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="177">
+        <f t="shared" ref="N23" si="28">M23/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="77">
         <f>E23+G23+M23</f>
         <v>0</v>
       </c>
       <c r="P23" s="27" t="e">
-        <f t="shared" ref="P23" si="28">O23/O$22</f>
+        <f t="shared" ref="P23" si="29">O23/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="42"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="178"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="78"/>
       <c r="F24" s="19" t="e">
         <f>E24/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="178"/>
+      <c r="G24" s="78"/>
       <c r="H24" s="19" t="e">
         <f>G24/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="178"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="178">
-        <f t="shared" ref="M24:M26" si="29">I24+K24</f>
+      <c r="I24" s="78"/>
+      <c r="J24" s="19" t="e">
+        <f>I24/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="78"/>
+      <c r="L24" s="19" t="e">
+        <f>K24/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="78">
+        <f t="shared" ref="M24:M26" si="30">I24+K24</f>
         <v>0</v>
       </c>
       <c r="N24" s="28" t="e">
         <f>M24/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="178">
+      <c r="O24" s="78">
         <f>E24+G24+M24</f>
         <v>0</v>
       </c>
@@ -3193,67 +3233,79 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="42"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="178"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="78"/>
       <c r="F25" s="19" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="178"/>
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="78"/>
       <c r="H25" s="19" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="178"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="178">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="78"/>
+      <c r="J25" s="19" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="78"/>
+      <c r="L25" s="19" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="78">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N25" s="28" t="e">
-        <f t="shared" ref="N25" si="30">M25/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="178">
-        <f t="shared" ref="O24:O29" si="31">E25+G25+M25</f>
+        <f t="shared" ref="N25" si="31">M25/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="78">
+        <f t="shared" ref="O25:O29" si="32">E25+G25+M25</f>
         <v>0</v>
       </c>
       <c r="P25" s="28" t="e">
-        <f t="shared" ref="P25" si="32">O25/O$22</f>
+        <f t="shared" ref="P25" si="33">O25/O$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="42"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="178"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="78"/>
       <c r="F26" s="19" t="e">
         <f>E26/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="178"/>
+      <c r="G26" s="78"/>
       <c r="H26" s="19" t="e">
         <f>G26/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="178"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="178">
-        <f t="shared" si="29"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="19" t="e">
+        <f>I26/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="78"/>
+      <c r="L26" s="19" t="e">
+        <f>K26/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="78">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N26" s="28" t="e">
         <f>M26/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="178">
+      <c r="O26" s="78">
         <f>E26+G26+M26</f>
         <v>0</v>
       </c>
@@ -3263,12 +3315,12 @@
       </c>
     </row>
     <row r="27" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="72"/>
-      <c r="C27" s="115" t="s">
+      <c r="B27" s="136"/>
+      <c r="C27" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="179">
+      <c r="D27" s="142"/>
+      <c r="E27" s="79">
         <f>SUM(E23:E26)</f>
         <v>0</v>
       </c>
@@ -3276,7 +3328,7 @@
         <f>E27/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="179">
+      <c r="G27" s="79">
         <f>SUM(G23:G26)</f>
         <v>0</v>
       </c>
@@ -3284,17 +3336,23 @@
         <f>G27/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="179">
+      <c r="I27" s="79">
         <f>SUM(I23:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="179">
+      <c r="J27" s="20" t="e">
+        <f>I27/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="79">
         <f>SUM(K23:K26)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="179">
+      <c r="L27" s="20" t="e">
+        <f>K27/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="79">
         <f>SUM(M23:M26)</f>
         <v>0</v>
       </c>
@@ -3302,7 +3360,7 @@
         <f>M27/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="179">
+      <c r="O27" s="79">
         <f>SUM(O23:O26)</f>
         <v>0</v>
       </c>
@@ -3312,88 +3370,100 @@
       </c>
     </row>
     <row r="28" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="178"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="78"/>
       <c r="F28" s="19" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="178"/>
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="78"/>
       <c r="H28" s="19" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="178"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="178"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="178">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="78"/>
+      <c r="J28" s="19" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="78"/>
+      <c r="L28" s="19" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="78">
         <f>I28+K28</f>
         <v>0</v>
       </c>
       <c r="N28" s="28" t="e">
-        <f t="shared" ref="N28" si="33">M28/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="178">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="N28" si="34">M28/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="78">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P28" s="28" t="e">
-        <f t="shared" ref="P28" si="34">O28/O$22</f>
+        <f t="shared" ref="P28" si="35">O28/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
     </row>
     <row r="29" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="42"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="178"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="19" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="178"/>
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="78"/>
       <c r="H29" s="19" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="178"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="178">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="78"/>
+      <c r="J29" s="19" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="78"/>
+      <c r="L29" s="19" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="78">
         <f>I29+K29</f>
         <v>0</v>
       </c>
       <c r="N29" s="28" t="e">
-        <f t="shared" ref="N29" si="35">M29/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="178">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="N29" si="36">M29/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="78">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P29" s="28" t="e">
-        <f t="shared" ref="P29" si="36">O29/O$22</f>
+        <f t="shared" ref="P29" si="37">O29/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="2:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="69"/>
-      <c r="C30" s="117" t="s">
+      <c r="B30" s="99"/>
+      <c r="C30" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="180">
+      <c r="D30" s="165"/>
+      <c r="E30" s="80">
         <f>SUM(E28:E29)</f>
         <v>0</v>
       </c>
@@ -3401,7 +3471,7 @@
         <f>E30/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="180">
+      <c r="G30" s="80">
         <f>SUM(G28:G29)</f>
         <v>0</v>
       </c>
@@ -3409,17 +3479,23 @@
         <f>G30/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="180">
+      <c r="I30" s="80">
         <f>SUM(I28:I29)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="180">
+      <c r="J30" s="21" t="e">
+        <f>I30/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="80">
         <f>SUM(K28:K29)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="180">
+      <c r="L30" s="21" t="e">
+        <f>K30/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="80">
         <f>SUM(M28:M29)</f>
         <v>0</v>
       </c>
@@ -3427,7 +3503,7 @@
         <f>M30/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="180">
+      <c r="O30" s="80">
         <f>SUM(O28:O29)</f>
         <v>0</v>
       </c>
@@ -3439,12 +3515,12 @@
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="2:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="157"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="176">
+      <c r="C31" s="167"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="76">
         <f>E27+E30</f>
         <v>0</v>
       </c>
@@ -3452,7 +3528,7 @@
         <f>E31/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="176">
+      <c r="G31" s="76">
         <f>G27+G30</f>
         <v>0</v>
       </c>
@@ -3460,17 +3536,23 @@
         <f>G31/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="176">
+      <c r="I31" s="76">
         <f>I27+I30</f>
         <v>0</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="176">
+      <c r="J31" s="22" t="e">
+        <f>I31/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="76">
         <f>K30+K27</f>
         <v>0</v>
       </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="176">
+      <c r="L31" s="22" t="e">
+        <f>K31/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="76">
         <f>M30+M27</f>
         <v>0</v>
       </c>
@@ -3478,7 +3560,7 @@
         <f>M31/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="182">
+      <c r="O31" s="82">
         <f>O30+O27</f>
         <v>0</v>
       </c>
@@ -3491,25 +3573,31 @@
       <c r="B32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="183"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="83"/>
       <c r="F32" s="38" t="e">
         <f>E32/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="183"/>
+      <c r="G32" s="83"/>
       <c r="H32" s="38" t="e">
         <f>G32/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="183"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="183"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="183">
+      <c r="I32" s="83"/>
+      <c r="J32" s="38" t="e">
+        <f>I32/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="83"/>
+      <c r="L32" s="38" t="e">
+        <f>K32/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="83">
         <f>I32+K32</f>
         <v>0</v>
       </c>
@@ -3517,7 +3605,7 @@
         <f>M32/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="183">
+      <c r="O32" s="83">
         <f>E32+G32+M32</f>
         <v>0</v>
       </c>
@@ -3529,42 +3617,48 @@
       <c r="R32" s="11"/>
     </row>
     <row r="33" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="181" t="s">
+      <c r="D33" s="170"/>
+      <c r="E33" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="137" t="e">
+      <c r="F33" s="107" t="e">
         <f>SUM(E33:E35)/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="181"/>
-      <c r="H33" s="137" t="e">
+      <c r="G33" s="81"/>
+      <c r="H33" s="107" t="e">
         <f>SUM(G33:G35)/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="181"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="137"/>
-      <c r="M33" s="181">
-        <f t="shared" ref="M33:M64" si="37">I33+K33</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="137" t="e">
+      <c r="I33" s="81"/>
+      <c r="J33" s="107" t="e">
+        <f>SUM(I33:I35)/I22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="81"/>
+      <c r="L33" s="107" t="e">
+        <f>SUM(K33:K35)/K22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="81">
+        <f t="shared" ref="M33:M65" si="38">I33+K33</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="107" t="e">
         <f>SUM(M33:M35)/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O33" s="181">
+      <c r="O33" s="81">
         <f>SUM(E33,G33,M33)</f>
         <v>0</v>
       </c>
-      <c r="P33" s="137" t="e">
+      <c r="P33" s="107" t="e">
         <f>SUM(O33:O35)/O22</f>
         <v>#DIV/0!</v>
       </c>
@@ -3572,118 +3666,136 @@
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="42"/>
-      <c r="C34" s="64" t="s">
+      <c r="B34" s="98"/>
+      <c r="C34" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="138" t="e">
-        <f t="shared" ref="F34:H64" si="38">E34/E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="178"/>
-      <c r="H34" s="138" t="e">
+      <c r="D34" s="140"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="109" t="e">
+        <f t="shared" ref="F34:L65" si="39">E34/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="78"/>
+      <c r="H34" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="78"/>
+      <c r="J34" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="78"/>
+      <c r="L34" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="78">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="178"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="178">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="138" t="e">
-        <f t="shared" ref="N34" si="39">M34/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" s="178">
+        <v>0</v>
+      </c>
+      <c r="N34" s="109" t="e">
+        <f t="shared" ref="N34" si="40">M34/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="78">
         <f>E34+G34+M34</f>
         <v>0</v>
       </c>
-      <c r="P34" s="138" t="e">
-        <f t="shared" ref="P34" si="40">O34/O$22</f>
+      <c r="P34" s="109" t="e">
+        <f t="shared" ref="P34" si="41">O34/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="43"/>
-      <c r="C35" s="58" t="s">
+      <c r="B35" s="160"/>
+      <c r="C35" s="171" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="139" t="e">
+      <c r="D35" s="172"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="84"/>
+      <c r="H35" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="84"/>
+      <c r="J35" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="84"/>
+      <c r="L35" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="84">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="184"/>
-      <c r="H35" s="139" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="184"/>
-      <c r="J35" s="139"/>
-      <c r="K35" s="184"/>
-      <c r="L35" s="139"/>
-      <c r="M35" s="184">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="139" t="e">
-        <f t="shared" ref="N35" si="41">M35/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="184">
-        <f t="shared" ref="O33:O64" si="42">E35+G35+M35</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="139" t="e">
-        <f t="shared" ref="P35" si="43">O35/O$22</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="108" t="e">
+        <f t="shared" ref="N35" si="42">M35/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="84">
+        <f t="shared" ref="O35:O65" si="43">E35+G35+M35</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="108" t="e">
+        <f t="shared" ref="P35" si="44">O35/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
     </row>
     <row r="36" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="181"/>
-      <c r="F36" s="137" t="e">
+      <c r="D36" s="170"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="107" t="e">
         <f>SUM(E36:E39)/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="181"/>
-      <c r="H36" s="137" t="e">
+      <c r="G36" s="81"/>
+      <c r="H36" s="107" t="e">
         <f>SUM(G36:G39)/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="181"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="181"/>
-      <c r="L36" s="137"/>
-      <c r="M36" s="181">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="137" t="e">
+      <c r="I36" s="81"/>
+      <c r="J36" s="107" t="e">
+        <f>SUM(I36:I39)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="81"/>
+      <c r="L36" s="107" t="e">
+        <f>SUM(K36:K39)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="81">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="107" t="e">
         <f>SUM(M36:M39)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O36" s="181">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="137" t="e">
+      <c r="O36" s="81">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="107" t="e">
         <f>SUM(O36:O39)/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -3691,157 +3803,181 @@
       <c r="R36" s="11"/>
     </row>
     <row r="37" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="42"/>
-      <c r="C37" s="62" t="s">
+      <c r="B37" s="98"/>
+      <c r="C37" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="138" t="e">
+      <c r="D37" s="174"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="85"/>
+      <c r="H37" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="85"/>
+      <c r="J37" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="85"/>
+      <c r="L37" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="85">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="185"/>
-      <c r="H37" s="138" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="185"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="185"/>
-      <c r="L37" s="138"/>
-      <c r="M37" s="185">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="138" t="e">
-        <f t="shared" ref="N37" si="44">M37/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="178">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="138" t="e">
-        <f t="shared" ref="P37" si="45">O37/O$22</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="109" t="e">
+        <f t="shared" ref="N37" si="45">M37/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="78">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="109" t="e">
+        <f t="shared" ref="P37" si="46">O37/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
     </row>
     <row r="38" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="42"/>
-      <c r="C38" s="62" t="s">
+      <c r="B38" s="98"/>
+      <c r="C38" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="138" t="e">
+      <c r="D38" s="174"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="78"/>
+      <c r="H38" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="78"/>
+      <c r="J38" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="78"/>
+      <c r="L38" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="78">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="178"/>
-      <c r="H38" s="138" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="178"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="178"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="178">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="138" t="e">
-        <f t="shared" ref="N38" si="46">M38/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O38" s="178">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="138" t="e">
-        <f t="shared" ref="P38" si="47">O38/O$22</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="109" t="e">
+        <f t="shared" ref="N38" si="47">M38/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="78">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="109" t="e">
+        <f t="shared" ref="P38" si="48">O38/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
     </row>
     <row r="39" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="43"/>
-      <c r="C39" s="58" t="s">
+      <c r="B39" s="160"/>
+      <c r="C39" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="139" t="e">
+      <c r="D39" s="172"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="84"/>
+      <c r="H39" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="84"/>
+      <c r="J39" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="84"/>
+      <c r="L39" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="84">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="184"/>
-      <c r="H39" s="139" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="184"/>
-      <c r="J39" s="139"/>
-      <c r="K39" s="184"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="184">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="139" t="e">
-        <f t="shared" ref="N39" si="48">M39/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="184">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="139" t="e">
-        <f t="shared" ref="P39" si="49">O39/O$22</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="108" t="e">
+        <f t="shared" ref="N39" si="49">M39/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="84">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="108" t="e">
+        <f t="shared" ref="P39" si="50">O39/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
     </row>
     <row r="40" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="137" t="e">
+      <c r="D40" s="170"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="107" t="e">
         <f>SUM(E40:E42)/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="181"/>
-      <c r="H40" s="137" t="e">
+      <c r="G40" s="81"/>
+      <c r="H40" s="107" t="e">
         <f>SUM(G40:G42)/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="181"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="181"/>
-      <c r="L40" s="137"/>
-      <c r="M40" s="181">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="137" t="e">
+      <c r="I40" s="81"/>
+      <c r="J40" s="107" t="e">
+        <f>SUM(I40:I42)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="81"/>
+      <c r="L40" s="107" t="e">
+        <f>SUM(K40:K42)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="81">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="107" t="e">
         <f>SUM(M40:M42)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O40" s="181">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="137" t="e">
+      <c r="O40" s="81">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="107" t="e">
         <f>SUM(O40:O42)/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -3849,118 +3985,136 @@
       <c r="R40" s="11"/>
     </row>
     <row r="41" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="42"/>
-      <c r="C41" s="64" t="s">
+      <c r="B41" s="98"/>
+      <c r="C41" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="138" t="e">
+      <c r="D41" s="140"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="78"/>
+      <c r="H41" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="78"/>
+      <c r="J41" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="78"/>
+      <c r="L41" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="78">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="178"/>
-      <c r="H41" s="138" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="178"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="178"/>
-      <c r="L41" s="138"/>
-      <c r="M41" s="178">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="138" t="e">
-        <f t="shared" ref="N41" si="50">M41/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O41" s="178">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="138" t="e">
-        <f t="shared" ref="P41" si="51">O41/O$22</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="109" t="e">
+        <f t="shared" ref="N41" si="51">M41/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="78">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="109" t="e">
+        <f t="shared" ref="P41" si="52">O41/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
     </row>
     <row r="42" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="43"/>
-      <c r="C42" s="66" t="s">
+      <c r="B42" s="160"/>
+      <c r="C42" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="139" t="e">
+      <c r="D42" s="176"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="84"/>
+      <c r="H42" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="84"/>
+      <c r="J42" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="84"/>
+      <c r="L42" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="84">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="184"/>
-      <c r="H42" s="139" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="184"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="184"/>
-      <c r="L42" s="139"/>
-      <c r="M42" s="184">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="139" t="e">
-        <f t="shared" ref="N42" si="52">M42/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="184">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="139" t="e">
-        <f t="shared" ref="P42" si="53">O42/O$22</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="108" t="e">
+        <f t="shared" ref="N42" si="53">M42/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="84">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="108" t="e">
+        <f t="shared" ref="P42" si="54">O42/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="137" t="e">
+      <c r="D43" s="170"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="107" t="e">
         <f>SUM(E43:E44)/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="181"/>
-      <c r="H43" s="137" t="e">
+      <c r="G43" s="81"/>
+      <c r="H43" s="107" t="e">
         <f>SUM(G43:G44)/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="181"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="181"/>
-      <c r="L43" s="137"/>
-      <c r="M43" s="181">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="137" t="e">
+      <c r="I43" s="81"/>
+      <c r="J43" s="107" t="e">
+        <f>SUM(I43:I44)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="81"/>
+      <c r="L43" s="107" t="e">
+        <f>SUM(K43:K44)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="81">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="107" t="e">
         <f>SUM(M43:M44)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O43" s="181">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="137" t="e">
+      <c r="O43" s="81">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="107" t="e">
         <f>SUM(O43:O44)/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -3968,38 +4122,44 @@
       <c r="R43" s="11"/>
     </row>
     <row r="44" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="43"/>
-      <c r="C44" s="58" t="s">
+      <c r="B44" s="160"/>
+      <c r="C44" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="184"/>
-      <c r="F44" s="139" t="e">
+      <c r="D44" s="172"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="108" t="e">
         <f>E44/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="184"/>
-      <c r="H44" s="139" t="e">
+      <c r="G44" s="84"/>
+      <c r="H44" s="108" t="e">
         <f>G44/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="184"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="184"/>
-      <c r="L44" s="139"/>
-      <c r="M44" s="184">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="139" t="e">
+      <c r="I44" s="84"/>
+      <c r="J44" s="108" t="e">
+        <f>I44/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="84"/>
+      <c r="L44" s="108" t="e">
+        <f>K44/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" s="84">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="108" t="e">
         <f>M44/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O44" s="184">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="139" t="e">
+      <c r="O44" s="84">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="108" t="e">
         <f>O44/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4007,40 +4167,46 @@
       <c r="R44" s="11"/>
     </row>
     <row r="45" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="137" t="e">
+      <c r="D45" s="170"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="107" t="e">
         <f>SUM(E45:E46)/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="181"/>
-      <c r="H45" s="137" t="e">
+      <c r="G45" s="81"/>
+      <c r="H45" s="107" t="e">
         <f>SUM(G45:G46)/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I45" s="181"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="181"/>
-      <c r="L45" s="137"/>
-      <c r="M45" s="181">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="137" t="e">
+      <c r="I45" s="81"/>
+      <c r="J45" s="107" t="e">
+        <f>SUM(I45:I46)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" s="81"/>
+      <c r="L45" s="107" t="e">
+        <f>SUM(K45:K46)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="81">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="107" t="e">
         <f>SUM(M45:M46)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O45" s="181">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="137" t="e">
+      <c r="O45" s="81">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="107" t="e">
         <f>SUM(O45:O46)/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4048,38 +4214,44 @@
       <c r="R45" s="11"/>
     </row>
     <row r="46" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="43"/>
-      <c r="C46" s="58" t="s">
+      <c r="B46" s="160"/>
+      <c r="C46" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="139" t="e">
+      <c r="D46" s="172"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="108" t="e">
         <f>E46/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G46" s="184"/>
-      <c r="H46" s="139" t="e">
+      <c r="G46" s="84"/>
+      <c r="H46" s="108" t="e">
         <f>G46/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I46" s="184"/>
-      <c r="J46" s="139"/>
-      <c r="K46" s="184"/>
-      <c r="L46" s="139"/>
-      <c r="M46" s="184">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="139" t="e">
+      <c r="I46" s="84"/>
+      <c r="J46" s="108" t="e">
+        <f>I46/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="84"/>
+      <c r="L46" s="108" t="e">
+        <f>K46/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="84">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="108" t="e">
         <f>M46/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O46" s="184">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="139" t="e">
+      <c r="O46" s="84">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="108" t="e">
         <f>O46/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4090,34 +4262,40 @@
       <c r="B47" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="186"/>
+      <c r="D47" s="178"/>
+      <c r="E47" s="86"/>
       <c r="F47" s="36" t="e">
         <f>E47/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="186"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="36" t="e">
         <f>G47/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I47" s="186"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="186"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="186">
-        <f t="shared" si="37"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="36" t="e">
+        <f>I47/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" s="86"/>
+      <c r="L47" s="36" t="e">
+        <f>K47/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="86">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N47" s="36" t="e">
         <f>M47/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O47" s="186">
-        <f t="shared" si="42"/>
+      <c r="O47" s="86">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P47" s="36" t="e">
@@ -4128,40 +4306,46 @@
       <c r="R47" s="11"/>
     </row>
     <row r="48" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="137" t="e">
+      <c r="D48" s="180"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="107" t="e">
         <f>SUM(E48:E49)/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G48" s="193"/>
-      <c r="H48" s="137" t="e">
+      <c r="G48" s="91"/>
+      <c r="H48" s="107" t="e">
         <f>SUM(G48:G49)/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="193"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="193"/>
-      <c r="L48" s="137"/>
-      <c r="M48" s="193">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="137" t="e">
+      <c r="I48" s="91"/>
+      <c r="J48" s="107" t="e">
+        <f>SUM(I48:I49)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K48" s="91"/>
+      <c r="L48" s="107" t="e">
+        <f>SUM(K48:K49)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" s="91">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="107" t="e">
         <f>SUM(M48:M49)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O48" s="194">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="137" t="e">
+      <c r="O48" s="92">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="107" t="e">
         <f>SUM(O48:O49)/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4169,38 +4353,44 @@
       <c r="R48" s="11"/>
     </row>
     <row r="49" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="43"/>
-      <c r="C49" s="58" t="s">
+      <c r="B49" s="160"/>
+      <c r="C49" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="184"/>
-      <c r="F49" s="139" t="e">
+      <c r="D49" s="172"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="108" t="e">
         <f>E49/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G49" s="184"/>
-      <c r="H49" s="139" t="e">
+      <c r="G49" s="84"/>
+      <c r="H49" s="108" t="e">
         <f>G49/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I49" s="184"/>
-      <c r="J49" s="139"/>
-      <c r="K49" s="184"/>
-      <c r="L49" s="139"/>
-      <c r="M49" s="184">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="139" t="e">
+      <c r="I49" s="84"/>
+      <c r="J49" s="108" t="e">
+        <f>I49/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K49" s="84"/>
+      <c r="L49" s="108" t="e">
+        <f>K49/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" s="84">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="108" t="e">
         <f>M49/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O49" s="184">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="139" t="e">
+      <c r="O49" s="84">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="108" t="e">
         <f>O49/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4211,38 +4401,44 @@
       <c r="B50" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="195" t="s">
+      <c r="C50" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="197" t="e">
+      <c r="D50" s="104"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="94" t="e">
         <f>E50/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="196"/>
-      <c r="H50" s="197" t="e">
+      <c r="G50" s="93"/>
+      <c r="H50" s="94" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" s="93"/>
+      <c r="J50" s="94" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K50" s="93"/>
+      <c r="L50" s="94" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M50" s="93">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="196"/>
-      <c r="J50" s="197"/>
-      <c r="K50" s="196"/>
-      <c r="L50" s="197"/>
-      <c r="M50" s="196">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="197" t="e">
-        <f t="shared" ref="N50" si="54">M50/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O50" s="196">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="197" t="e">
-        <f t="shared" ref="P50" si="55">O50/O$22</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="94" t="e">
+        <f t="shared" ref="N50" si="55">M50/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O50" s="93">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="94" t="e">
+        <f t="shared" ref="P50" si="56">O50/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q50" s="11"/>
@@ -4252,37 +4448,43 @@
       <c r="B51" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="189" t="s">
+      <c r="C51" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="190"/>
-      <c r="E51" s="191"/>
-      <c r="F51" s="192" t="e">
+      <c r="D51" s="182"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="90" t="e">
         <f>E51/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="191"/>
-      <c r="H51" s="192" t="e">
+      <c r="G51" s="89"/>
+      <c r="H51" s="90" t="e">
         <f>G51/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I51" s="191"/>
-      <c r="J51" s="192"/>
-      <c r="K51" s="191"/>
-      <c r="L51" s="192"/>
-      <c r="M51" s="191">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="192" t="e">
+      <c r="I51" s="89"/>
+      <c r="J51" s="90" t="e">
+        <f>I51/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K51" s="89"/>
+      <c r="L51" s="90" t="e">
+        <f>K51/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M51" s="89">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="90" t="e">
         <f>M51/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O51" s="191">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="192" t="e">
+      <c r="O51" s="89">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="90" t="e">
         <f>O51/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4290,40 +4492,46 @@
       <c r="R51" s="11"/>
     </row>
     <row r="52" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="137" t="e">
+      <c r="D52" s="180"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="107" t="e">
         <f>SUM(E52:E56)/E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="181"/>
-      <c r="H52" s="137" t="e">
+      <c r="G52" s="81"/>
+      <c r="H52" s="107" t="e">
         <f>SUM(G52:G56)/G$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I52" s="181"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="181"/>
-      <c r="L52" s="137"/>
-      <c r="M52" s="181">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="137" t="e">
+      <c r="I52" s="81"/>
+      <c r="J52" s="107" t="e">
+        <f>SUM(I52:I56)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K52" s="81"/>
+      <c r="L52" s="107" t="e">
+        <f>SUM(K52:K56)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" s="81">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="107" t="e">
         <f>SUM(M52:M56)/M$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O52" s="181">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="137" t="e">
+      <c r="O52" s="81">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="107" t="e">
         <f>SUM(O52:O56)/O$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -4331,679 +4539,667 @@
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="42"/>
-      <c r="C53" s="48" t="s">
+      <c r="B53" s="98"/>
+      <c r="C53" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="138" t="e">
+      <c r="D53" s="106"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="78"/>
+      <c r="H53" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" s="78"/>
+      <c r="J53" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" s="78"/>
+      <c r="L53" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M53" s="78">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="178"/>
-      <c r="H53" s="138" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="178"/>
-      <c r="J53" s="138"/>
-      <c r="K53" s="178"/>
-      <c r="L53" s="138"/>
-      <c r="M53" s="178">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="138" t="e">
-        <f t="shared" ref="N53" si="56">M53/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" s="178">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="138" t="e">
-        <f t="shared" ref="P53" si="57">O53/O$22</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="109" t="e">
+        <f t="shared" ref="N53" si="57">M53/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" s="78">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="109" t="e">
+        <f t="shared" ref="P53" si="58">O53/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
     </row>
     <row r="54" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="42"/>
-      <c r="C54" s="48" t="s">
+      <c r="B54" s="98"/>
+      <c r="C54" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="138" t="e">
+      <c r="D54" s="106"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" s="78"/>
+      <c r="H54" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" s="78"/>
+      <c r="J54" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" s="78"/>
+      <c r="L54" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" s="78">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G54" s="178"/>
-      <c r="H54" s="138" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" s="178"/>
-      <c r="J54" s="138"/>
-      <c r="K54" s="178"/>
-      <c r="L54" s="138"/>
-      <c r="M54" s="178">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="138" t="e">
-        <f t="shared" ref="N54" si="58">M54/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O54" s="178">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="138" t="e">
-        <f t="shared" ref="P54" si="59">O54/O$22</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="109" t="e">
+        <f t="shared" ref="N54" si="59">M54/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O54" s="78">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="109" t="e">
+        <f t="shared" ref="P54" si="60">O54/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
     </row>
     <row r="55" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="42"/>
-      <c r="C55" s="48" t="s">
+      <c r="B55" s="98"/>
+      <c r="C55" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="138" t="e">
+      <c r="D55" s="106"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" s="78"/>
+      <c r="H55" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" s="78"/>
+      <c r="J55" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K55" s="78"/>
+      <c r="L55" s="109" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M55" s="78">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G55" s="178"/>
-      <c r="H55" s="138" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I55" s="178"/>
-      <c r="J55" s="138"/>
-      <c r="K55" s="178"/>
-      <c r="L55" s="138"/>
-      <c r="M55" s="178">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="138" t="e">
-        <f t="shared" ref="N55" si="60">M55/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O55" s="178">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="138" t="e">
-        <f t="shared" ref="P55" si="61">O55/O$22</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="109" t="e">
+        <f t="shared" ref="N55" si="61">M55/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O55" s="78">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="109" t="e">
+        <f t="shared" ref="P55" si="62">O55/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
     </row>
     <row r="56" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="43"/>
-      <c r="C56" s="50" t="s">
+      <c r="B56" s="160"/>
+      <c r="C56" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="184"/>
-      <c r="F56" s="139" t="e">
+      <c r="D56" s="184"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" s="84"/>
+      <c r="H56" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I56" s="84"/>
+      <c r="J56" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K56" s="84"/>
+      <c r="L56" s="108" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="84">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G56" s="184"/>
-      <c r="H56" s="139" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="184"/>
-      <c r="J56" s="139"/>
-      <c r="K56" s="184"/>
-      <c r="L56" s="139"/>
-      <c r="M56" s="184">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="139" t="e">
-        <f t="shared" ref="N56" si="62">M56/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O56" s="184">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="139" t="e">
-        <f t="shared" ref="P56" si="63">O56/O$22</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="108" t="e">
+        <f t="shared" ref="N56" si="63">M56/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" s="84">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="108" t="e">
+        <f t="shared" ref="P56" si="64">O56/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
     </row>
     <row r="57" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="198" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="53"/>
-      <c r="E57" s="181"/>
-      <c r="F57" s="137" t="e">
-        <f>SUM(E57:E64)/E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G57" s="181"/>
-      <c r="H57" s="137" t="e">
-        <f>SUM(G57:G64)/G$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" s="181"/>
-      <c r="J57" s="137"/>
-      <c r="K57" s="181"/>
-      <c r="L57" s="137"/>
-      <c r="M57" s="181">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="137" t="e">
-        <f>SUM(M57:M64)/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O57" s="181">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="137" t="e">
-        <f>SUM(O57:O64)/O$22</f>
+      <c r="C57" s="179" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="180"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="201" t="e">
+        <f>SUM(E57:E65)/E$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G57" s="81"/>
+      <c r="H57" s="201" t="e">
+        <f>SUM(G57:G65)/G$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I57" s="81"/>
+      <c r="J57" s="201" t="e">
+        <f>SUM(I57:I65)/I$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K57" s="81"/>
+      <c r="L57" s="201" t="e">
+        <f>SUM(K57:K65)/K$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" s="81"/>
+      <c r="N57" s="201" t="e">
+        <f>SUM(M57:M65)/M$22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O57" s="81"/>
+      <c r="P57" s="201" t="e">
+        <f>SUM(O57:O65)/O$22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
     </row>
     <row r="58" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="42"/>
-      <c r="C58" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="177"/>
-      <c r="F58" s="138"/>
-      <c r="G58" s="177"/>
-      <c r="H58" s="138"/>
-      <c r="I58" s="177"/>
-      <c r="J58" s="138"/>
-      <c r="K58" s="177"/>
-      <c r="L58" s="138"/>
-      <c r="M58" s="177">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="138"/>
-      <c r="O58" s="177">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="138"/>
+      <c r="B58" s="199"/>
+      <c r="C58" s="196" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="197"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="202"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="202"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="202"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="202"/>
+      <c r="M58" s="77">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="202"/>
+      <c r="O58" s="77">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="202"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
     </row>
     <row r="59" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="42"/>
-      <c r="C59" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="47"/>
-      <c r="E59" s="178"/>
-      <c r="F59" s="138" t="e">
+      <c r="B59" s="199"/>
+      <c r="C59" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="106"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="202"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="202"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="202"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="202"/>
+      <c r="M59" s="77">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G59" s="178"/>
-      <c r="H59" s="138" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59" s="178"/>
-      <c r="J59" s="138"/>
-      <c r="K59" s="178"/>
-      <c r="L59" s="138"/>
-      <c r="M59" s="178">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="138" t="e">
-        <f t="shared" ref="N59" si="64">M59/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O59" s="178">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="138" t="e">
-        <f t="shared" ref="P59" si="65">O59/O$22</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N59" s="202"/>
+      <c r="O59" s="77">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="202"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
     </row>
     <row r="60" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="42"/>
-      <c r="C60" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="178"/>
-      <c r="F60" s="138" t="e">
+      <c r="B60" s="199"/>
+      <c r="C60" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="163"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="202"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="202"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="202"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="202"/>
+      <c r="M60" s="78">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G60" s="178"/>
-      <c r="H60" s="138" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" s="178"/>
-      <c r="J60" s="138"/>
-      <c r="K60" s="178"/>
-      <c r="L60" s="138"/>
-      <c r="M60" s="178">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N60" s="138" t="e">
-        <f t="shared" ref="N60" si="66">M60/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O60" s="178">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="138" t="e">
-        <f t="shared" ref="P60" si="67">O60/O$22</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N60" s="202"/>
+      <c r="O60" s="78">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="202"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
     </row>
     <row r="61" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="42"/>
-      <c r="C61" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="47"/>
-      <c r="E61" s="178"/>
-      <c r="F61" s="138" t="e">
+      <c r="B61" s="199"/>
+      <c r="C61" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="106"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="202"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="202"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="202"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="202"/>
+      <c r="M61" s="78">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G61" s="178"/>
-      <c r="H61" s="138" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I61" s="178"/>
-      <c r="J61" s="138"/>
-      <c r="K61" s="178"/>
-      <c r="L61" s="138"/>
-      <c r="M61" s="178">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N61" s="138" t="e">
-        <f t="shared" ref="N61" si="68">M61/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O61" s="178">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="138" t="e">
-        <f t="shared" ref="P61" si="69">O61/O$22</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N61" s="202"/>
+      <c r="O61" s="78">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="202"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
     </row>
     <row r="62" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="42"/>
-      <c r="C62" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="178"/>
-      <c r="F62" s="138" t="e">
+      <c r="B62" s="199"/>
+      <c r="C62" s="162" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="163"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="202"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="202"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="202"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="202"/>
+      <c r="M62" s="78">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G62" s="178"/>
-      <c r="H62" s="138" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I62" s="178"/>
-      <c r="J62" s="138"/>
-      <c r="K62" s="178"/>
-      <c r="L62" s="138"/>
-      <c r="M62" s="178">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="138" t="e">
-        <f t="shared" ref="N62" si="70">M62/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O62" s="178">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="138" t="e">
-        <f t="shared" ref="P62" si="71">O62/O$22</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N62" s="202"/>
+      <c r="O62" s="78">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="202"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
     </row>
     <row r="63" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="42"/>
-      <c r="C63" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="178"/>
-      <c r="F63" s="138" t="e">
+      <c r="B63" s="199"/>
+      <c r="C63" s="162" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="163"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="202"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="202"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="202"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="202"/>
+      <c r="M63" s="78">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G63" s="178"/>
-      <c r="H63" s="138" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I63" s="178"/>
-      <c r="J63" s="138"/>
-      <c r="K63" s="178"/>
-      <c r="L63" s="138"/>
-      <c r="M63" s="178">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N63" s="138" t="e">
-        <f t="shared" ref="N63" si="72">M63/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O63" s="178">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="138" t="e">
-        <f t="shared" ref="P63" si="73">O63/O$22</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N63" s="202"/>
+      <c r="O63" s="78">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="202"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
     </row>
-    <row r="64" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="43"/>
-      <c r="C64" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="55"/>
-      <c r="E64" s="184"/>
-      <c r="F64" s="139" t="e">
+    <row r="64" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="199"/>
+      <c r="C64" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="106"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="202"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="202"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="202"/>
+      <c r="K64" s="78"/>
+      <c r="L64" s="202"/>
+      <c r="M64" s="78">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G64" s="184"/>
-      <c r="H64" s="139" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="184"/>
-      <c r="J64" s="139"/>
-      <c r="K64" s="184"/>
-      <c r="L64" s="139"/>
-      <c r="M64" s="184">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="139" t="e">
-        <f t="shared" ref="N64" si="74">M64/M$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O64" s="184">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="139" t="e">
-        <f t="shared" ref="P64" si="75">O64/O$22</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N64" s="202"/>
+      <c r="O64" s="78">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="202"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
     </row>
-    <row r="65" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="140" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="141"/>
-      <c r="D65" s="142"/>
-      <c r="E65" s="187">
-        <f>SUM(E32:E64)</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="31" t="e">
-        <f>E65/E22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G65" s="187">
-        <f>SUM(G32:G64)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="31" t="e">
-        <f>G65/G22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I65" s="187">
-        <f>SUM(I32:I64)</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="31"/>
-      <c r="K65" s="187">
-        <f>SUM(K32:K64)</f>
-        <v>0</v>
-      </c>
-      <c r="L65" s="31"/>
-      <c r="M65" s="187">
-        <f>SUM(M32:M64)</f>
-        <v>0</v>
-      </c>
-      <c r="N65" s="31" t="e">
-        <f>M65/M22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O65" s="187">
-        <f>SUM(O32:O64)</f>
-        <v>0</v>
-      </c>
-      <c r="P65" s="31" t="e">
-        <f>O65/O22</f>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="65" spans="2:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="200"/>
+      <c r="C65" s="185" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="186"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="203"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="203"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="203"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="203"/>
+      <c r="M65" s="84">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="203"/>
+      <c r="O65" s="84">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="203"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
     </row>
-    <row r="66" spans="2:18" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="144"/>
-      <c r="D66" s="145"/>
-      <c r="E66" s="188">
-        <f>E65+E31</f>
-        <v>0</v>
-      </c>
-      <c r="F66" s="32" t="e">
+    <row r="66" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="187" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="188"/>
+      <c r="D66" s="189"/>
+      <c r="E66" s="87">
+        <f>SUM(E32:E65)</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="31" t="e">
         <f>E66/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G66" s="188">
-        <f>G65+G31</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="32" t="e">
+      <c r="G66" s="87">
+        <f>SUM(G32:G65)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="31" t="e">
         <f>G66/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I66" s="188">
-        <f>I65+I31</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="32"/>
-      <c r="K66" s="188">
-        <f>K65+K30+K27</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="32"/>
-      <c r="M66" s="188">
-        <f>M65+M31</f>
-        <v>0</v>
-      </c>
-      <c r="N66" s="32" t="e">
+      <c r="I66" s="87">
+        <f>SUM(I32:I65)</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="31" t="e">
+        <f>I66/I22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K66" s="87">
+        <f>SUM(K32:K65)</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="31" t="e">
+        <f>K66/K22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M66" s="87">
+        <f>SUM(M32:M65)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="31" t="e">
         <f>M66/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O66" s="188">
-        <f>O65+O31</f>
-        <v>0</v>
-      </c>
-      <c r="P66" s="32" t="e">
+      <c r="O66" s="87">
+        <f>SUM(O32:O65)</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="31" t="e">
         <f>O66/O22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
     </row>
-    <row r="67" spans="2:18" ht="23" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="159" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="160"/>
-      <c r="D67" s="161"/>
-      <c r="E67" s="175">
-        <f>E22-E66</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="24" t="e">
+    <row r="67" spans="2:18" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="191"/>
+      <c r="D67" s="192"/>
+      <c r="E67" s="88">
+        <f>E66+E31</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="32" t="e">
         <f>E67/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G67" s="175">
-        <f>G22-G66</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="24" t="e">
+      <c r="G67" s="88">
+        <f>G66+G31</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="32" t="e">
         <f>G67/G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I67" s="175">
-        <f>I22-I66</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="24"/>
-      <c r="K67" s="175">
-        <f>K22-K66</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="24"/>
-      <c r="M67" s="175">
-        <f>M22-M66</f>
-        <v>0</v>
-      </c>
-      <c r="N67" s="24" t="e">
+      <c r="I67" s="88">
+        <f>I66+I31</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="32" t="e">
+        <f>I67/I22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K67" s="88">
+        <f>K66+K30+K27</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="32" t="e">
+        <f>K67/K22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M67" s="88">
+        <f>M66+M31</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="32" t="e">
         <f>M67/M22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O67" s="175">
-        <f>O22-O66</f>
-        <v>0</v>
-      </c>
-      <c r="P67" s="24" t="e">
+      <c r="O67" s="88">
+        <f>O66+O31</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="32" t="e">
         <f>O67/O22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
     </row>
-    <row r="68" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="2:18" ht="23" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="193" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="194"/>
+      <c r="D68" s="195"/>
+      <c r="E68" s="75">
+        <f>E22-E67</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="24" t="e">
+        <f>E68/E22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G68" s="75">
+        <f>G22-G67</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="24" t="e">
+        <f>G68/G22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I68" s="75">
+        <f>I22-I67</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="24" t="e">
+        <f>I68/I22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K68" s="75">
+        <f>K22-K67</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="24" t="e">
+        <f>K68/K22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M68" s="75">
+        <f>M22-M67</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="24" t="e">
+        <f>M68/M22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O68" s="75">
+        <f>O22-O67</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="24" t="e">
+        <f>O68/O22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+    </row>
+    <row r="69" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="135">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C50:D50"/>
+  <mergeCells count="136">
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="P57:P65"/>
+    <mergeCell ref="N57:N65"/>
+    <mergeCell ref="L57:L65"/>
+    <mergeCell ref="J57:J65"/>
+    <mergeCell ref="H57:H65"/>
+    <mergeCell ref="F57:F65"/>
     <mergeCell ref="C58:D58"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="N52:N56"/>
-    <mergeCell ref="N57:N64"/>
-    <mergeCell ref="P33:P35"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="P40:P42"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="P52:P56"/>
-    <mergeCell ref="P57:P64"/>
-    <mergeCell ref="N33:N35"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="N40:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="L33:L35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="L52:L56"/>
-    <mergeCell ref="L57:L64"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H52:H56"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J52:J56"/>
-    <mergeCell ref="J57:J64"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="F52:F56"/>
-    <mergeCell ref="F57:F64"/>
     <mergeCell ref="H33:H35"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:J2"/>
@@ -5026,6 +5222,20 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -5036,49 +5246,45 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L52:L56"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="N52:N56"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="P40:P42"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="P52:P56"/>
+    <mergeCell ref="N33:N35"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="N40:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="L40:L42"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/app/webroot/excel/profit-and-loss.xlsx
+++ b/app/webroot/excel/profit-and-loss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazukikawabata/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6AF4DA-413E-764A-B1AC-F9E50F880EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F261673-E86A-A34F-8736-C5E597CA0106}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3400" yWindow="500" windowWidth="22360" windowHeight="17500" xr2:uid="{4361E66B-0828-774B-9F35-0B8B8AB46885}"/>
   </bookViews>
@@ -2281,12 +2281,6 @@
     <xf numFmtId="176" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2377,16 +2371,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2410,6 +2404,15 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2422,6 +2425,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2529,15 +2538,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2861,7 +2861,7 @@
   <dimension ref="B1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2885,59 +2885,59 @@
   <sheetData>
     <row r="1" spans="2:14" ht="6" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:14" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="182"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="159" t="s">
+      <c r="E2" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="M2" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="160"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="M2" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="163"/>
     </row>
     <row r="3" spans="2:14" ht="6" customHeight="1" thickBot="1">
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:14" ht="30" customHeight="1" thickBot="1">
       <c r="B4" s="6"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="163" t="s">
+      <c r="C4" s="164"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="165" t="s">
+      <c r="F4" s="167"/>
+      <c r="G4" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="166"/>
-      <c r="I4" s="165" t="s">
+      <c r="H4" s="169"/>
+      <c r="I4" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="166"/>
-      <c r="K4" s="167" t="s">
+      <c r="J4" s="169"/>
+      <c r="K4" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="168"/>
-      <c r="M4" s="163" t="s">
+      <c r="L4" s="171"/>
+      <c r="M4" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="169"/>
+      <c r="N4" s="172"/>
     </row>
     <row r="5" spans="2:14" s="7" customFormat="1" ht="28" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="179"/>
+      <c r="D5" s="182"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13" t="e">
         <f>E5/E5</f>
@@ -2968,13 +2968,13 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="16" customHeight="1" thickTop="1">
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="113"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="e">
         <f>E6/E$5</f>
@@ -3005,11 +3005,11 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="16" customHeight="1" thickBot="1">
-      <c r="B7" s="151"/>
-      <c r="C7" s="180" t="s">
+      <c r="B7" s="154"/>
+      <c r="C7" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="181"/>
+      <c r="D7" s="184"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21" t="e">
         <f t="shared" ref="F7" si="5">E7/E$5</f>
@@ -3040,13 +3040,13 @@
       </c>
     </row>
     <row r="8" spans="2:14" s="7" customFormat="1" ht="16" customHeight="1">
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="172"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="24"/>
       <c r="F8" s="25"/>
       <c r="G8" s="24"/>
@@ -3062,11 +3062,11 @@
       <c r="N8" s="28"/>
     </row>
     <row r="9" spans="2:14" s="7" customFormat="1" ht="16" customHeight="1">
-      <c r="B9" s="151"/>
-      <c r="C9" s="173" t="s">
+      <c r="B9" s="154"/>
+      <c r="C9" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="174"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="29"/>
       <c r="F9" s="30"/>
       <c r="G9" s="29"/>
@@ -3082,11 +3082,11 @@
       <c r="N9" s="32"/>
     </row>
     <row r="10" spans="2:14" s="7" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B10" s="170"/>
-      <c r="C10" s="175" t="s">
+      <c r="B10" s="173"/>
+      <c r="C10" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="176"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="33">
         <f>SUM(E8:E9)</f>
         <v>0</v>
@@ -3114,13 +3114,13 @@
       <c r="N10" s="36"/>
     </row>
     <row r="11" spans="2:14" s="7" customFormat="1" ht="16" customHeight="1">
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="154"/>
+      <c r="D11" s="157"/>
       <c r="E11" s="37" t="str">
         <f>IF(ISERROR(E6/E8),"",FLOOR(E6/E8,1))</f>
         <v/>
@@ -3148,11 +3148,11 @@
       <c r="N11" s="41"/>
     </row>
     <row r="12" spans="2:14" s="7" customFormat="1" ht="16" customHeight="1">
-      <c r="B12" s="151"/>
-      <c r="C12" s="155" t="s">
+      <c r="B12" s="154"/>
+      <c r="C12" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="156"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="42" t="str">
         <f>IF(ISERROR(E7/E9),"",FLOOR(E7/E9,1))</f>
         <v/>
@@ -3180,11 +3180,11 @@
       <c r="N12" s="47"/>
     </row>
     <row r="13" spans="2:14" s="7" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B13" s="152"/>
-      <c r="C13" s="157" t="s">
+      <c r="B13" s="155"/>
+      <c r="C13" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="161"/>
       <c r="E13" s="33" t="e">
         <f>E5/E10</f>
         <v>#DIV/0!</v>
@@ -3212,13 +3212,13 @@
       <c r="N13" s="48"/>
     </row>
     <row r="14" spans="2:14" s="7" customFormat="1" ht="28" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="146"/>
+      <c r="D14" s="147"/>
       <c r="E14" s="49"/>
       <c r="F14" s="50" t="e">
         <f>E14/E14</f>
@@ -3249,13 +3249,13 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="14" customHeight="1" thickTop="1">
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="102"/>
+      <c r="D15" s="150"/>
       <c r="E15" s="26"/>
       <c r="F15" s="52" t="e">
         <f>E15/E$14</f>
@@ -3286,11 +3286,11 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="14" customHeight="1">
-      <c r="B16" s="140"/>
-      <c r="C16" s="105" t="s">
+      <c r="B16" s="138"/>
+      <c r="C16" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="106"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="54"/>
       <c r="F16" s="55" t="e">
         <f t="shared" ref="F16:F26" si="10">E16/E$14</f>
@@ -3321,11 +3321,11 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="14" customHeight="1">
-      <c r="B17" s="140"/>
-      <c r="C17" s="105" t="s">
+      <c r="B17" s="138"/>
+      <c r="C17" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="106"/>
+      <c r="D17" s="104"/>
       <c r="E17" s="54"/>
       <c r="F17" s="55" t="e">
         <f t="shared" si="10"/>
@@ -3356,11 +3356,11 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="14" customHeight="1">
-      <c r="B18" s="140"/>
-      <c r="C18" s="105" t="s">
+      <c r="B18" s="138"/>
+      <c r="C18" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="106"/>
+      <c r="D18" s="104"/>
       <c r="E18" s="54"/>
       <c r="F18" s="55" t="e">
         <f t="shared" si="10"/>
@@ -3391,11 +3391,11 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="14" customHeight="1">
-      <c r="B19" s="140"/>
-      <c r="C19" s="103" t="s">
+      <c r="B19" s="138"/>
+      <c r="C19" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="104"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="54"/>
       <c r="F19" s="55" t="e">
         <f>E19/E$14</f>
@@ -3417,6 +3417,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M19" s="54">
+        <f>E19+G19+I19+K19</f>
         <v>0</v>
       </c>
       <c r="N19" s="56" t="e">
@@ -3425,11 +3426,11 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="14" customHeight="1">
-      <c r="B20" s="147"/>
-      <c r="C20" s="148" t="s">
+      <c r="B20" s="148"/>
+      <c r="C20" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="149"/>
+      <c r="D20" s="152"/>
       <c r="E20" s="57">
         <f>SUM(E15:E19)</f>
         <v>0</v>
@@ -3472,13 +3473,13 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="14" customHeight="1">
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="106"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="54"/>
       <c r="F21" s="55" t="e">
         <f t="shared" si="10"/>
@@ -3500,7 +3501,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="54">
-        <f t="shared" ref="M21:M64" si="14">E21+G21+I21+K21</f>
+        <f>E21+G21+I21+K21</f>
         <v>0</v>
       </c>
       <c r="N21" s="56" t="e">
@@ -3509,11 +3510,11 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="14" customHeight="1">
-      <c r="B22" s="140"/>
-      <c r="C22" s="105" t="s">
+      <c r="B22" s="138"/>
+      <c r="C22" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="106"/>
+      <c r="D22" s="104"/>
       <c r="E22" s="54"/>
       <c r="F22" s="55" t="e">
         <f t="shared" si="10"/>
@@ -3535,7 +3536,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="M21:M64" si="14">E22+G22+I22+K22</f>
         <v>0</v>
       </c>
       <c r="N22" s="56" t="e">
@@ -3544,11 +3545,11 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="14" customHeight="1">
-      <c r="B23" s="140"/>
-      <c r="C23" s="103" t="s">
+      <c r="B23" s="138"/>
+      <c r="C23" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="104"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="61"/>
       <c r="F23" s="55" t="e">
         <f t="shared" si="10"/>
@@ -3579,12 +3580,15 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="14" customHeight="1" thickBot="1">
-      <c r="B24" s="141"/>
-      <c r="C24" s="142" t="s">
+      <c r="B24" s="139"/>
+      <c r="C24" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="143"/>
-      <c r="E24" s="62"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="62">
+        <f>SUM(E21:E23)</f>
+        <v>0</v>
+      </c>
       <c r="F24" s="63" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -3614,7 +3618,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="62">
-        <f t="shared" si="14"/>
+        <f>E24+G24+I24+K24</f>
         <v>0</v>
       </c>
       <c r="N24" s="65" t="e">
@@ -3623,11 +3627,11 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="184" t="s">
+      <c r="B25" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="186"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="144"/>
       <c r="E25" s="66">
         <f>E20+E24</f>
         <v>0</v>
@@ -3661,7 +3665,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="69">
-        <f t="shared" si="14"/>
+        <f>E25+G25+I25+K25</f>
         <v>0</v>
       </c>
       <c r="N25" s="70" t="e">
@@ -3673,10 +3677,10 @@
       <c r="B26" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="137" t="s">
+      <c r="C26" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="138"/>
+      <c r="D26" s="136"/>
       <c r="E26" s="71"/>
       <c r="F26" s="72" t="e">
         <f t="shared" si="10"/>
@@ -3707,30 +3711,30 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="14" customHeight="1">
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="135" t="s">
+      <c r="C27" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="136"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="74"/>
-      <c r="F27" s="114" t="e">
+      <c r="F27" s="112" t="e">
         <f>SUM(E27:E29)/E14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="74"/>
-      <c r="H27" s="114" t="e">
+      <c r="H27" s="112" t="e">
         <f>SUM(G27:G29)/G14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="74"/>
-      <c r="J27" s="114" t="e">
+      <c r="J27" s="112" t="e">
         <f>SUM(I27:I29)/I14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="74"/>
-      <c r="L27" s="114" t="e">
+      <c r="L27" s="112" t="e">
         <f>SUM(K27:K29)/K14</f>
         <v>#DIV/0!</v>
       </c>
@@ -3744,19 +3748,19 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="14" customHeight="1">
-      <c r="B28" s="110"/>
-      <c r="C28" s="105" t="s">
+      <c r="B28" s="108"/>
+      <c r="C28" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="106"/>
+      <c r="D28" s="104"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="115"/>
+      <c r="F28" s="113"/>
       <c r="G28" s="54"/>
-      <c r="H28" s="115"/>
+      <c r="H28" s="113"/>
       <c r="I28" s="54"/>
-      <c r="J28" s="115"/>
+      <c r="J28" s="113"/>
       <c r="K28" s="54"/>
-      <c r="L28" s="115"/>
+      <c r="L28" s="113"/>
       <c r="M28" s="54">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -3764,50 +3768,50 @@
       <c r="N28" s="99"/>
     </row>
     <row r="29" spans="2:14" ht="14" customHeight="1" thickBot="1">
-      <c r="B29" s="120"/>
-      <c r="C29" s="122" t="s">
+      <c r="B29" s="118"/>
+      <c r="C29" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="123"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="75"/>
-      <c r="F29" s="121"/>
+      <c r="F29" s="119"/>
       <c r="G29" s="75"/>
-      <c r="H29" s="121"/>
+      <c r="H29" s="119"/>
       <c r="I29" s="75"/>
-      <c r="J29" s="121"/>
+      <c r="J29" s="119"/>
       <c r="K29" s="75"/>
-      <c r="L29" s="121"/>
+      <c r="L29" s="119"/>
       <c r="M29" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N29" s="117"/>
+      <c r="N29" s="115"/>
     </row>
     <row r="30" spans="2:14" ht="14" customHeight="1">
-      <c r="B30" s="109" t="s">
+      <c r="B30" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="135" t="s">
+      <c r="C30" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="136"/>
+      <c r="D30" s="132"/>
       <c r="E30" s="74"/>
-      <c r="F30" s="114" t="e">
+      <c r="F30" s="112" t="e">
         <f>SUM(E30:E33)/E$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="74"/>
-      <c r="H30" s="114" t="e">
+      <c r="H30" s="112" t="e">
         <f>SUM(G30:G33)/G$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="74"/>
-      <c r="J30" s="114" t="e">
+      <c r="J30" s="112" t="e">
         <f>SUM(I30:I33)/I$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="74"/>
-      <c r="L30" s="114" t="e">
+      <c r="L30" s="112" t="e">
         <f>SUM(K30:K33)/K$14</f>
         <v>#DIV/0!</v>
       </c>
@@ -3821,19 +3825,19 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="14" customHeight="1">
-      <c r="B31" s="110"/>
-      <c r="C31" s="103" t="s">
+      <c r="B31" s="108"/>
+      <c r="C31" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="104"/>
+      <c r="D31" s="102"/>
       <c r="E31" s="61"/>
-      <c r="F31" s="115"/>
+      <c r="F31" s="113"/>
       <c r="G31" s="61"/>
-      <c r="H31" s="115"/>
+      <c r="H31" s="113"/>
       <c r="I31" s="61"/>
-      <c r="J31" s="115"/>
+      <c r="J31" s="113"/>
       <c r="K31" s="61"/>
-      <c r="L31" s="115"/>
+      <c r="L31" s="113"/>
       <c r="M31" s="54">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -3841,19 +3845,19 @@
       <c r="N31" s="99"/>
     </row>
     <row r="32" spans="2:14" ht="14" customHeight="1">
-      <c r="B32" s="110"/>
-      <c r="C32" s="103" t="s">
+      <c r="B32" s="108"/>
+      <c r="C32" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="104"/>
+      <c r="D32" s="102"/>
       <c r="E32" s="61"/>
-      <c r="F32" s="115"/>
+      <c r="F32" s="113"/>
       <c r="G32" s="54"/>
-      <c r="H32" s="115"/>
+      <c r="H32" s="113"/>
       <c r="I32" s="54"/>
-      <c r="J32" s="115"/>
+      <c r="J32" s="113"/>
       <c r="K32" s="54"/>
-      <c r="L32" s="115"/>
+      <c r="L32" s="113"/>
       <c r="M32" s="54">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -3861,50 +3865,50 @@
       <c r="N32" s="99"/>
     </row>
     <row r="33" spans="2:14" ht="14" customHeight="1" thickBot="1">
-      <c r="B33" s="120"/>
-      <c r="C33" s="122" t="s">
+      <c r="B33" s="118"/>
+      <c r="C33" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="123"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="75"/>
-      <c r="F33" s="121"/>
+      <c r="F33" s="119"/>
       <c r="G33" s="75"/>
-      <c r="H33" s="121"/>
+      <c r="H33" s="119"/>
       <c r="I33" s="75"/>
-      <c r="J33" s="121"/>
+      <c r="J33" s="119"/>
       <c r="K33" s="75"/>
-      <c r="L33" s="121"/>
+      <c r="L33" s="119"/>
       <c r="M33" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N33" s="117"/>
+      <c r="N33" s="115"/>
     </row>
     <row r="34" spans="2:14" ht="14" customHeight="1">
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="135" t="s">
+      <c r="C34" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="136"/>
+      <c r="D34" s="132"/>
       <c r="E34" s="74"/>
-      <c r="F34" s="114" t="e">
+      <c r="F34" s="112" t="e">
         <f>SUM(E34:E36)/E$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="74"/>
-      <c r="H34" s="114" t="e">
+      <c r="H34" s="112" t="e">
         <f>SUM(G34:G36)/G$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="74"/>
-      <c r="J34" s="114" t="e">
+      <c r="J34" s="112" t="e">
         <f>SUM(I34:I36)/I$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="74"/>
-      <c r="L34" s="114" t="e">
+      <c r="L34" s="112" t="e">
         <f>SUM(K34:K36)/K$14</f>
         <v>#DIV/0!</v>
       </c>
@@ -3918,19 +3922,19 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="14" customHeight="1">
-      <c r="B35" s="110"/>
-      <c r="C35" s="105" t="s">
+      <c r="B35" s="108"/>
+      <c r="C35" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="106"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="54"/>
-      <c r="F35" s="115"/>
+      <c r="F35" s="113"/>
       <c r="G35" s="54"/>
-      <c r="H35" s="115"/>
+      <c r="H35" s="113"/>
       <c r="I35" s="54"/>
-      <c r="J35" s="115"/>
+      <c r="J35" s="113"/>
       <c r="K35" s="54"/>
-      <c r="L35" s="115"/>
+      <c r="L35" s="113"/>
       <c r="M35" s="54">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -3938,50 +3942,50 @@
       <c r="N35" s="99"/>
     </row>
     <row r="36" spans="2:14" ht="14" customHeight="1" thickBot="1">
-      <c r="B36" s="120"/>
+      <c r="B36" s="118"/>
       <c r="C36" s="133" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="134"/>
       <c r="E36" s="75"/>
-      <c r="F36" s="121"/>
+      <c r="F36" s="119"/>
       <c r="G36" s="75"/>
-      <c r="H36" s="121"/>
+      <c r="H36" s="119"/>
       <c r="I36" s="75"/>
-      <c r="J36" s="121"/>
+      <c r="J36" s="119"/>
       <c r="K36" s="75"/>
-      <c r="L36" s="121"/>
+      <c r="L36" s="119"/>
       <c r="M36" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N36" s="117"/>
+      <c r="N36" s="115"/>
     </row>
     <row r="37" spans="2:14" ht="14" customHeight="1">
-      <c r="B37" s="109" t="s">
+      <c r="B37" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="135" t="s">
+      <c r="C37" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="136"/>
+      <c r="D37" s="132"/>
       <c r="E37" s="74"/>
-      <c r="F37" s="114" t="e">
+      <c r="F37" s="112" t="e">
         <f>SUM(E37:E38)/E$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G37" s="74"/>
-      <c r="H37" s="114" t="e">
+      <c r="H37" s="112" t="e">
         <f>SUM(G37:G38)/G$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="74"/>
-      <c r="J37" s="114" t="e">
+      <c r="J37" s="112" t="e">
         <f>SUM(I37:I38)/I$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="74"/>
-      <c r="L37" s="114" t="e">
+      <c r="L37" s="112" t="e">
         <f>SUM(K37:K38)/K$14</f>
         <v>#DIV/0!</v>
       </c>
@@ -3995,50 +3999,50 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="14" customHeight="1" thickBot="1">
-      <c r="B38" s="120"/>
-      <c r="C38" s="122" t="s">
+      <c r="B38" s="118"/>
+      <c r="C38" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="123"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="75"/>
-      <c r="F38" s="121"/>
+      <c r="F38" s="119"/>
       <c r="G38" s="75"/>
-      <c r="H38" s="121"/>
+      <c r="H38" s="119"/>
       <c r="I38" s="75"/>
-      <c r="J38" s="121"/>
+      <c r="J38" s="119"/>
       <c r="K38" s="75"/>
-      <c r="L38" s="121"/>
+      <c r="L38" s="119"/>
       <c r="M38" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N38" s="117"/>
+      <c r="N38" s="115"/>
     </row>
     <row r="39" spans="2:14" ht="14" customHeight="1">
-      <c r="B39" s="109" t="s">
+      <c r="B39" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="135" t="s">
+      <c r="C39" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="136"/>
+      <c r="D39" s="132"/>
       <c r="E39" s="74"/>
-      <c r="F39" s="114" t="e">
+      <c r="F39" s="112" t="e">
         <f>SUM(E39:E40)/E$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="74"/>
-      <c r="H39" s="114" t="e">
+      <c r="H39" s="112" t="e">
         <f>SUM(G39:G40)/G$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="74"/>
-      <c r="J39" s="114" t="e">
+      <c r="J39" s="112" t="e">
         <f>SUM(I39:I40)/I$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="74"/>
-      <c r="L39" s="114" t="e">
+      <c r="L39" s="112" t="e">
         <f>SUM(K39:K40)/K$14</f>
         <v>#DIV/0!</v>
       </c>
@@ -4052,50 +4056,50 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="14" customHeight="1" thickBot="1">
-      <c r="B40" s="120"/>
-      <c r="C40" s="122" t="s">
+      <c r="B40" s="118"/>
+      <c r="C40" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="123"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="75"/>
-      <c r="F40" s="121"/>
+      <c r="F40" s="119"/>
       <c r="G40" s="75"/>
-      <c r="H40" s="121"/>
+      <c r="H40" s="119"/>
       <c r="I40" s="75"/>
-      <c r="J40" s="121"/>
+      <c r="J40" s="119"/>
       <c r="K40" s="75"/>
-      <c r="L40" s="121"/>
+      <c r="L40" s="119"/>
       <c r="M40" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N40" s="117"/>
+      <c r="N40" s="115"/>
     </row>
     <row r="41" spans="2:14" ht="14" customHeight="1">
-      <c r="B41" s="109" t="s">
+      <c r="B41" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="131" t="s">
+      <c r="C41" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="132"/>
+      <c r="D41" s="130"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="114" t="e">
+      <c r="F41" s="112" t="e">
         <f>(E41+E42)/E$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="76"/>
-      <c r="H41" s="114" t="e">
+      <c r="H41" s="112" t="e">
         <f>(G41+G42)/G$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="76"/>
-      <c r="J41" s="114" t="e">
+      <c r="J41" s="112" t="e">
         <f>(I41+I42)/I$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K41" s="76"/>
-      <c r="L41" s="114" t="e">
+      <c r="L41" s="112" t="e">
         <f>(K41+K42)/K$14</f>
         <v>#DIV/0!</v>
       </c>
@@ -4109,19 +4113,19 @@
       </c>
     </row>
     <row r="42" spans="2:14" ht="14" customHeight="1" thickBot="1">
-      <c r="B42" s="120"/>
-      <c r="C42" s="126" t="s">
+      <c r="B42" s="118"/>
+      <c r="C42" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="127"/>
+      <c r="D42" s="125"/>
       <c r="E42" s="77"/>
-      <c r="F42" s="116"/>
+      <c r="F42" s="114"/>
       <c r="G42" s="77"/>
-      <c r="H42" s="116"/>
+      <c r="H42" s="114"/>
       <c r="I42" s="77"/>
-      <c r="J42" s="116"/>
+      <c r="J42" s="114"/>
       <c r="K42" s="77"/>
-      <c r="L42" s="116"/>
+      <c r="L42" s="114"/>
       <c r="M42" s="78">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -4129,30 +4133,30 @@
       <c r="N42" s="100"/>
     </row>
     <row r="43" spans="2:14" ht="14" customHeight="1" thickBot="1">
-      <c r="B43" s="128" t="s">
+      <c r="B43" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="129" t="s">
+      <c r="C43" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="130"/>
+      <c r="D43" s="128"/>
       <c r="E43" s="71"/>
-      <c r="F43" s="114" t="e">
+      <c r="F43" s="112" t="e">
         <f>(E43+E44)/E$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G43" s="71"/>
-      <c r="H43" s="114" t="e">
+      <c r="H43" s="112" t="e">
         <f>(G43+G44)/G$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="75"/>
-      <c r="J43" s="114" t="e">
+      <c r="J43" s="112" t="e">
         <f>(I43+I44)/I$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="71"/>
-      <c r="L43" s="114" t="e">
+      <c r="L43" s="112" t="e">
         <f>(K43+K44)/K$14</f>
         <v>#DIV/0!</v>
       </c>
@@ -4166,19 +4170,19 @@
       </c>
     </row>
     <row r="44" spans="2:14" ht="14" customHeight="1" thickBot="1">
-      <c r="B44" s="120"/>
-      <c r="C44" s="122" t="s">
+      <c r="B44" s="118"/>
+      <c r="C44" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="123"/>
+      <c r="D44" s="121"/>
       <c r="E44" s="75"/>
-      <c r="F44" s="116"/>
+      <c r="F44" s="114"/>
       <c r="G44" s="75"/>
-      <c r="H44" s="116"/>
+      <c r="H44" s="114"/>
       <c r="I44" s="75"/>
-      <c r="J44" s="116"/>
+      <c r="J44" s="114"/>
       <c r="K44" s="75"/>
-      <c r="L44" s="116"/>
+      <c r="L44" s="114"/>
       <c r="M44" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -4189,10 +4193,10 @@
       <c r="B45" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="124" t="s">
+      <c r="C45" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="125"/>
+      <c r="D45" s="123"/>
       <c r="E45" s="79"/>
       <c r="F45" s="80" t="e">
         <f>E45/E$14</f>
@@ -4223,13 +4227,13 @@
       </c>
     </row>
     <row r="46" spans="2:14" ht="14" customHeight="1">
-      <c r="B46" s="109" t="s">
+      <c r="B46" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="112" t="s">
+      <c r="C46" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="113"/>
+      <c r="D46" s="111"/>
       <c r="E46" s="74"/>
       <c r="F46" s="17" t="e">
         <f>E46/E$14</f>
@@ -4260,11 +4264,11 @@
       </c>
     </row>
     <row r="47" spans="2:14" ht="14" customHeight="1" thickBot="1">
-      <c r="B47" s="120"/>
-      <c r="C47" s="118" t="s">
+      <c r="B47" s="118"/>
+      <c r="C47" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="119"/>
+      <c r="D47" s="117"/>
       <c r="E47" s="78"/>
       <c r="F47" s="82" t="e">
         <f>E47/E$14</f>
@@ -4295,30 +4299,30 @@
       </c>
     </row>
     <row r="48" spans="2:14" ht="14" customHeight="1">
-      <c r="B48" s="109" t="s">
+      <c r="B48" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="112" t="s">
+      <c r="C48" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="113"/>
+      <c r="D48" s="111"/>
       <c r="E48" s="74"/>
-      <c r="F48" s="114" t="e">
+      <c r="F48" s="112" t="e">
         <f>SUM(E48:E53)/E$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G48" s="74"/>
-      <c r="H48" s="114" t="e">
+      <c r="H48" s="112" t="e">
         <f>SUM(G48:G53)/G$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I48" s="74"/>
-      <c r="J48" s="114" t="e">
+      <c r="J48" s="112" t="e">
         <f>SUM(I48:I53)/I$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K48" s="74"/>
-      <c r="L48" s="114" t="e">
+      <c r="L48" s="112" t="e">
         <f>SUM(K48:K53)/K$14</f>
         <v>#DIV/0!</v>
       </c>
@@ -4332,19 +4336,19 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="14" customHeight="1">
-      <c r="B49" s="110"/>
-      <c r="C49" s="103" t="s">
+      <c r="B49" s="108"/>
+      <c r="C49" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="104"/>
+      <c r="D49" s="102"/>
       <c r="E49" s="54"/>
-      <c r="F49" s="115"/>
+      <c r="F49" s="113"/>
       <c r="G49" s="54"/>
-      <c r="H49" s="115"/>
+      <c r="H49" s="113"/>
       <c r="I49" s="54"/>
-      <c r="J49" s="115"/>
+      <c r="J49" s="113"/>
       <c r="K49" s="54"/>
-      <c r="L49" s="115"/>
+      <c r="L49" s="113"/>
       <c r="M49" s="54">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -4352,19 +4356,19 @@
       <c r="N49" s="99"/>
     </row>
     <row r="50" spans="2:14" ht="14" customHeight="1">
-      <c r="B50" s="110"/>
-      <c r="C50" s="103" t="s">
+      <c r="B50" s="108"/>
+      <c r="C50" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="104"/>
+      <c r="D50" s="102"/>
       <c r="E50" s="54"/>
-      <c r="F50" s="115"/>
+      <c r="F50" s="113"/>
       <c r="G50" s="54"/>
-      <c r="H50" s="115"/>
+      <c r="H50" s="113"/>
       <c r="I50" s="54"/>
-      <c r="J50" s="115"/>
+      <c r="J50" s="113"/>
       <c r="K50" s="54"/>
-      <c r="L50" s="115"/>
+      <c r="L50" s="113"/>
       <c r="M50" s="54">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -4372,19 +4376,19 @@
       <c r="N50" s="99"/>
     </row>
     <row r="51" spans="2:14" ht="14" customHeight="1">
-      <c r="B51" s="110"/>
-      <c r="C51" s="103" t="s">
+      <c r="B51" s="108"/>
+      <c r="C51" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="104"/>
+      <c r="D51" s="102"/>
       <c r="E51" s="54"/>
-      <c r="F51" s="115"/>
+      <c r="F51" s="113"/>
       <c r="G51" s="54"/>
-      <c r="H51" s="115"/>
+      <c r="H51" s="113"/>
       <c r="I51" s="54"/>
-      <c r="J51" s="115"/>
+      <c r="J51" s="113"/>
       <c r="K51" s="54"/>
-      <c r="L51" s="115"/>
+      <c r="L51" s="113"/>
       <c r="M51" s="54">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -4392,19 +4396,19 @@
       <c r="N51" s="99"/>
     </row>
     <row r="52" spans="2:14" ht="14" customHeight="1">
-      <c r="B52" s="110"/>
-      <c r="C52" s="103" t="s">
+      <c r="B52" s="108"/>
+      <c r="C52" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="104"/>
+      <c r="D52" s="102"/>
       <c r="E52" s="54"/>
-      <c r="F52" s="115"/>
+      <c r="F52" s="113"/>
       <c r="G52" s="54"/>
-      <c r="H52" s="115"/>
+      <c r="H52" s="113"/>
       <c r="I52" s="54"/>
-      <c r="J52" s="115"/>
+      <c r="J52" s="113"/>
       <c r="K52" s="54"/>
-      <c r="L52" s="115"/>
+      <c r="L52" s="113"/>
       <c r="M52" s="54">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -4412,50 +4416,50 @@
       <c r="N52" s="99"/>
     </row>
     <row r="53" spans="2:14" ht="14" customHeight="1" thickBot="1">
-      <c r="B53" s="120"/>
-      <c r="C53" s="118" t="s">
+      <c r="B53" s="118"/>
+      <c r="C53" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="119"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="75"/>
-      <c r="F53" s="121"/>
+      <c r="F53" s="119"/>
       <c r="G53" s="75"/>
-      <c r="H53" s="121"/>
+      <c r="H53" s="119"/>
       <c r="I53" s="75"/>
-      <c r="J53" s="121"/>
+      <c r="J53" s="119"/>
       <c r="K53" s="75"/>
-      <c r="L53" s="121"/>
+      <c r="L53" s="119"/>
       <c r="M53" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N53" s="117"/>
+      <c r="N53" s="115"/>
     </row>
     <row r="54" spans="2:14" ht="14" customHeight="1">
-      <c r="B54" s="109" t="s">
+      <c r="B54" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="112" t="s">
+      <c r="C54" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="113"/>
+      <c r="D54" s="111"/>
       <c r="E54" s="74"/>
-      <c r="F54" s="114" t="e">
+      <c r="F54" s="112" t="e">
         <f>SUM(E54:E61)/E$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G54" s="74"/>
-      <c r="H54" s="114" t="e">
+      <c r="H54" s="112" t="e">
         <f>SUM(G54:G61)/G$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I54" s="54"/>
-      <c r="J54" s="114" t="e">
+      <c r="J54" s="112" t="e">
         <f>SUM(I54:I61)/I$14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K54" s="74"/>
-      <c r="L54" s="114" t="e">
+      <c r="L54" s="112" t="e">
         <f>SUM(K54:K61)/K$14</f>
         <v>#DIV/0!</v>
       </c>
@@ -4469,19 +4473,19 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="14" customHeight="1">
-      <c r="B55" s="110"/>
-      <c r="C55" s="103" t="s">
+      <c r="B55" s="108"/>
+      <c r="C55" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="104"/>
+      <c r="D55" s="102"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="115"/>
+      <c r="F55" s="113"/>
       <c r="G55" s="26"/>
-      <c r="H55" s="115"/>
+      <c r="H55" s="113"/>
       <c r="I55" s="26"/>
-      <c r="J55" s="115"/>
+      <c r="J55" s="113"/>
       <c r="K55" s="26"/>
-      <c r="L55" s="115"/>
+      <c r="L55" s="113"/>
       <c r="M55" s="26">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -4489,19 +4493,19 @@
       <c r="N55" s="99"/>
     </row>
     <row r="56" spans="2:14" ht="14" customHeight="1">
-      <c r="B56" s="110"/>
-      <c r="C56" s="105" t="s">
+      <c r="B56" s="108"/>
+      <c r="C56" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="106"/>
+      <c r="D56" s="104"/>
       <c r="E56" s="54"/>
-      <c r="F56" s="115"/>
+      <c r="F56" s="113"/>
       <c r="G56" s="54"/>
-      <c r="H56" s="115"/>
+      <c r="H56" s="113"/>
       <c r="I56" s="54"/>
-      <c r="J56" s="115"/>
+      <c r="J56" s="113"/>
       <c r="K56" s="54"/>
-      <c r="L56" s="115"/>
+      <c r="L56" s="113"/>
       <c r="M56" s="54">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -4509,19 +4513,19 @@
       <c r="N56" s="99"/>
     </row>
     <row r="57" spans="2:14" ht="14" customHeight="1">
-      <c r="B57" s="110"/>
-      <c r="C57" s="103" t="s">
+      <c r="B57" s="108"/>
+      <c r="C57" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="104"/>
+      <c r="D57" s="102"/>
       <c r="E57" s="54"/>
-      <c r="F57" s="115"/>
+      <c r="F57" s="113"/>
       <c r="G57" s="54"/>
-      <c r="H57" s="115"/>
+      <c r="H57" s="113"/>
       <c r="I57" s="54"/>
-      <c r="J57" s="115"/>
+      <c r="J57" s="113"/>
       <c r="K57" s="54"/>
-      <c r="L57" s="115"/>
+      <c r="L57" s="113"/>
       <c r="M57" s="54">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -4529,19 +4533,19 @@
       <c r="N57" s="99"/>
     </row>
     <row r="58" spans="2:14" ht="14" customHeight="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="105" t="s">
+      <c r="B58" s="108"/>
+      <c r="C58" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="106"/>
+      <c r="D58" s="104"/>
       <c r="E58" s="54"/>
-      <c r="F58" s="115"/>
+      <c r="F58" s="113"/>
       <c r="G58" s="54"/>
-      <c r="H58" s="115"/>
+      <c r="H58" s="113"/>
       <c r="I58" s="54"/>
-      <c r="J58" s="115"/>
+      <c r="J58" s="113"/>
       <c r="K58" s="54"/>
-      <c r="L58" s="115"/>
+      <c r="L58" s="113"/>
       <c r="M58" s="54">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -4549,19 +4553,19 @@
       <c r="N58" s="99"/>
     </row>
     <row r="59" spans="2:14" ht="14" customHeight="1">
-      <c r="B59" s="110"/>
-      <c r="C59" s="105" t="s">
+      <c r="B59" s="108"/>
+      <c r="C59" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="106"/>
+      <c r="D59" s="104"/>
       <c r="E59" s="54"/>
-      <c r="F59" s="115"/>
+      <c r="F59" s="113"/>
       <c r="G59" s="54"/>
-      <c r="H59" s="115"/>
+      <c r="H59" s="113"/>
       <c r="I59" s="54"/>
-      <c r="J59" s="115"/>
+      <c r="J59" s="113"/>
       <c r="K59" s="54"/>
-      <c r="L59" s="115"/>
+      <c r="L59" s="113"/>
       <c r="M59" s="54">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -4569,19 +4573,19 @@
       <c r="N59" s="99"/>
     </row>
     <row r="60" spans="2:14" ht="14" customHeight="1">
-      <c r="B60" s="110"/>
-      <c r="C60" s="103" t="s">
+      <c r="B60" s="108"/>
+      <c r="C60" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="104"/>
+      <c r="D60" s="102"/>
       <c r="E60" s="54"/>
-      <c r="F60" s="115"/>
+      <c r="F60" s="113"/>
       <c r="G60" s="54"/>
-      <c r="H60" s="115"/>
+      <c r="H60" s="113"/>
       <c r="I60" s="54"/>
-      <c r="J60" s="115"/>
+      <c r="J60" s="113"/>
       <c r="K60" s="54"/>
-      <c r="L60" s="115"/>
+      <c r="L60" s="113"/>
       <c r="M60" s="54">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -4589,19 +4593,19 @@
       <c r="N60" s="99"/>
     </row>
     <row r="61" spans="2:14" ht="14" customHeight="1" thickBot="1">
-      <c r="B61" s="111"/>
-      <c r="C61" s="107" t="s">
+      <c r="B61" s="109"/>
+      <c r="C61" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="108"/>
+      <c r="D61" s="106"/>
       <c r="E61" s="84"/>
-      <c r="F61" s="116"/>
+      <c r="F61" s="114"/>
       <c r="G61" s="84"/>
-      <c r="H61" s="116"/>
+      <c r="H61" s="114"/>
       <c r="I61" s="84"/>
-      <c r="J61" s="116"/>
+      <c r="J61" s="114"/>
       <c r="K61" s="84"/>
-      <c r="L61" s="116"/>
+      <c r="L61" s="114"/>
       <c r="M61" s="84">
         <f t="shared" si="14"/>
         <v>0</v>
